--- a/on_trucks/Processed_Stand_Alone/10_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/10_245-70R19.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>128</v>
       </c>
       <c r="E2">
-        <v>0.008633308113208046</v>
+        <v>0.008441812073723569</v>
       </c>
       <c r="F2">
         <v>0.5179725647211256</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>0.004730630713836136</v>
+        <v>0.004705503334542409</v>
       </c>
       <c r="F3">
         <v>0.5569833561621805</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>130</v>
       </c>
       <c r="E4">
-        <v>0.005479873671755744</v>
+        <v>0.005337774033308033</v>
       </c>
       <c r="F4">
         <v>0.550765826740669</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>130</v>
       </c>
       <c r="E5">
-        <v>0.00602823942627983</v>
+        <v>0.006026037585510682</v>
       </c>
       <c r="F5">
         <v>0.5321082614000309</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>129</v>
       </c>
       <c r="E6">
-        <v>0.006317664092323982</v>
+        <v>0.005940632590531252</v>
       </c>
       <c r="F6">
         <v>0.5128866026012472</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>140</v>
       </c>
       <c r="E2">
-        <v>0.008633308113208046</v>
+        <v>0.008441812073723569</v>
       </c>
       <c r="F2">
         <v>0.7231067219592636</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>140</v>
       </c>
       <c r="E3">
-        <v>0.004730630713836136</v>
+        <v>0.004705503334542409</v>
       </c>
       <c r="F3">
         <v>0.720212790804176</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>141</v>
       </c>
       <c r="E4">
-        <v>0.005479873671755744</v>
+        <v>0.005337774033308033</v>
       </c>
       <c r="F4">
         <v>0.7034637045612355</v>
       </c>
       <c r="G4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>140</v>
       </c>
       <c r="E5">
-        <v>0.00602823942627983</v>
+        <v>0.006026037585510682</v>
       </c>
       <c r="F5">
         <v>0.7095630021689322</v>
       </c>
       <c r="G5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>139</v>
       </c>
       <c r="E6">
-        <v>0.006317664092323982</v>
+        <v>0.005940632590531252</v>
       </c>
       <c r="F6">
         <v>0.7013986153637926</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>149</v>
       </c>
       <c r="E2">
-        <v>0.008633308113208046</v>
+        <v>0.008441812073723569</v>
       </c>
       <c r="F2">
         <v>0.8099808876985989</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>150</v>
       </c>
       <c r="E3">
-        <v>0.004730630713836136</v>
+        <v>0.004705503334542409</v>
       </c>
       <c r="F3">
         <v>0.8076400705167959</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.005479873671755744</v>
+        <v>0.005337774033308033</v>
       </c>
       <c r="F4">
         <v>0.8112933141246061</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>150</v>
       </c>
       <c r="E5">
-        <v>0.00602823942627983</v>
+        <v>0.006026037585510682</v>
       </c>
       <c r="F5">
         <v>0.8071372237932151</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>149</v>
       </c>
       <c r="E6">
-        <v>0.006317664092323982</v>
+        <v>0.005940632590531252</v>
       </c>
       <c r="F6">
         <v>0.8092446710557867</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>164</v>
       </c>
       <c r="E2">
-        <v>0.008633308113208046</v>
+        <v>0.008441812073723569</v>
       </c>
       <c r="F2">
         <v>0.9023100645601745</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>165</v>
       </c>
       <c r="E3">
-        <v>0.004730630713836136</v>
+        <v>0.004705503334542409</v>
       </c>
       <c r="F3">
         <v>0.9049918317004615</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>164</v>
       </c>
       <c r="E4">
-        <v>0.005479873671755744</v>
+        <v>0.005337774033308033</v>
       </c>
       <c r="F4">
         <v>0.9000839259122227</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>165</v>
       </c>
       <c r="E5">
-        <v>0.00602823942627983</v>
+        <v>0.006026037585510682</v>
       </c>
       <c r="F5">
         <v>0.9028302784984203</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>164</v>
       </c>
       <c r="E6">
-        <v>0.006317664092323982</v>
+        <v>0.005940632590531252</v>
       </c>
       <c r="F6">
         <v>0.9189516736979139</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>10</v>

--- a/on_trucks/Processed_Stand_Alone/10_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/10_245-70R19.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.068898312256476E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.77493308059717E-07</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>7.458911458934695E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.263547535559226E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001107031172639005</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0001674616070390042</v>
+        <v>1.139815592735797E-05</v>
       </c>
       <c r="H2">
-        <v>0.0002110081814698124</v>
+        <v>5.600123037370532E-05</v>
       </c>
       <c r="I2">
-        <v>0.0002178123421621271</v>
+        <v>6.297046939815336E-05</v>
       </c>
       <c r="J2">
-        <v>0.0001717332974736432</v>
+        <v>1.577348346938293E-05</v>
       </c>
       <c r="K2">
-        <v>0.000156333435906727</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0001724504675466144</v>
+        <v>1.650805307844023E-05</v>
       </c>
       <c r="M2">
-        <v>0.0001499070952528551</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001222038724340876</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>7.575582270805802E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.125642521527567E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>6.945483406694048E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>3.4132537472942E-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>6.773626189207796E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>7.560125269233071E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001391789241612774</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001486879951288132</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001835170786726279</v>
+        <v>2.784315546879364E-05</v>
       </c>
       <c r="X2">
-        <v>0.0002310585935099162</v>
+        <v>7.653809309124626E-05</v>
       </c>
       <c r="Y2">
-        <v>0.0003305166936296506</v>
+        <v>0.0001784091840304756</v>
       </c>
       <c r="Z2">
-        <v>0.0002514333255830191</v>
+        <v>9.740714429353906E-05</v>
       </c>
       <c r="AA2">
-        <v>0.0001925119195878414</v>
+        <v>3.705622364277343E-05</v>
       </c>
       <c r="AB2">
-        <v>0.0001626679465512554</v>
+        <v>6.488194618109547E-06</v>
       </c>
       <c r="AC2">
-        <v>0.0001028936104692932</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>4.900185898587643E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>5.390231148449121E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.648871880011645E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>5.666924576602323E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>4.325760440140589E-06</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.593287563863691E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.147271016733358E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.926727297790757E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>4.79834978822595E-05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>4.264946433952842E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>7.528073265971821E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0001081297910020678</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0001273948429622622</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0001222038724340876</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0001778769580987529</v>
+        <v>2.206619778311755E-05</v>
       </c>
       <c r="AS2">
-        <v>0.0001656976168595205</v>
+        <v>9.591368910777515E-06</v>
       </c>
       <c r="AT2">
-        <v>0.000144271514679442</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>7.64712537808522E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>4.610868469149966E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>2.286006832598269E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>5.013443510111462E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>4.712089479449074E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>3.645263370900883E-07</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>2.973873302587803E-06</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>4.823945090830239E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>8.314866846027061E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.000147026074959715</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0002318903335945447</v>
+        <v>7.739001233861765E-05</v>
       </c>
       <c r="BF2">
-        <v>0.000241138354535519</v>
+        <v>8.686240303532024E-05</v>
       </c>
       <c r="BG2">
-        <v>0.0002808540885765441</v>
+        <v>0.0001275416956152188</v>
       </c>
       <c r="BH2">
-        <v>0.000313836271932439</v>
+        <v>0.0001613240722741113</v>
       </c>
       <c r="BI2">
-        <v>0.0002360715640199795</v>
+        <v>8.167268518672719E-05</v>
       </c>
       <c r="BJ2">
-        <v>0.0002048398208421896</v>
+        <v>4.968321680129604E-05</v>
       </c>
       <c r="BK2">
-        <v>0.0001550884357800499</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>8.190706433393896E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>7.207816733386128E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>2.048759108458617E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>8.648871880011645E-06</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>6.170560627846647E-08</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1.46267854882567E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>3.966869403623885E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>6.520689663471828E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>8.786227893987443E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0001333243135655783</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0001095556761471498</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.000148238365083064</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0001996502303141554</v>
+        <v>4.436771964236893E-05</v>
       </c>
       <c r="BY2">
-        <v>0.0001912434894587803</v>
+        <v>3.575701964760276E-05</v>
       </c>
       <c r="BZ2">
-        <v>0.0001121458154106932</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0001252443027434475</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>5.223959531531197E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>4.79834978822595E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>4.420074449736919E-06</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>2.910575896147373E-06</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>4.637356171845056E-07</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.183899220460231E-07</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>2.311234335165136E-07</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>2.463812650689784E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>5.572363266980831E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>9.05341992117389E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.000100961840272738</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>4.451709452955739E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.07182554130815691</v>
+        <v>0.07340800180082933</v>
       </c>
       <c r="CO2">
-        <v>0.01350635137425397</v>
+        <v>0.0136739078043968</v>
       </c>
       <c r="CP2">
-        <v>0.1047833666615735</v>
+        <v>0.107165429498475</v>
       </c>
       <c r="CQ2">
-        <v>0.003374344343335218</v>
+        <v>0.003296084294787704</v>
       </c>
       <c r="CR2">
-        <v>0.004428804850625225</v>
+        <v>0.004376127469759353</v>
       </c>
       <c r="CS2">
-        <v>0.01096680011585788</v>
+        <v>0.01107274352639979</v>
       </c>
       <c r="CT2">
-        <v>0.03736355180169358</v>
+        <v>0.03810991685115407</v>
       </c>
       <c r="CU2">
-        <v>0.00228806563280775</v>
+        <v>0.002183450963040245</v>
       </c>
       <c r="CV2">
-        <v>0.01087154110616539</v>
+        <v>0.01097517340161879</v>
       </c>
       <c r="CW2">
-        <v>0.03544443060642545</v>
+        <v>0.03614423512617438</v>
       </c>
       <c r="CX2">
-        <v>0.007222734234903965</v>
+        <v>0.007237841438164127</v>
       </c>
       <c r="CY2">
-        <v>0.000544831855435944</v>
+        <v>0.0003979239275429808</v>
       </c>
       <c r="CZ2">
-        <v>0.0006856262997615985</v>
+        <v>0.0005421342394669978</v>
       </c>
       <c r="DA2">
-        <v>0.02880191493055798</v>
+        <v>0.02934056284943758</v>
       </c>
       <c r="DB2">
-        <v>0.007879719801751405</v>
+        <v>0.007910766381889218</v>
       </c>
       <c r="DC2">
-        <v>0.007899142803727671</v>
+        <v>0.007930660612708577</v>
       </c>
       <c r="DD2">
-        <v>0.02686406373338411</v>
+        <v>0.02735569670684751</v>
       </c>
       <c r="DE2">
-        <v>0.0007681335181566024</v>
+        <v>0.0006266431968886824</v>
       </c>
       <c r="DF2">
-        <v>0.004864040494909895</v>
+        <v>0.004821922531655173</v>
       </c>
       <c r="DG2">
-        <v>0.03504082956535956</v>
+        <v>0.03573084216664576</v>
       </c>
       <c r="DH2">
-        <v>0.009721854989186304</v>
+        <v>0.009797594312199736</v>
       </c>
       <c r="DI2">
-        <v>0.01184432020514442</v>
+        <v>0.01197155346454553</v>
       </c>
       <c r="DJ2">
-        <v>4.249349732365897E-06</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.0001023398104129447</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.002914281296524392</v>
+        <v>0.002824859483304046</v>
       </c>
       <c r="DM2">
-        <v>0.0005340391543378005</v>
+        <v>0.0003868693806159302</v>
       </c>
       <c r="DN2">
-        <v>0.0004579965766005655</v>
+        <v>0.0003089819049593726</v>
       </c>
       <c r="DO2">
-        <v>0.0005154738524488048</v>
+        <v>0.0003678536588720874</v>
       </c>
       <c r="DP2">
-        <v>0.0001492384751848239</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.0005531579962831183</v>
+        <v>0.0004064520720620718</v>
       </c>
       <c r="DR2">
-        <v>0.002087387512389008</v>
+        <v>0.001977904114366479</v>
       </c>
       <c r="DS2">
-        <v>0.009479867964564433</v>
+        <v>0.009549736348276324</v>
       </c>
       <c r="DT2">
-        <v>0.001036720805485015</v>
+        <v>0.000901746782615881</v>
       </c>
       <c r="DU2">
-        <v>0.007685239281963262</v>
+        <v>0.007711567496193677</v>
       </c>
       <c r="DV2">
-        <v>2.568702661362208E-05</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.02460905950394031</v>
+        <v>0.0250459829615672</v>
       </c>
       <c r="DX2">
-        <v>0.0001668784369796674</v>
+        <v>1.080083735726448E-05</v>
       </c>
       <c r="DY2">
-        <v>0.02198311223675354</v>
+        <v>0.02235632658832902</v>
       </c>
       <c r="DZ2">
-        <v>0.002305554434587213</v>
+        <v>0.002201364067295695</v>
       </c>
       <c r="EA2">
-        <v>0.03470902153159852</v>
+        <v>0.03539098401189572</v>
       </c>
       <c r="EB2">
-        <v>0.06044356015005489</v>
+        <v>0.06174987806601308</v>
       </c>
       <c r="EC2">
-        <v>2.32999873707439E-05</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.0006412753652489477</v>
+        <v>0.0004967072900527329</v>
       </c>
       <c r="EE2">
-        <v>0.001120509314010389</v>
+        <v>0.0009875681160354313</v>
       </c>
       <c r="EF2">
-        <v>2.094168313078946E-05</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.004767299485066621</v>
+        <v>0.004722834451353692</v>
       </c>
       <c r="EH2">
-        <v>0.005111121520050073</v>
+        <v>0.005074998083582178</v>
       </c>
       <c r="EI2">
-        <v>0.02796219984511805</v>
+        <v>0.02848047511672488</v>
       </c>
       <c r="EJ2">
-        <v>0.03956672402586353</v>
+        <v>0.04036654107515398</v>
       </c>
       <c r="EK2">
-        <v>0.0284626498960382</v>
+        <v>0.02899306677679534</v>
       </c>
       <c r="EL2">
-        <v>0.01911140194456069</v>
+        <v>0.01941494463980081</v>
       </c>
       <c r="EM2">
-        <v>0.001211641123282934</v>
+        <v>0.001080910908816347</v>
       </c>
       <c r="EN2">
-        <v>0.006538193665252838</v>
+        <v>0.006536692969225245</v>
       </c>
       <c r="EO2">
-        <v>0.002733244178104097</v>
+        <v>0.002639430154453328</v>
       </c>
       <c r="EP2">
-        <v>0.001911841194527395</v>
+        <v>0.001798098800476526</v>
       </c>
       <c r="EQ2">
-        <v>0.01482025650794213</v>
+        <v>0.01501969009058898</v>
       </c>
       <c r="ER2">
-        <v>0.01710506674041865</v>
+        <v>0.01735993297368537</v>
       </c>
       <c r="ES2">
-        <v>0.008801414895532702</v>
+        <v>0.008854823071126191</v>
       </c>
       <c r="ET2">
-        <v>0.01464110548971375</v>
+        <v>0.01483619262132475</v>
       </c>
       <c r="EU2">
-        <v>0.01363691138753828</v>
+        <v>0.01380763538385289</v>
       </c>
       <c r="EV2">
-        <v>0.003366409942527904</v>
+        <v>0.003287957394462671</v>
       </c>
       <c r="EW2">
-        <v>0.0003383396844256299</v>
+        <v>0.0001864219713834871</v>
       </c>
       <c r="EX2">
-        <v>0.004984886007205772</v>
+        <v>0.004945699922917128</v>
       </c>
       <c r="EY2">
-        <v>0.003365855042471443</v>
+        <v>0.003287389031764753</v>
       </c>
       <c r="EZ2">
-        <v>0.00300648980590649</v>
+        <v>0.002919305098425651</v>
       </c>
       <c r="FA2">
-        <v>0.006800819691974699</v>
+        <v>0.006805690665933537</v>
       </c>
       <c r="FB2">
-        <v>0.002570885061584265</v>
+        <v>0.00247313198161579</v>
       </c>
       <c r="FC2">
-        <v>0.001108327112770865</v>
+        <v>0.0009750903577752446</v>
       </c>
       <c r="FD2">
-        <v>0.01195165921606603</v>
+        <v>0.01208149666806297</v>
       </c>
       <c r="FE2">
-        <v>0.01257518827950931</v>
+        <v>0.01272015340742169</v>
       </c>
       <c r="FF2">
-        <v>0.001818177484997232</v>
+        <v>0.001702162680042233</v>
       </c>
       <c r="FG2">
-        <v>3.165417522077182E-06</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.007632610776608378</v>
+        <v>0.007657662150640638</v>
       </c>
       <c r="FI2">
-        <v>0.01916945195046721</v>
+        <v>0.01947440301899372</v>
       </c>
       <c r="FJ2">
-        <v>0.01245089026686215</v>
+        <v>0.01259283975338345</v>
       </c>
       <c r="FK2">
-        <v>0.001416964144174288</v>
+        <v>0.001291215349660881</v>
       </c>
       <c r="FL2">
-        <v>0.0003751654081726002</v>
+        <v>0.0002241411380296855</v>
       </c>
       <c r="FM2">
-        <v>0.0009874608004728726</v>
+        <v>0.0008512916618744064</v>
       </c>
       <c r="FN2">
-        <v>0.0001375712039976939</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.00461072846913572</v>
+        <v>0.004562464806416351</v>
       </c>
       <c r="FP2">
-        <v>0.006478652659194617</v>
+        <v>0.006475707416158495</v>
       </c>
       <c r="FQ2">
-        <v>5.647090574584239E-05</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.002083642612007969</v>
+        <v>0.001974068357532035</v>
       </c>
       <c r="FS2">
-        <v>0.002738462778635083</v>
+        <v>0.002644775365437929</v>
       </c>
       <c r="FT2">
-        <v>0.006794058691286777</v>
+        <v>0.006798765634034774</v>
       </c>
       <c r="FU2">
-        <v>0.003392868745220053</v>
+        <v>0.003315058124236818</v>
       </c>
       <c r="FV2">
-        <v>0.0008236486838051995</v>
+        <v>0.0006835052370994473</v>
       </c>
       <c r="FW2">
-        <v>0.001225955424739395</v>
+        <v>0.001095572494988285</v>
       </c>
       <c r="FX2">
-        <v>0.001513900554037444</v>
+        <v>0.001390503570656493</v>
       </c>
       <c r="FY2">
-        <v>0.002212857225155391</v>
+        <v>0.002106417895586467</v>
       </c>
       <c r="FZ2">
-        <v>0.001267456028962029</v>
+        <v>0.001138079961164567</v>
       </c>
       <c r="GA2">
-        <v>0.0002993112704545387</v>
+        <v>0.0001464466742073245</v>
       </c>
       <c r="GB2">
-        <v>0.0007000159712257292</v>
+        <v>0.000556873024227046</v>
       </c>
       <c r="GC2">
-        <v>0.0003808252587484827</v>
+        <v>0.0002299383043944567</v>
       </c>
       <c r="GD2">
-        <v>0.001673555170282097</v>
+        <v>0.001554031628308378</v>
       </c>
       <c r="GE2">
-        <v>0.007067925119152336</v>
+        <v>0.007079276439536863</v>
       </c>
       <c r="GF2">
-        <v>0.007931608807031046</v>
+        <v>0.007963914286074245</v>
       </c>
       <c r="GG2">
-        <v>0.005188309227903824</v>
+        <v>0.00515405847179283</v>
       </c>
       <c r="GH2">
-        <v>0.002760464180873698</v>
+        <v>0.002667310552069709</v>
       </c>
       <c r="GI2">
-        <v>0.0006107405621420705</v>
+        <v>0.0004654316704665215</v>
       </c>
       <c r="GJ2">
-        <v>0.003676148774043433</v>
+        <v>0.003605210917652264</v>
       </c>
       <c r="GK2">
-        <v>0.001823251285513485</v>
+        <v>0.001707359577963835</v>
       </c>
       <c r="GL2">
-        <v>0.0001048437106677134</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0005252321134416954</v>
+        <v>0.0003778486687487968</v>
       </c>
       <c r="GN2">
-        <v>0.00449756015762099</v>
+        <v>0.00444655087542554</v>
       </c>
       <c r="GO2">
-        <v>0.006422998653531893</v>
+        <v>0.00641870316748318</v>
       </c>
       <c r="GP2">
-        <v>0.002444955048771047</v>
+        <v>0.002344146732834347</v>
       </c>
       <c r="GQ2">
-        <v>0.001841563487376728</v>
+        <v>0.001726116059125874</v>
       </c>
       <c r="GR2">
-        <v>0.0003368329842723251</v>
+        <v>0.0001848787166043321</v>
       </c>
       <c r="GS2">
-        <v>0.0008370390551676527</v>
+        <v>0.0006972204773577304</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.450579159227552E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.720169651649982E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.889735118776184E-05</v>
+        <v>9.032485533775472E-06</v>
       </c>
       <c r="E3">
-        <v>2.233547937220098E-05</v>
+        <v>2.447870763701863E-06</v>
       </c>
       <c r="F3">
-        <v>0.0001271500764261034</v>
+        <v>0.0001076257473329731</v>
       </c>
       <c r="G3">
-        <v>4.707942867670539E-05</v>
+        <v>2.727758073670389E-05</v>
       </c>
       <c r="H3">
-        <v>6.508373817064561E-05</v>
+        <v>4.534429181411959E-05</v>
       </c>
       <c r="I3">
-        <v>0.0001786828149776365</v>
+        <v>0.000159337094483049</v>
       </c>
       <c r="J3">
-        <v>0.0001552506056362621</v>
+        <v>0.0001358236708652969</v>
       </c>
       <c r="K3">
-        <v>5.481319845932689E-05</v>
+        <v>3.503815518411039E-05</v>
       </c>
       <c r="L3">
-        <v>0.0001566322555974271</v>
+        <v>0.0001372101095213804</v>
       </c>
       <c r="M3">
-        <v>2.603272626827986E-05</v>
+        <v>6.157932039632015E-06</v>
       </c>
       <c r="N3">
-        <v>1.847695248065531E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.360807133643134E-05</v>
+        <v>3.724873436030354E-06</v>
       </c>
       <c r="P3">
-        <v>6.562039815556134E-05</v>
+        <v>4.588281182220688E-05</v>
       </c>
       <c r="Q3">
-        <v>2.965041616659491E-05</v>
+        <v>9.788160579223702E-06</v>
       </c>
       <c r="R3">
-        <v>1.989606344076736E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>5.354754449490152E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>3.615505798376437E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>3.120168112299241E-05</v>
+        <v>1.134480210336472E-05</v>
       </c>
       <c r="V3">
-        <v>0.0001189791116557705</v>
+        <v>9.942646261288796E-05</v>
       </c>
       <c r="W3">
-        <v>0.0001860666947700926</v>
+        <v>0.0001667465662478824</v>
       </c>
       <c r="X3">
-        <v>0.0001507915957615946</v>
+        <v>0.0001313492063975496</v>
       </c>
       <c r="Y3">
-        <v>8.655394756716733E-05</v>
+        <v>6.688891534267699E-05</v>
       </c>
       <c r="Z3">
-        <v>0.0001298364963505943</v>
+        <v>0.000110321478187007</v>
       </c>
       <c r="AA3">
-        <v>0.0002139007339877417</v>
+        <v>0.0001946770761534124</v>
       </c>
       <c r="AB3">
-        <v>0.0001546198256539919</v>
+        <v>0.0001351907046470185</v>
       </c>
       <c r="AC3">
-        <v>0.0001933815345644893</v>
+        <v>0.0001740867587272123</v>
       </c>
       <c r="AD3">
-        <v>0.0002233891637210437</v>
+        <v>0.0002041983920710056</v>
       </c>
       <c r="AE3">
-        <v>9.451072734352053E-06</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.278796435948266E-07</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.064294170085135E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.032881070968085E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.270258408080548E-05</v>
+        <v>1.285090707801947E-05</v>
       </c>
       <c r="AJ3">
-        <v>3.423874603762749E-05</v>
+        <v>1.439239325672363E-05</v>
       </c>
       <c r="AK3">
-        <v>2.569511227776942E-05</v>
+        <v>5.819147904406027E-06</v>
       </c>
       <c r="AL3">
-        <v>1.095489269208313E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>4.677624568522718E-05</v>
+        <v>2.69733469357649E-05</v>
       </c>
       <c r="AN3">
-        <v>0.0001126194008345273</v>
+        <v>9.304470951194366E-05</v>
       </c>
       <c r="AO3">
-        <v>9.402832735707969E-06</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.423878175654946E-05</v>
+        <v>2.442708834782992E-05</v>
       </c>
       <c r="AQ3">
-        <v>0.0001484340958278585</v>
+        <v>0.0001289835355462363</v>
       </c>
       <c r="AR3">
-        <v>0.0001321895062844566</v>
+        <v>0.0001126826434764444</v>
       </c>
       <c r="AS3">
-        <v>8.994007747199102E-05</v>
+        <v>7.028678131924427E-05</v>
       </c>
       <c r="AT3">
-        <v>0.0001183258966741308</v>
+        <v>9.877098363721858E-05</v>
       </c>
       <c r="AU3">
-        <v>3.518918201091292E-05</v>
+        <v>1.534612336965629E-05</v>
       </c>
       <c r="AV3">
-        <v>1.1473580677504E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1.294192163623231E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>4.196613182042843E-09</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>3.095495712992726E-05</v>
+        <v>1.109722298348374E-05</v>
       </c>
       <c r="AZ3">
-        <v>5.354754449490152E-06</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>3.408184904203751E-06</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>4.087731485103257E-05</v>
+        <v>2.105397085067133E-05</v>
       </c>
       <c r="BC3">
-        <v>4.138048483688962E-06</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>5.151888555192246E-06</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>1.340047162334352E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1.179182366855892E-06</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>2.188908438474811E-05</v>
+        <v>1.999928604774195E-06</v>
       </c>
       <c r="BH3">
-        <v>0.0001053913270376919</v>
+        <v>8.57915837546011E-05</v>
       </c>
       <c r="BI3">
-        <v>0.000148625555822477</v>
+        <v>0.0001291756591268058</v>
       </c>
       <c r="BJ3">
-        <v>9.476911733625779E-05</v>
+        <v>7.513255827272281E-05</v>
       </c>
       <c r="BK3">
-        <v>0.0001006746971702655</v>
+        <v>8.105860640256309E-05</v>
       </c>
       <c r="BL3">
-        <v>5.978865531947823E-05</v>
+        <v>4.003085660377632E-05</v>
       </c>
       <c r="BM3">
-        <v>3.554581300088885E-05</v>
+        <v>1.570399041583856E-05</v>
       </c>
       <c r="BN3">
-        <v>6.485364217711308E-05</v>
+        <v>4.511339832516783E-05</v>
       </c>
       <c r="BO3">
-        <v>3.620852898226142E-05</v>
+        <v>1.636900332099186E-05</v>
       </c>
       <c r="BP3">
-        <v>7.703537783471249E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>4.240444880810835E-07</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1.944510745344269E-07</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>8.667647356372342E-07</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>9.569553131021842E-05</v>
+        <v>7.606218312788654E-05</v>
       </c>
       <c r="BU3">
-        <v>7.876810778600941E-05</v>
+        <v>5.90760904260328E-05</v>
       </c>
       <c r="BV3">
-        <v>2.360807133643134E-05</v>
+        <v>3.724873436030354E-06</v>
       </c>
       <c r="BW3">
-        <v>7.488920289503653E-05</v>
+        <v>5.518374154225203E-05</v>
       </c>
       <c r="BX3">
-        <v>4.677624568522718E-05</v>
+        <v>2.69733469357649E-05</v>
       </c>
       <c r="BY3">
-        <v>5.509474845141318E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>7.916138377495533E-05</v>
+        <v>5.947072947999721E-05</v>
       </c>
       <c r="CA3">
-        <v>4.220223381379215E-05</v>
+        <v>2.238348188297296E-05</v>
       </c>
       <c r="CB3">
-        <v>1.972910944546005E-07</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>6.467740418206672E-06</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>4.938669861185335E-06</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>6.580783815029283E-06</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>6.694806211824375E-06</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.647530953691689E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>1.541510756671673E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>1.320381662887104E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>1.399750260656235E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>1.268134164355661E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>1.244603765017047E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>9.802796324465913E-05</v>
+        <v>7.8402699096103E-05</v>
       </c>
       <c r="CN3">
-        <v>0.1001198931858598</v>
+        <v>0.1004469361887816</v>
       </c>
       <c r="CO3">
-        <v>0.036888143963159</v>
+        <v>0.03699603047586666</v>
       </c>
       <c r="CP3">
-        <v>0.1093685069259025</v>
+        <v>0.1097276049289078</v>
       </c>
       <c r="CQ3">
-        <v>0.002925896717759764</v>
+        <v>0.002916072634167562</v>
       </c>
       <c r="CR3">
-        <v>0.00060705565293706</v>
+        <v>0.0005891946405017043</v>
       </c>
       <c r="CS3">
-        <v>0.005722125839164186</v>
+        <v>0.005721993275538058</v>
       </c>
       <c r="CT3">
-        <v>0.04337395578085773</v>
+        <v>0.04350432162984233</v>
       </c>
       <c r="CU3">
-        <v>0.006950689804632075</v>
+        <v>0.006954815351369575</v>
       </c>
       <c r="CV3">
-        <v>0.01330226262610395</v>
+        <v>0.01332840224684708</v>
       </c>
       <c r="CW3">
-        <v>0.008283947767157256</v>
+        <v>0.00829269428578323</v>
       </c>
       <c r="CX3">
-        <v>0.0003316101106792015</v>
+        <v>0.0003127944246972741</v>
       </c>
       <c r="CY3">
-        <v>0.0005251285452398428</v>
+        <v>0.0005069835796069711</v>
       </c>
       <c r="CZ3">
-        <v>0.004968669160342123</v>
+        <v>0.004965925172498115</v>
       </c>
       <c r="DA3">
-        <v>0.006948309804698971</v>
+        <v>0.006952427102535588</v>
       </c>
       <c r="DB3">
-        <v>0.01293476763643339</v>
+        <v>0.01295963354716378</v>
       </c>
       <c r="DC3">
-        <v>0.0004611378870384732</v>
+        <v>0.0004427711345939079</v>
       </c>
       <c r="DD3">
-        <v>0.009267627739508271</v>
+        <v>0.009279783618983574</v>
       </c>
       <c r="DE3">
-        <v>0.00127807846407615</v>
+        <v>0.001262543166269136</v>
       </c>
       <c r="DF3">
-        <v>0.0001092886269281477</v>
+        <v>8.970239139355044E-05</v>
       </c>
       <c r="DG3">
-        <v>0.02590495827187113</v>
+        <v>0.02597477788848525</v>
       </c>
       <c r="DH3">
-        <v>0.002969145916544129</v>
+        <v>0.00295947173142424</v>
       </c>
       <c r="DI3">
-        <v>0.006074369829263416</v>
+        <v>0.006075458116831793</v>
       </c>
       <c r="DJ3">
-        <v>1.062095870146925E-06</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>1.028504671091096E-05</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.001156893567482379</v>
+        <v>0.001140938251932207</v>
       </c>
       <c r="DM3">
-        <v>0.001026089671158976</v>
+        <v>0.001009680999135562</v>
       </c>
       <c r="DN3">
-        <v>6.99930440326563E-05</v>
+        <v>5.027061296125732E-05</v>
       </c>
       <c r="DO3">
-        <v>0.000242294363189662</v>
+        <v>0.0002231691155400394</v>
       </c>
       <c r="DP3">
-        <v>0.001002831371812713</v>
+        <v>0.0009863420882718927</v>
       </c>
       <c r="DQ3">
-        <v>0.002634635625946444</v>
+        <v>0.002623802053301632</v>
       </c>
       <c r="DR3">
-        <v>0.007284843795239774</v>
+        <v>0.007290127494593213</v>
       </c>
       <c r="DS3">
-        <v>0.01161382967356192</v>
+        <v>0.01163411731259665</v>
       </c>
       <c r="DT3">
-        <v>1.692746552420782E-05</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.008915284749411823</v>
+        <v>0.008926219434566071</v>
       </c>
       <c r="DV3">
-        <v>0.001683286552686681</v>
+        <v>0.001669155675658753</v>
       </c>
       <c r="DW3">
-        <v>0.02352369333880302</v>
+        <v>0.02358525967013851</v>
       </c>
       <c r="DX3">
-        <v>0.003673378896749757</v>
+        <v>0.003666145530208068</v>
       </c>
       <c r="DY3">
-        <v>0.01861966947664386</v>
+        <v>0.0186642388298668</v>
       </c>
       <c r="DZ3">
-        <v>0.01115746018638942</v>
+        <v>0.01117616608308302</v>
       </c>
       <c r="EA3">
-        <v>0.06020666830772884</v>
+        <v>0.06039537507316002</v>
       </c>
       <c r="EB3">
-        <v>0.04554204471991773</v>
+        <v>0.04567992500220835</v>
       </c>
       <c r="EC3">
-        <v>0.0003997888287628543</v>
+        <v>0.0003812094450933915</v>
       </c>
       <c r="ED3">
-        <v>0.0008080195772884256</v>
+        <v>0.0007908550907101262</v>
       </c>
       <c r="EE3">
-        <v>0.0005280280451583446</v>
+        <v>0.0005098931289742596</v>
       </c>
       <c r="EF3">
-        <v>2.160729939266844E-06</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.004485457873924082</v>
+        <v>0.004481039112080224</v>
       </c>
       <c r="EH3">
-        <v>0.00949543473310514</v>
+        <v>0.009508380174497939</v>
       </c>
       <c r="EI3">
-        <v>0.03380723904975617</v>
+        <v>0.03390444737759934</v>
       </c>
       <c r="EJ3">
-        <v>0.03682565196491551</v>
+        <v>0.03693332188505424</v>
       </c>
       <c r="EK3">
-        <v>0.031335609119228</v>
+        <v>0.03142425096350332</v>
       </c>
       <c r="EL3">
-        <v>0.01204462066145338</v>
+        <v>0.01206640138967325</v>
       </c>
       <c r="EM3">
-        <v>0.0001367336661567307</v>
+        <v>0.00011724255306529</v>
       </c>
       <c r="EN3">
-        <v>0.007920873777362432</v>
+        <v>0.007928361908828955</v>
       </c>
       <c r="EO3">
-        <v>0.0008877089750485397</v>
+        <v>0.0008708206859333039</v>
       </c>
       <c r="EP3">
-        <v>0.002060710442078163</v>
+        <v>0.002047887687883128</v>
       </c>
       <c r="EQ3">
-        <v>0.01699019352244469</v>
+        <v>0.01702911523448419</v>
       </c>
       <c r="ER3">
-        <v>0.01613870954637794</v>
+        <v>0.01617468007895519</v>
       </c>
       <c r="ES3">
-        <v>0.01020851771306202</v>
+        <v>0.01022393464646698</v>
       </c>
       <c r="ET3">
-        <v>0.01167761467176908</v>
+        <v>0.01169812338481342</v>
       </c>
       <c r="EU3">
-        <v>0.009361596736867019</v>
+        <v>0.009374078305824318</v>
       </c>
       <c r="EV3">
-        <v>0.001552219856370665</v>
+        <v>0.001537634712024472</v>
       </c>
       <c r="EW3">
-        <v>0.003411707904104727</v>
+        <v>0.00340356760557011</v>
       </c>
       <c r="EX3">
-        <v>0.007061822801508382</v>
+        <v>0.007066333526860136</v>
       </c>
       <c r="EY3">
-        <v>0.003112255912521635</v>
+        <v>0.003103077735891445</v>
       </c>
       <c r="EZ3">
-        <v>0.004283269879607122</v>
+        <v>0.00427815034937171</v>
       </c>
       <c r="FA3">
-        <v>0.004757715266271553</v>
+        <v>0.004754240128086303</v>
       </c>
       <c r="FB3">
-        <v>0.0009427923135002736</v>
+        <v>0.0009260949390959664</v>
       </c>
       <c r="FC3">
-        <v>0.002687142624470593</v>
+        <v>0.002676491037136161</v>
       </c>
       <c r="FD3">
-        <v>0.0134199226227968</v>
+        <v>0.01344647004424496</v>
       </c>
       <c r="FE3">
-        <v>0.009699210227377478</v>
+        <v>0.009712861939317358</v>
       </c>
       <c r="FF3">
-        <v>0.0007836740779727217</v>
+        <v>0.0007664252117236378</v>
       </c>
       <c r="FG3">
-        <v>0.0003791389693432744</v>
+        <v>0.0003604880148131374</v>
       </c>
       <c r="FH3">
-        <v>0.01350133562050847</v>
+        <v>0.01352816521328758</v>
       </c>
       <c r="FI3">
-        <v>0.02280871335889946</v>
+        <v>0.02286780162336356</v>
       </c>
       <c r="FJ3">
-        <v>0.008950839748412454</v>
+        <v>0.008961897664520872</v>
       </c>
       <c r="FK3">
-        <v>0.0007711553783245936</v>
+        <v>0.0007538631232034532</v>
       </c>
       <c r="FL3">
-        <v>0.0005133848855699301</v>
+        <v>0.0004951992172953132</v>
       </c>
       <c r="FM3">
-        <v>0.0008172989270276045</v>
+        <v>0.0008001666019780513</v>
       </c>
       <c r="FN3">
-        <v>0.0006296151823029635</v>
+        <v>0.0006118323595007824</v>
       </c>
       <c r="FO3">
-        <v>0.007493526489374183</v>
+        <v>0.007499533467260592</v>
       </c>
       <c r="FP3">
-        <v>0.005192631254047063</v>
+        <v>0.005190663501986515</v>
       </c>
       <c r="FQ3">
-        <v>0.0005559946843722665</v>
+        <v>0.0005379566984576831</v>
       </c>
       <c r="FR3">
-        <v>0.002544552928478462</v>
+        <v>0.002533407135974974</v>
       </c>
       <c r="FS3">
-        <v>0.0025467858284157</v>
+        <v>0.002535647774975567</v>
       </c>
       <c r="FT3">
-        <v>0.007799807780765319</v>
+        <v>0.007806876306587136</v>
       </c>
       <c r="FU3">
-        <v>0.004273137879891909</v>
+        <v>0.00426798323290702</v>
       </c>
       <c r="FV3">
-        <v>0.0008649718756876273</v>
+        <v>0.0008480047814949606</v>
       </c>
       <c r="FW3">
-        <v>0.002281591735869697</v>
+        <v>0.002269534539637179</v>
       </c>
       <c r="FX3">
-        <v>0.00249567492985231</v>
+        <v>0.002484359729879326</v>
       </c>
       <c r="FY3">
-        <v>0.002266817936284954</v>
+        <v>0.002254709535173496</v>
       </c>
       <c r="FZ3">
-        <v>0.001968633144666244</v>
+        <v>0.001955491257479045</v>
       </c>
       <c r="GA3">
-        <v>0.0007499735789199654</v>
+        <v>0.0007326079092741439</v>
       </c>
       <c r="GB3">
-        <v>0.0009117963743714983</v>
+        <v>0.0008949915703718713</v>
       </c>
       <c r="GC3">
-        <v>0.0002314950234932066</v>
+        <v>0.0002123323461438905</v>
       </c>
       <c r="GD3">
-        <v>0.002486519230109656</v>
+        <v>0.00247517229716952</v>
       </c>
       <c r="GE3">
-        <v>0.008087169772688233</v>
+        <v>0.008095234273575502</v>
       </c>
       <c r="GF3">
-        <v>0.008154970770782503</v>
+        <v>0.008163270264833145</v>
       </c>
       <c r="GG3">
-        <v>0.005062698857699164</v>
+        <v>0.005060280769718786</v>
       </c>
       <c r="GH3">
-        <v>0.002940277717355547</v>
+        <v>0.002930503477227047</v>
       </c>
       <c r="GI3">
-        <v>0.0009761789425618521</v>
+        <v>0.0009595972837044839</v>
       </c>
       <c r="GJ3">
-        <v>0.004107995284533688</v>
+        <v>0.004102268265725649</v>
       </c>
       <c r="GK3">
-        <v>0.001490083158117185</v>
+        <v>0.001475282652645131</v>
       </c>
       <c r="GL3">
-        <v>6.013135830984564E-05</v>
+        <v>4.037474737695028E-05</v>
       </c>
       <c r="GM3">
-        <v>0.0006521850416685765</v>
+        <v>0.0006344804443025726</v>
       </c>
       <c r="GN3">
-        <v>0.004445532875046281</v>
+        <v>0.004440975736157135</v>
       </c>
       <c r="GO3">
-        <v>0.00532790815024474</v>
+        <v>0.005326409257738801</v>
       </c>
       <c r="GP3">
-        <v>0.001970597444611032</v>
+        <v>0.001957462365539802</v>
       </c>
       <c r="GQ3">
-        <v>0.002400425932529541</v>
+        <v>0.002388780606690892</v>
       </c>
       <c r="GR3">
-        <v>0.0008494229761246712</v>
+        <v>0.0008324019906147975</v>
       </c>
       <c r="GS3">
-        <v>0.001087224969440603</v>
+        <v>0.001071028187766014</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.00031381083190612</v>
+        <v>0.0002977476890487253</v>
       </c>
       <c r="C4">
-        <v>0.0001276911029827503</v>
+        <v>0.000111058622164634</v>
       </c>
       <c r="D4">
-        <v>1.697117172551164E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.501447452656817E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>6.497846660656212E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.390389344711394E-05</v>
+        <v>1.698451870900504E-05</v>
       </c>
       <c r="H4">
-        <v>1.697117172551164E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.270762629202376E-07</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.407716753165524E-05</v>
+        <v>5.728068234467081E-05</v>
       </c>
       <c r="K4">
-        <v>0.0001664163169200628</v>
+        <v>0.0001499022960548978</v>
       </c>
       <c r="L4">
-        <v>7.495750762116215E-05</v>
+        <v>5.816371538367964E-05</v>
       </c>
       <c r="M4">
-        <v>0.0001088325610653438</v>
+        <v>9.214239219954153E-05</v>
       </c>
       <c r="N4">
-        <v>0.0002658999570348729</v>
+        <v>0.0002496902554007522</v>
       </c>
       <c r="O4">
-        <v>2.36592324055075E-05</v>
+        <v>6.708519375324712E-06</v>
       </c>
       <c r="P4">
-        <v>8.629118377349213E-06</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.35503943777106E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>3.743546080617934E-05</v>
+        <v>2.052688908916869E-05</v>
       </c>
       <c r="S4">
-        <v>4.114195718303032E-05</v>
+        <v>2.424472359283097E-05</v>
       </c>
       <c r="T4">
-        <v>1.722418175123595E-05</v>
+        <v>2.537839802799164E-07</v>
       </c>
       <c r="U4">
-        <v>4.716517479542953E-06</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1.031674904893586E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1.48568255105395E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>2.33625383753417E-05</v>
+        <v>6.410917761771216E-06</v>
       </c>
       <c r="Y4">
-        <v>1.842965287379994E-05</v>
+        <v>1.462942624175466E-06</v>
       </c>
       <c r="Z4">
-        <v>1.525967655149862E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>6.590539670080598E-05</v>
+        <v>4.908391416739711E-05</v>
       </c>
       <c r="AB4">
-        <v>3.010807206118101E-05</v>
+        <v>1.31770859521571E-05</v>
       </c>
       <c r="AC4">
-        <v>2.694995874008585E-05</v>
+        <v>1.000931200127077E-05</v>
       </c>
       <c r="AD4">
-        <v>0.0001351729537434532</v>
+        <v>0.0001185633598147557</v>
       </c>
       <c r="AE4">
-        <v>0.0001009155052603922</v>
+        <v>8.420111821829566E-05</v>
       </c>
       <c r="AF4">
-        <v>6.875034699006089E-05</v>
+        <v>5.1937567124582E-05</v>
       </c>
       <c r="AG4">
-        <v>7.639290776710374E-05</v>
+        <v>5.96035064010062E-05</v>
       </c>
       <c r="AH4">
-        <v>3.078434112993939E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>3.183453423671578E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>9.551243971104582E-06</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1.35571493783974E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>2.182036621854427E-05</v>
+        <v>4.864028119321349E-06</v>
       </c>
       <c r="AM4">
-        <v>4.61373746909299E-05</v>
+        <v>2.925542202142259E-05</v>
       </c>
       <c r="AN4">
-        <v>9.677730983964908E-06</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>4.120484818942464E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.918992495109915E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>6.278234638327578E-05</v>
+        <v>4.595131047737223E-05</v>
       </c>
       <c r="AR4">
-        <v>0.0001094718361303409</v>
+        <v>9.278362279909669E-05</v>
       </c>
       <c r="AS4">
-        <v>0.0001124798714361772</v>
+        <v>9.580085964792202E-05</v>
       </c>
       <c r="AT4">
-        <v>0.0001233291125392532</v>
+        <v>0.000106683288446041</v>
       </c>
       <c r="AU4">
-        <v>0.0001272098329338181</v>
+        <v>0.0001105758799165437</v>
       </c>
       <c r="AV4">
-        <v>0.0001292886531451781</v>
+        <v>0.0001126610592133521</v>
       </c>
       <c r="AW4">
-        <v>0.0001033705665100059</v>
+        <v>8.666368947006433E-05</v>
       </c>
       <c r="AX4">
-        <v>0.0001709193773779029</v>
+        <v>0.0001544191313192719</v>
       </c>
       <c r="AY4">
-        <v>9.306507346221451E-05</v>
+        <v>7.63266720458406E-05</v>
       </c>
       <c r="AZ4">
-        <v>1.352690037532189E-06</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>5.263045535110154E-06</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1.976647200971848E-05</v>
+        <v>2.803851073382291E-06</v>
       </c>
       <c r="BC4">
-        <v>8.093084822849022E-06</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0001114008963264745</v>
+        <v>9.471858396663462E-05</v>
       </c>
       <c r="BE4">
-        <v>4.434169450835754E-05</v>
+        <v>2.745424887526614E-05</v>
       </c>
       <c r="BF4">
-        <v>2.532476857484772E-06</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>1.83854588693066E-07</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>2.791134283783275E-05</v>
+        <v>1.097363696114361E-05</v>
       </c>
       <c r="BI4">
-        <v>4.544726962076478E-05</v>
+        <v>2.856320592833902E-05</v>
       </c>
       <c r="BJ4">
-        <v>2.017618205137497E-07</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>9.367406352413242E-05</v>
+        <v>7.693752500086479E-05</v>
       </c>
       <c r="BL4">
-        <v>0.0001510262153553035</v>
+        <v>0.0001344651163588148</v>
       </c>
       <c r="BM4">
-        <v>0.0001073672069163568</v>
+        <v>9.067255555024272E-05</v>
       </c>
       <c r="BN4">
-        <v>0.0001188605580849214</v>
+        <v>0.0001022010647386154</v>
       </c>
       <c r="BO4">
-        <v>0.0001253966927494704</v>
+        <v>0.0001087571933586814</v>
       </c>
       <c r="BP4">
-        <v>2.737516078331745E-05</v>
+        <v>1.043581473232085E-05</v>
       </c>
       <c r="BQ4">
-        <v>6.199133230285091E-05</v>
+        <v>4.515787669460814E-05</v>
       </c>
       <c r="BR4">
-        <v>8.708245285394293E-05</v>
+        <v>7.032575067473971E-05</v>
       </c>
       <c r="BS4">
-        <v>2.3018271340339E-07</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>6.483433659190797E-07</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>1.132901215185578E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>1.216140523648777E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>2.219448925658252E-05</v>
+        <v>5.23929559512967E-06</v>
       </c>
       <c r="BX4">
-        <v>8.127646826363046E-08</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1.422601844640339E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>2.920947696981807E-05</v>
+        <v>1.227574206946617E-05</v>
       </c>
       <c r="CA4">
-        <v>1.234639425529618E-06</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>4.979680806299584E-05</v>
+        <v>3.292604955514726E-05</v>
       </c>
       <c r="CC4">
-        <v>0.0001781948681176246</v>
+        <v>0.0001617168776956473</v>
       </c>
       <c r="CD4">
-        <v>0.0001443122346726722</v>
+        <v>0.0001277305976918856</v>
       </c>
       <c r="CE4">
-        <v>8.108171824382964E-05</v>
+        <v>6.430665989128832E-05</v>
       </c>
       <c r="CF4">
-        <v>0.0001037857305522169</v>
+        <v>8.708012349397221E-05</v>
       </c>
       <c r="CG4">
-        <v>0.0001339685936210022</v>
+        <v>0.0001173553155695088</v>
       </c>
       <c r="CH4">
-        <v>7.889277302127278E-05</v>
+        <v>6.21110187122289E-05</v>
       </c>
       <c r="CI4">
-        <v>0.0002262576530043169</v>
+        <v>0.0002099266860499337</v>
       </c>
       <c r="CJ4">
-        <v>0.0001265206228637439</v>
+        <v>0.0001098845615613454</v>
       </c>
       <c r="CK4">
-        <v>7.980118811363417E-05</v>
+        <v>6.302221263518051E-05</v>
       </c>
       <c r="CL4">
-        <v>6.229845033407655E-05</v>
+        <v>4.546593419611246E-05</v>
       </c>
       <c r="CM4">
-        <v>0.0006035810213679535</v>
+        <v>0.0005884042819547312</v>
       </c>
       <c r="CN4">
-        <v>0.1010593202750144</v>
+        <v>0.1013514364059502</v>
       </c>
       <c r="CO4">
-        <v>0.05207256029437862</v>
+        <v>0.05221482652927675</v>
       </c>
       <c r="CP4">
-        <v>0.09634921979612385</v>
+        <v>0.09662692778764878</v>
       </c>
       <c r="CQ4">
-        <v>0.0004521048459669011</v>
+        <v>0.0004364647427969207</v>
       </c>
       <c r="CR4">
-        <v>0.0008494866463699406</v>
+        <v>0.0008350621292379266</v>
       </c>
       <c r="CS4">
-        <v>0.0005792329588924105</v>
+        <v>0.0005639817390556591</v>
       </c>
       <c r="CT4">
-        <v>0.04630336270780642</v>
+        <v>0.0464279810382726</v>
       </c>
       <c r="CU4">
-        <v>0.0106388700816869</v>
+        <v>0.01065439116803295</v>
       </c>
       <c r="CV4">
-        <v>0.01499901302499615</v>
+        <v>0.0150278717349577</v>
       </c>
       <c r="CW4">
-        <v>0.005586509567997745</v>
+        <v>0.005586575545697697</v>
       </c>
       <c r="CX4">
-        <v>1.72317997520105E-05</v>
+        <v>2.614252844251018E-07</v>
       </c>
       <c r="CY4">
-        <v>0.000279059928372888</v>
+        <v>0.0002628904829291672</v>
       </c>
       <c r="CZ4">
-        <v>0.005223542531093761</v>
+        <v>0.005222498197093844</v>
       </c>
       <c r="DA4">
-        <v>0.002364340940389873</v>
+        <v>0.00235455034390419</v>
       </c>
       <c r="DB4">
-        <v>0.009626984978805405</v>
+        <v>0.009639410721072186</v>
       </c>
       <c r="DC4">
-        <v>0.002121960715746324</v>
+        <v>0.002111428681135752</v>
       </c>
       <c r="DD4">
-        <v>0.005839182193687754</v>
+        <v>0.005840021093840756</v>
       </c>
       <c r="DE4">
-        <v>0.0006365916947242509</v>
+        <v>0.0006215159345546556</v>
       </c>
       <c r="DF4">
-        <v>0.001881166991264079</v>
+        <v>0.001869898371613091</v>
       </c>
       <c r="DG4">
-        <v>0.02744623779054407</v>
+        <v>0.02751317240791025</v>
       </c>
       <c r="DH4">
-        <v>0.002852354290007702</v>
+        <v>0.002844056520353885</v>
       </c>
       <c r="DI4">
-        <v>0.00330951913648907</v>
+        <v>0.00330261982847559</v>
       </c>
       <c r="DJ4">
-        <v>0.0003617282867780362</v>
+        <v>0.0003458117228255086</v>
       </c>
       <c r="DK4">
-        <v>0.0007559117768558935</v>
+        <v>0.0007412010153494002</v>
       </c>
       <c r="DL4">
-        <v>0.0001842600987342954</v>
+        <v>0.0001678006617781467</v>
       </c>
       <c r="DM4">
-        <v>0.0009038866619009589</v>
+        <v>0.0008896285537471054</v>
       </c>
       <c r="DN4">
-        <v>0.0004678522475679883</v>
+        <v>0.0004522603155057463</v>
       </c>
       <c r="DO4">
-        <v>0.0005501543059358938</v>
+        <v>0.000534814134857538</v>
       </c>
       <c r="DP4">
-        <v>0.001551245157719904</v>
+        <v>0.00153896731123953</v>
       </c>
       <c r="DQ4">
-        <v>0.004478413155334148</v>
+        <v>0.004475089479742005</v>
       </c>
       <c r="DR4">
-        <v>0.009281918443721421</v>
+        <v>0.009293288631703148</v>
       </c>
       <c r="DS4">
-        <v>0.00992341300894416</v>
+        <v>0.009936745520907826</v>
       </c>
       <c r="DT4">
-        <v>0.0004353493742633204</v>
+        <v>0.0004196580163115614</v>
       </c>
       <c r="DU4">
-        <v>0.006970927708755829</v>
+        <v>0.006975228604514197</v>
       </c>
       <c r="DV4">
-        <v>0.006316262042193941</v>
+        <v>0.006318560323733437</v>
       </c>
       <c r="DW4">
-        <v>0.02681495172635926</v>
+        <v>0.02687995524742257</v>
       </c>
       <c r="DX4">
-        <v>0.004668631174674203</v>
+        <v>0.004665889373662741</v>
       </c>
       <c r="DY4">
-        <v>0.01211508673177842</v>
+        <v>0.01213512354669344</v>
       </c>
       <c r="DZ4">
-        <v>0.01293212631484937</v>
+        <v>0.01295466244379598</v>
       </c>
       <c r="EA4">
-        <v>0.05548240064106766</v>
+        <v>0.05563509753563094</v>
       </c>
       <c r="EB4">
-        <v>0.0247549755169151</v>
+        <v>0.02481367759610008</v>
       </c>
       <c r="EC4">
-        <v>0.002523727756595224</v>
+        <v>0.002514424722419186</v>
       </c>
       <c r="ED4">
-        <v>0.001233625625426541</v>
+        <v>0.001220376184704937</v>
       </c>
       <c r="EE4">
-        <v>0.0001977634001072179</v>
+        <v>0.0001813452695838216</v>
       </c>
       <c r="EF4">
-        <v>5.549153564199644E-07</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.005259114534710477</v>
+        <v>0.005258179015031938</v>
       </c>
       <c r="EH4">
-        <v>0.01405997342952108</v>
+        <v>0.01408595962891421</v>
       </c>
       <c r="EI4">
-        <v>0.03556057061555345</v>
+        <v>0.03565232687719093</v>
       </c>
       <c r="EJ4">
-        <v>0.0343253014899598</v>
+        <v>0.0344132790785411</v>
       </c>
       <c r="EK4">
-        <v>0.02803081584997994</v>
+        <v>0.02809953868443716</v>
       </c>
       <c r="EL4">
-        <v>0.006751454686441326</v>
+        <v>0.006755084216924875</v>
       </c>
       <c r="EM4">
-        <v>0.002063181509770059</v>
+        <v>0.002052469670291638</v>
       </c>
       <c r="EN4">
-        <v>0.01039604505699813</v>
+        <v>0.01041082334458143</v>
       </c>
       <c r="EO4">
-        <v>0.001271820729309956</v>
+        <v>0.001258688126941171</v>
       </c>
       <c r="EP4">
-        <v>0.005416936750756751</v>
+        <v>0.005416484007295221</v>
       </c>
       <c r="EQ4">
-        <v>0.02526136956840175</v>
+        <v>0.02532162070075945</v>
       </c>
       <c r="ER4">
-        <v>0.02085599312049347</v>
+        <v>0.02090276826050167</v>
       </c>
       <c r="ES4">
-        <v>0.01381654990477146</v>
+        <v>0.01384179147459751</v>
       </c>
       <c r="ET4">
-        <v>0.01609471963640004</v>
+        <v>0.01612693009940408</v>
       </c>
       <c r="EU4">
-        <v>0.01265299328646905</v>
+        <v>0.01267467555091635</v>
       </c>
       <c r="EV4">
-        <v>0.00121785162382275</v>
+        <v>0.001204553930624326</v>
       </c>
       <c r="EW4">
-        <v>0.003895426096060046</v>
+        <v>0.003890319070226776</v>
       </c>
       <c r="EX4">
-        <v>0.005783347588010877</v>
+        <v>0.005784015690792114</v>
       </c>
       <c r="EY4">
-        <v>0.002842656589021707</v>
+        <v>0.002834329154219896</v>
       </c>
       <c r="EZ4">
-        <v>0.003950357801645123</v>
+        <v>0.003945418811223346</v>
       </c>
       <c r="FA4">
-        <v>0.004193719426388454</v>
+        <v>0.004189524876182397</v>
       </c>
       <c r="FB4">
-        <v>0.001864475489567003</v>
+        <v>0.001853155810817699</v>
       </c>
       <c r="FC4">
-        <v>0.006366613047313284</v>
+        <v>0.00636906535195791</v>
       </c>
       <c r="FD4">
-        <v>0.01604324163116611</v>
+        <v>0.01607529462358553</v>
       </c>
       <c r="FE4">
-        <v>0.0134263753651012</v>
+        <v>0.01345042339581119</v>
       </c>
       <c r="FF4">
-        <v>0.001399313742272566</v>
+        <v>0.001386571139461734</v>
       </c>
       <c r="FG4">
-        <v>0.0008494866463699406</v>
+        <v>0.0008350621292379266</v>
       </c>
       <c r="FH4">
-        <v>0.01035449305277341</v>
+        <v>0.01036914423328705</v>
       </c>
       <c r="FI4">
-        <v>0.01660325368810427</v>
+        <v>0.01663701975051536</v>
       </c>
       <c r="FJ4">
-        <v>0.004000396406732703</v>
+        <v>0.003995610483788204</v>
       </c>
       <c r="FK4">
-        <v>6.755653686868251E-05</v>
+        <v>5.074010515273121E-05</v>
       </c>
       <c r="FL4">
-        <v>0.000264903086933518</v>
+        <v>0.000248690335886023</v>
       </c>
       <c r="FM4">
-        <v>0.0002153476718950653</v>
+        <v>0.0001989833314427076</v>
       </c>
       <c r="FN4">
-        <v>0.0006437701654541083</v>
+        <v>0.0006287163641381502</v>
       </c>
       <c r="FO4">
-        <v>0.007633061476077022</v>
+        <v>0.007639387830882597</v>
       </c>
       <c r="FP4">
-        <v>0.003475721553387384</v>
+        <v>0.003469330656522208</v>
       </c>
       <c r="FQ4">
-        <v>0.0004992848207638354</v>
+        <v>0.0004837890405562467</v>
       </c>
       <c r="FR4">
-        <v>0.002112659814800672</v>
+        <v>0.002102099328848548</v>
       </c>
       <c r="FS4">
-        <v>0.002123924615945999</v>
+        <v>0.002113398588881974</v>
       </c>
       <c r="FT4">
-        <v>0.005516603260890153</v>
+        <v>0.005516455396056805</v>
       </c>
       <c r="FU4">
-        <v>0.002202660023951272</v>
+        <v>0.002192374847531559</v>
       </c>
       <c r="FV4">
-        <v>0.0001619967364707103</v>
+        <v>0.0001454691961633302</v>
       </c>
       <c r="FW4">
-        <v>0.000806117341960449</v>
+        <v>0.000791560158659871</v>
       </c>
       <c r="FX4">
-        <v>0.001397788142117453</v>
+        <v>0.001385040872514518</v>
       </c>
       <c r="FY4">
-        <v>0.001029379804660236</v>
+        <v>0.001015505578485989</v>
       </c>
       <c r="FZ4">
-        <v>0.0008253408239149599</v>
+        <v>0.0008108424450091513</v>
       </c>
       <c r="GA4">
-        <v>0.0002309109734774345</v>
+        <v>0.0002145942409731231</v>
       </c>
       <c r="GB4">
-        <v>0.000464808647258536</v>
+        <v>0.0004492074048603965</v>
       </c>
       <c r="GC4">
-        <v>3.912440397789944E-06</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.005244201133194185</v>
+        <v>0.005243219993603905</v>
       </c>
       <c r="GE4">
-        <v>0.0105630810739812</v>
+        <v>0.01057837032268521</v>
       </c>
       <c r="GF4">
-        <v>0.00863133987757508</v>
+        <v>0.008640719953727817</v>
       </c>
       <c r="GG4">
-        <v>0.003830660389475116</v>
+        <v>0.003825355246142293</v>
       </c>
       <c r="GH4">
-        <v>0.00177392978036094</v>
+        <v>0.001762333123401268</v>
       </c>
       <c r="GI4">
-        <v>0.001090404010864756</v>
+        <v>0.001076716456986435</v>
       </c>
       <c r="GJ4">
-        <v>0.002597948064141433</v>
+        <v>0.002588872068972957</v>
       </c>
       <c r="GK4">
-        <v>0.000768299118115353</v>
+        <v>0.000753626249333356</v>
       </c>
       <c r="GL4">
-        <v>3.010807206118101E-05</v>
+        <v>1.31770859521571E-05</v>
       </c>
       <c r="GM4">
-        <v>0.001935597796798228</v>
+        <v>0.001924495680311642</v>
       </c>
       <c r="GN4">
-        <v>0.006573322668330092</v>
+        <v>0.006576407295162011</v>
       </c>
       <c r="GO4">
-        <v>0.00713207742514042</v>
+        <v>0.00713687127589839</v>
       </c>
       <c r="GP4">
-        <v>0.005831531792909914</v>
+        <v>0.005832347290581069</v>
       </c>
       <c r="GQ4">
-        <v>0.004682703476104978</v>
+        <v>0.004680004722090444</v>
       </c>
       <c r="GR4">
-        <v>0.002813370986044149</v>
+        <v>0.002804953966943166</v>
       </c>
       <c r="GS4">
-        <v>0.002741354078721967</v>
+        <v>0.002732716760787596</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.385426169127342E-05</v>
+        <v>3.658627466997722E-05</v>
       </c>
       <c r="C5">
-        <v>3.993005625398884E-05</v>
+        <v>2.261928308252536E-05</v>
       </c>
       <c r="D5">
-        <v>9.293044291844662E-05</v>
+        <v>7.578252877064253E-05</v>
       </c>
       <c r="E5">
-        <v>1.188498837324372E-06</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>7.206813226327337E-05</v>
+        <v>5.48561126294831E-05</v>
       </c>
       <c r="G5">
-        <v>0.0001095743174411414</v>
+        <v>9.247754641370427E-05</v>
       </c>
       <c r="H5">
-        <v>3.779077918680562E-05</v>
+        <v>2.047343246755458E-05</v>
       </c>
       <c r="I5">
-        <v>0.0002777444687224636</v>
+        <v>0.0002611644491447794</v>
       </c>
       <c r="J5">
-        <v>0.0006903981216817009</v>
+        <v>0.0006750860998538423</v>
       </c>
       <c r="K5">
-        <v>0.0003138379898559675</v>
+        <v>0.0002973688780656066</v>
       </c>
       <c r="L5">
-        <v>7.361886231197349E-05</v>
+        <v>5.641160774496074E-05</v>
       </c>
       <c r="M5">
-        <v>5.136507961310157E-05</v>
+        <v>3.408944385962671E-05</v>
       </c>
       <c r="N5">
-        <v>1.738006454581458E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.1705157879967E-10</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>6.677765909712801E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>3.059936096096176E-05</v>
+        <v>1.325991652837889E-05</v>
       </c>
       <c r="R5">
-        <v>7.292761229026504E-05</v>
+        <v>5.571823365754778E-05</v>
       </c>
       <c r="S5">
-        <v>7.536126236669293E-05</v>
+        <v>5.815936182801081E-05</v>
       </c>
       <c r="T5">
-        <v>2.7235310855315E-05</v>
+        <v>9.885529405396472E-06</v>
       </c>
       <c r="U5">
-        <v>2.61919108225474E-05</v>
+        <v>8.838923224120966E-06</v>
       </c>
       <c r="V5">
-        <v>1.91246006006011E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2.829909088872262E-05</v>
+        <v>1.095257821076091E-05</v>
       </c>
       <c r="X5">
-        <v>1.018946231999634E-08</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>4.795120150588998E-05</v>
+        <v>3.066507562412695E-05</v>
       </c>
       <c r="Z5">
-        <v>7.988538250877127E-06</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0002601985281714397</v>
+        <v>0.0002435645936145042</v>
       </c>
       <c r="AB5">
-        <v>4.865274352792165E-05</v>
+        <v>3.136877333701211E-05</v>
       </c>
       <c r="AC5">
-        <v>2.241284270386714E-05</v>
+        <v>5.048242825174778E-06</v>
       </c>
       <c r="AD5">
-        <v>8.86981427855328E-05</v>
+        <v>7.153722367095658E-05</v>
       </c>
       <c r="AE5">
-        <v>3.891600122214281E-05</v>
+        <v>2.160211207317772E-05</v>
       </c>
       <c r="AF5">
-        <v>1.269698639874422E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>7.71240424220524E-05</v>
+        <v>5.992755853514982E-05</v>
       </c>
       <c r="AH5">
-        <v>0.0001469729046156304</v>
+        <v>0.0001299910515685476</v>
       </c>
       <c r="AI5">
-        <v>9.729000305535702E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>2.035946063938143E-05</v>
+        <v>2.988551150150958E-06</v>
       </c>
       <c r="AK5">
-        <v>5.900931185316589E-05</v>
+        <v>4.175716521510304E-05</v>
       </c>
       <c r="AL5">
-        <v>6.27900119718974E-05</v>
+        <v>4.554948262889286E-05</v>
       </c>
       <c r="AM5">
-        <v>0.0002198846069053958</v>
+        <v>0.0002031267961605594</v>
       </c>
       <c r="AN5">
-        <v>4.533179642362851E-05</v>
+        <v>2.803762166182681E-05</v>
       </c>
       <c r="AO5">
-        <v>4.964346755903497E-05</v>
+        <v>3.236254165437649E-05</v>
       </c>
       <c r="AP5">
-        <v>6.918400217269832E-05</v>
+        <v>5.19631202146833E-05</v>
       </c>
       <c r="AQ5">
-        <v>0.000105388487309687</v>
+        <v>8.827885410800329E-05</v>
       </c>
       <c r="AR5">
-        <v>0.0001140571735819239</v>
+        <v>9.697417742709126E-05</v>
       </c>
       <c r="AS5">
-        <v>2.598567581607066E-05</v>
+        <v>8.632054500912844E-06</v>
       </c>
       <c r="AT5">
-        <v>1.857029458319332E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>1.018946231999634E-08</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>2.063366064799258E-07</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>5.35583586819807E-05</v>
+        <v>3.628946241306907E-05</v>
       </c>
       <c r="AX5">
-        <v>0.0001074712083750941</v>
+        <v>9.036797493651802E-05</v>
       </c>
       <c r="AY5">
-        <v>4.798115850683076E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>6.851394215165534E-07</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>4.886968153473451E-06</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>1.557775048921356E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>3.195415100350845E-05</v>
+        <v>1.461886955533906E-05</v>
       </c>
       <c r="BD5">
-        <v>3.595209112906229E-05</v>
+        <v>1.862909450873045E-05</v>
       </c>
       <c r="BE5">
-        <v>0.0002112886766354437</v>
+        <v>0.0001945044524076252</v>
       </c>
       <c r="BF5">
-        <v>0.0002865611889993495</v>
+        <v>0.0002700082613458292</v>
       </c>
       <c r="BG5">
-        <v>0.0001232924838719554</v>
+        <v>0.0001062378658802209</v>
       </c>
       <c r="BH5">
-        <v>5.640234177129495E-05</v>
+        <v>3.914218446333018E-05</v>
       </c>
       <c r="BI5">
-        <v>4.628827945366652E-05</v>
+        <v>2.899704376273245E-05</v>
       </c>
       <c r="BJ5">
-        <v>3.874543121678612E-06</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>2.30868757250349E-05</v>
+        <v>5.724347007831162E-06</v>
       </c>
       <c r="BL5">
-        <v>4.265400433953343E-05</v>
+        <v>2.535160128673567E-05</v>
       </c>
       <c r="BM5">
-        <v>5.947548386780586E-05</v>
+        <v>4.22247696781446E-05</v>
       </c>
       <c r="BN5">
-        <v>0.0001440505645238554</v>
+        <v>0.0001270597317412631</v>
       </c>
       <c r="BO5">
-        <v>0.0001162234536499551</v>
+        <v>9.914711401744348E-05</v>
       </c>
       <c r="BP5">
-        <v>2.054603064524059E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>7.705780241997215E-06</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>3.678395615518671E-08</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>2.347652073727156E-07</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>1.518189047678173E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>1.018946231999634E-10</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>3.841386320637334E-05</v>
+        <v>2.109843109306144E-05</v>
       </c>
       <c r="BW5">
-        <v>0.0002841739089243779</v>
+        <v>0.000267613645662069</v>
       </c>
       <c r="BX5">
-        <v>0.0002186887768678412</v>
+        <v>0.0002019272915892016</v>
       </c>
       <c r="BY5">
-        <v>0.0001331201241805889</v>
+        <v>0.000116095704457325</v>
       </c>
       <c r="BZ5">
-        <v>0.0001014874431871761</v>
+        <v>8.436582289866102E-05</v>
       </c>
       <c r="CA5">
-        <v>2.511600578875899E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>5.484376172234831E-06</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>3.368891105798796E-05</v>
+        <v>1.635896016203782E-05</v>
       </c>
       <c r="CD5">
-        <v>5.035723858145069E-05</v>
+        <v>3.307850594478783E-05</v>
       </c>
       <c r="CE5">
-        <v>8.271815259773338E-05</v>
+        <v>6.553885823299828E-05</v>
       </c>
       <c r="CF5">
-        <v>2.054205764511582E-05</v>
+        <v>3.171709238019812E-06</v>
       </c>
       <c r="CG5">
-        <v>6.166254693648978E-06</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>7.705780241997215E-06</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>4.198975131867281E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>1.109632434847601E-07</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>7.428117633277322E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>2.201840769148006E-06</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>1.669441452428199E-06</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.07008878220111261</v>
+        <v>0.07028671679475321</v>
       </c>
       <c r="CO5">
-        <v>0.01732898154421034</v>
+        <v>0.01736479638431319</v>
       </c>
       <c r="CP5">
-        <v>0.1099032334514709</v>
+        <v>0.1102235094668679</v>
       </c>
       <c r="CQ5">
-        <v>0.006555537005874247</v>
+        <v>0.00655824732034279</v>
       </c>
       <c r="CR5">
-        <v>0.001309572641126651</v>
+        <v>0.001296163212167594</v>
       </c>
       <c r="CS5">
-        <v>0.01450943745566359</v>
+        <v>0.01453658843072084</v>
       </c>
       <c r="CT5">
-        <v>0.03930777423444629</v>
+        <v>0.03941112527464151</v>
       </c>
       <c r="CU5">
-        <v>0.007551907837164909</v>
+        <v>0.007557679789311947</v>
       </c>
       <c r="CV5">
-        <v>0.01500234797114326</v>
+        <v>0.01503101355638272</v>
       </c>
       <c r="CW5">
-        <v>0.01246411639143103</v>
+        <v>0.0124849825257059</v>
       </c>
       <c r="CX5">
-        <v>0.0006501565204179282</v>
+        <v>0.0006347208446263014</v>
       </c>
       <c r="CY5">
-        <v>0.0007389651232069299</v>
+        <v>0.0007238023375440928</v>
       </c>
       <c r="CZ5">
-        <v>0.001607569450485132</v>
+        <v>0.001595075702948043</v>
       </c>
       <c r="DA5">
-        <v>0.01220403438326324</v>
+        <v>0.01222410134031344</v>
       </c>
       <c r="DB5">
-        <v>0.007894305747917791</v>
+        <v>0.007901129816718266</v>
       </c>
       <c r="DC5">
-        <v>0.001834413757609094</v>
+        <v>0.00182261705484292</v>
       </c>
       <c r="DD5">
-        <v>0.01563700749107451</v>
+        <v>0.01566762325132734</v>
       </c>
       <c r="DE5">
-        <v>0.000128044954021205</v>
+        <v>0.0001110049393691287</v>
       </c>
       <c r="DF5">
-        <v>0.0004476450740581301</v>
+        <v>0.0004315871232509868</v>
       </c>
       <c r="DG5">
-        <v>0.03429899507714742</v>
+        <v>0.03438695519409433</v>
       </c>
       <c r="DH5">
-        <v>0.007829863245893996</v>
+        <v>0.007836489296460599</v>
       </c>
       <c r="DI5">
-        <v>0.01128529535441058</v>
+        <v>0.01130253921995799</v>
       </c>
       <c r="DJ5">
-        <v>4.656339846230653E-05</v>
+        <v>2.927300815413204E-05</v>
       </c>
       <c r="DK5">
-        <v>0.0003294053403448544</v>
+        <v>0.0003129840637432749</v>
       </c>
       <c r="DL5">
-        <v>0.002806331088131803</v>
+        <v>0.002797520882587406</v>
       </c>
       <c r="DM5">
-        <v>0.002172056068212628</v>
+        <v>0.0021612968691424</v>
       </c>
       <c r="DN5">
-        <v>6.952025618325827E-05</v>
+        <v>5.23004074629856E-05</v>
       </c>
       <c r="DO5">
-        <v>0.0001775411855756161</v>
+        <v>0.0001606532624166982</v>
       </c>
       <c r="DP5">
-        <v>0.001356003842584806</v>
+        <v>0.001342737086927072</v>
       </c>
       <c r="DQ5">
-        <v>0.002236507870236713</v>
+        <v>0.002225946717977298</v>
       </c>
       <c r="DR5">
-        <v>0.005213479663727425</v>
+        <v>0.005212066118688667</v>
       </c>
       <c r="DS5">
-        <v>0.01025682332211179</v>
+        <v>0.01027090690975214</v>
       </c>
       <c r="DT5">
-        <v>0.0009773129306921559</v>
+        <v>0.0009628825376336246</v>
       </c>
       <c r="DU5">
-        <v>0.007739021243041136</v>
+        <v>0.00774536815526889</v>
       </c>
       <c r="DV5">
-        <v>0.0006703876610532798</v>
+        <v>0.0006550141512951245</v>
       </c>
       <c r="DW5">
-        <v>0.02573082680806722</v>
+        <v>0.0257924587488126</v>
       </c>
       <c r="DX5">
-        <v>0.001049932332972742</v>
+        <v>0.001035725084040101</v>
       </c>
       <c r="DY5">
-        <v>0.02064163864824313</v>
+        <v>0.02068763258581364</v>
       </c>
       <c r="DZ5">
-        <v>0.007063566421828725</v>
+        <v>0.007067837803675822</v>
       </c>
       <c r="EA5">
-        <v>0.04896344753767919</v>
+        <v>0.04909646842796237</v>
       </c>
       <c r="EB5">
-        <v>0.06850508215137709</v>
+        <v>0.06869815036837212</v>
       </c>
       <c r="EC5">
-        <v>0.0004269597534085152</v>
+        <v>0.0004108382409683897</v>
       </c>
       <c r="ED5">
-        <v>0.001771835355643842</v>
+        <v>0.001759846362630603</v>
       </c>
       <c r="EE5">
-        <v>0.0006465581203049217</v>
+        <v>0.0006311113873877526</v>
       </c>
       <c r="EF5">
-        <v>1.638475651455729E-05</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.004360861736951271</v>
+        <v>0.004356828276627963</v>
       </c>
       <c r="EH5">
-        <v>0.004402288838252273</v>
+        <v>0.004398382674684622</v>
       </c>
       <c r="EI5">
-        <v>0.02452442477018061</v>
+        <v>0.02458234969159281</v>
       </c>
       <c r="EJ5">
-        <v>0.03921177123143136</v>
+        <v>0.0393148272746214</v>
       </c>
       <c r="EK5">
-        <v>0.0335885740548369</v>
+        <v>0.03367435119763283</v>
       </c>
       <c r="EL5">
-        <v>0.02030367063762936</v>
+        <v>0.02034862607069641</v>
       </c>
       <c r="EM5">
-        <v>0.0006353138799518004</v>
+        <v>0.0006198325958526315</v>
       </c>
       <c r="EN5">
-        <v>0.007138421224179512</v>
+        <v>0.007142922619066028</v>
       </c>
       <c r="EO5">
-        <v>0.002671106383885121</v>
+        <v>0.002661880661309732</v>
       </c>
       <c r="EP5">
-        <v>0.002053290664482843</v>
+        <v>0.002042166524344952</v>
       </c>
       <c r="EQ5">
-        <v>0.01577616749544478</v>
+        <v>0.01580721086507691</v>
       </c>
       <c r="ER5">
-        <v>0.0171990025401284</v>
+        <v>0.01723441798213186</v>
       </c>
       <c r="ES5">
-        <v>0.007539631536779376</v>
+        <v>0.007545365766441338</v>
       </c>
       <c r="ET5">
-        <v>0.01163976336554252</v>
+        <v>0.01165809643661925</v>
       </c>
       <c r="EU5">
-        <v>0.01261785389625909</v>
+        <v>0.01263919243350142</v>
       </c>
       <c r="EV5">
-        <v>0.003107020097574832</v>
+        <v>0.003099133846016149</v>
       </c>
       <c r="EW5">
-        <v>0.001272577839964842</v>
+        <v>0.001259054733774791</v>
       </c>
       <c r="EX5">
-        <v>0.006105839491751659</v>
+        <v>0.006107167980488332</v>
       </c>
       <c r="EY5">
-        <v>0.003207981100745475</v>
+        <v>0.003200405081082045</v>
       </c>
       <c r="EZ5">
-        <v>0.003930739723443446</v>
+        <v>0.003925384588778066</v>
       </c>
       <c r="FA5">
-        <v>0.00679136791328043</v>
+        <v>0.006794802886449523</v>
       </c>
       <c r="FB5">
-        <v>0.002147661367446521</v>
+        <v>0.002136827208599596</v>
       </c>
       <c r="FC5">
-        <v>0.001593838250053908</v>
+        <v>0.001581302309430379</v>
       </c>
       <c r="FD5">
-        <v>0.01194669437518158</v>
+        <v>0.01196597058059575</v>
       </c>
       <c r="FE5">
-        <v>0.01237861438874586</v>
+        <v>0.01239921779337753</v>
       </c>
       <c r="FF5">
-        <v>0.001288471340463972</v>
+        <v>0.00127499707165298</v>
       </c>
       <c r="FG5">
-        <v>9.729000305535702E-06</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.008423064264523257</v>
+        <v>0.008431513096861989</v>
       </c>
       <c r="FI5">
-        <v>0.02222559669798675</v>
+        <v>0.02227645780498249</v>
       </c>
       <c r="FJ5">
-        <v>0.01126385885373737</v>
+        <v>0.01128103684943382</v>
       </c>
       <c r="FK5">
-        <v>0.001382899143429443</v>
+        <v>0.001369715031365695</v>
       </c>
       <c r="FL5">
-        <v>0.00075774229379662</v>
+        <v>0.0007426372064235837</v>
       </c>
       <c r="FM5">
-        <v>0.001042097032726677</v>
+        <v>0.001027865707566891</v>
       </c>
       <c r="FN5">
-        <v>0.000278417788743609</v>
+        <v>0.0002618398381365145</v>
       </c>
       <c r="FO5">
-        <v>0.006290204597541578</v>
+        <v>0.006292099601411734</v>
       </c>
       <c r="FP5">
-        <v>0.006683655209897752</v>
+        <v>0.00668675920461909</v>
       </c>
       <c r="FQ5">
-        <v>0.0001004730931553208</v>
+        <v>8.334835598283123E-05</v>
       </c>
       <c r="FR5">
-        <v>0.002436514276517841</v>
+        <v>0.002426567701813469</v>
       </c>
       <c r="FS5">
-        <v>0.002432529876392712</v>
+        <v>0.002422571058466072</v>
       </c>
       <c r="FT5">
-        <v>0.008065633253298267</v>
+        <v>0.008072983775432543</v>
       </c>
       <c r="FU5">
-        <v>0.004542699142661808</v>
+        <v>0.004539224430382099</v>
       </c>
       <c r="FV5">
-        <v>0.0009036507983788234</v>
+        <v>0.0008889940571046619</v>
       </c>
       <c r="FW5">
-        <v>0.001815440157013235</v>
+        <v>0.001803585152369229</v>
       </c>
       <c r="FX5">
-        <v>0.001969990661866837</v>
+        <v>0.001958610558368098</v>
       </c>
       <c r="FY5">
-        <v>0.00318629210006434</v>
+        <v>0.003178649434670617</v>
       </c>
       <c r="FZ5">
-        <v>0.001422975644688031</v>
+        <v>0.001409914679270513</v>
       </c>
       <c r="GA5">
-        <v>0.0003846775620806584</v>
+        <v>0.0003684261253733492</v>
       </c>
       <c r="GB5">
-        <v>0.0008994076282455682</v>
+        <v>0.0008847378486034131</v>
       </c>
       <c r="GC5">
-        <v>0.0003483574409400383</v>
+        <v>0.0003319944001513174</v>
       </c>
       <c r="GD5">
-        <v>0.002343740873604326</v>
+        <v>0.002333509225775569</v>
       </c>
       <c r="GE5">
-        <v>0.008096484754267148</v>
+        <v>0.008103930076565017</v>
       </c>
       <c r="GF5">
-        <v>0.007483640035020982</v>
+        <v>0.007489202214592683</v>
       </c>
       <c r="GG5">
-        <v>0.005597860775798774</v>
+        <v>0.005597628352947318</v>
       </c>
       <c r="GH5">
-        <v>0.00318629210006434</v>
+        <v>0.003178649434670617</v>
       </c>
       <c r="GI5">
-        <v>0.0008975921281885531</v>
+        <v>0.000882916769897159</v>
       </c>
       <c r="GJ5">
-        <v>0.003905465922649732</v>
+        <v>0.003900033126918453</v>
       </c>
       <c r="GK5">
-        <v>0.002158903367799572</v>
+        <v>0.002148103753251598</v>
       </c>
       <c r="GL5">
-        <v>0.0001865292058578816</v>
+        <v>0.0001696689009919597</v>
       </c>
       <c r="GM5">
-        <v>0.0005292244766201015</v>
+        <v>0.0005134172021322853</v>
       </c>
       <c r="GN5">
-        <v>0.003985354825158613</v>
+        <v>0.003980167511196103</v>
       </c>
       <c r="GO5">
-        <v>0.006347978699355954</v>
+        <v>0.006350051230870838</v>
       </c>
       <c r="GP5">
-        <v>0.00279884958789685</v>
+        <v>0.002790016393278213</v>
       </c>
       <c r="GQ5">
-        <v>0.002724584785564591</v>
+        <v>0.002715523390852308</v>
       </c>
       <c r="GR5">
-        <v>0.001096223034426484</v>
+        <v>0.00108215802706825</v>
       </c>
       <c r="GS5">
-        <v>0.0008873392278665645</v>
+        <v>0.00087263236457226</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>7.757559625378829E-05</v>
+        <v>6.424977883688728E-05</v>
       </c>
       <c r="C6">
-        <v>0.0002339294887032851</v>
+        <v>0.0002209976671371733</v>
       </c>
       <c r="D6">
-        <v>0.0001564135624466153</v>
+        <v>0.0001432864086579618</v>
       </c>
       <c r="E6">
-        <v>9.646373934165886E-05</v>
+        <v>8.31855181175302E-05</v>
       </c>
       <c r="F6">
-        <v>0.0002299263588966007</v>
+        <v>0.0002169844498519535</v>
       </c>
       <c r="G6">
-        <v>0.0001552416625032077</v>
+        <v>0.0001421115556463062</v>
       </c>
       <c r="H6">
-        <v>2.117759397731046E-05</v>
+        <v>7.709659350907222E-06</v>
       </c>
       <c r="I6">
-        <v>2.233560592138878E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3.783380617296347E-05</v>
+        <v>2.440784350128513E-05</v>
       </c>
       <c r="K6">
-        <v>5.954285712460929E-07</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.900597618471364E-05</v>
+        <v>6.568376317924753E-05</v>
       </c>
       <c r="M6">
-        <v>3.977638507915418E-05</v>
+        <v>2.635531750805107E-05</v>
       </c>
       <c r="N6">
-        <v>1.593364623054652E-05</v>
+        <v>2.452497391042397E-06</v>
       </c>
       <c r="O6">
-        <v>1.124474545697875E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.348731334868266E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.802147912972275E-05</v>
+        <v>4.545591416030908E-06</v>
       </c>
       <c r="R6">
-        <v>1.175407643238259E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1.111917546304266E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>4.296277792527973E-05</v>
+        <v>2.954973973893123E-05</v>
       </c>
       <c r="U6">
-        <v>1.490165528038251E-05</v>
+        <v>1.417905929013623E-06</v>
       </c>
       <c r="V6">
-        <v>2.201546593684869E-08</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>3.086712050939246E-05</v>
+        <v>1.742360250089329E-05</v>
       </c>
       <c r="X6">
-        <v>4.810591767691179E-05</v>
+        <v>3.470583967780537E-05</v>
       </c>
       <c r="Y6">
-        <v>4.230199795718953E-05</v>
+        <v>2.888729467276363E-05</v>
       </c>
       <c r="Z6">
-        <v>9.473993542490327E-05</v>
+        <v>8.145737039084358E-05</v>
       </c>
       <c r="AA6">
-        <v>0.0003667044622914342</v>
+        <v>0.0003541072201071518</v>
       </c>
       <c r="AB6">
-        <v>0.0001804262812870145</v>
+        <v>0.0001673596370989924</v>
       </c>
       <c r="AC6">
-        <v>6.518039085236652E-08</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1.017649850856558E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>5.765360721584326E-05</v>
+        <v>4.427758841989468E-05</v>
       </c>
       <c r="AF6">
-        <v>2.783134665599335E-07</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.318535888035326E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>3.32047113965076E-05</v>
+        <v>1.976708387845889E-05</v>
       </c>
       <c r="AI6">
-        <v>5.472900435707559E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0001381919533265571</v>
+        <v>0.0001250188829427006</v>
       </c>
       <c r="AK6">
-        <v>3.400907235766412E-05</v>
+        <v>2.057347174714081E-05</v>
       </c>
       <c r="AL6">
-        <v>5.406032938936664E-05</v>
+        <v>4.067525590004149E-05</v>
       </c>
       <c r="AM6">
-        <v>0.0002373882385362583</v>
+        <v>0.0002244651326667099</v>
       </c>
       <c r="AN6">
-        <v>5.173893750146924E-05</v>
+        <v>3.834801434151831E-05</v>
       </c>
       <c r="AO6">
-        <v>5.47326443568998E-07</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>4.854839765554394E-05</v>
+        <v>3.514943466082216E-05</v>
       </c>
       <c r="AQ6">
-        <v>0.0001157859444085681</v>
+        <v>0.0001025564131690967</v>
       </c>
       <c r="AR6">
-        <v>8.53691918774269E-05</v>
+        <v>7.206301352604793E-05</v>
       </c>
       <c r="AS6">
-        <v>3.668773022830875E-05</v>
+        <v>2.325887956222356E-05</v>
       </c>
       <c r="AT6">
-        <v>2.562303476263519E-05</v>
+        <v>1.216630219328923E-05</v>
       </c>
       <c r="AU6">
-        <v>5.714010024064108E-05</v>
+        <v>4.376278745952583E-05</v>
       </c>
       <c r="AV6">
-        <v>3.270781442050331E-05</v>
+        <v>1.926893477279061E-05</v>
       </c>
       <c r="AW6">
-        <v>6.236374698838537E-05</v>
+        <v>4.899959726392549E-05</v>
       </c>
       <c r="AX6">
-        <v>9.73879892970258E-05</v>
+        <v>8.411209708845155E-05</v>
       </c>
       <c r="AY6">
-        <v>3.221750844418073E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>5.168627950401215E-05</v>
+        <v>3.829522365128214E-05</v>
       </c>
       <c r="BA6">
-        <v>8.404414594141483E-06</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>2.911923259379991E-05</v>
+        <v>1.567131008615076E-05</v>
       </c>
       <c r="BC6">
-        <v>0.0001249741439648598</v>
+        <v>0.0001117677660504811</v>
       </c>
       <c r="BD6">
-        <v>5.66599742638269E-05</v>
+        <v>4.328145161425391E-05</v>
       </c>
       <c r="BE6">
-        <v>3.213159544832956E-05</v>
+        <v>1.869126378761849E-05</v>
       </c>
       <c r="BF6">
-        <v>0.0001117031006057332</v>
+        <v>9.846328101659203E-05</v>
       </c>
       <c r="BG6">
-        <v>1.140967444901415E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>2.376067285257071E-06</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>6.334769294086954E-05</v>
+        <v>4.998602265978395E-05</v>
       </c>
       <c r="BJ6">
-        <v>0.0001260258539140715</v>
+        <v>0.0001128221262014226</v>
       </c>
       <c r="BK6">
-        <v>0.0001004899951472265</v>
+        <v>8.722191967679004E-05</v>
       </c>
       <c r="BL6">
-        <v>0.0001839743811156728</v>
+        <v>0.0001709166777770838</v>
       </c>
       <c r="BM6">
-        <v>0.0001249741439648598</v>
+        <v>0.0001117677660504811</v>
       </c>
       <c r="BN6">
-        <v>3.529219429570074E-05</v>
+        <v>2.185982702150007E-05</v>
       </c>
       <c r="BO6">
-        <v>1.311820986650707E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>9.377638547143416E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>4.35803208954579E-05</v>
+        <v>3.016883885436503E-05</v>
       </c>
       <c r="BR6">
-        <v>5.671510726116447E-05</v>
+        <v>4.333672354111764E-05</v>
       </c>
       <c r="BS6">
-        <v>2.815370164042647E-05</v>
+        <v>1.470334609332127E-05</v>
       </c>
       <c r="BT6">
-        <v>3.53357082935994E-05</v>
+        <v>2.19034506702322E-05</v>
       </c>
       <c r="BU6">
-        <v>0.0001242175440013968</v>
+        <v>0.0001110092595323322</v>
       </c>
       <c r="BV6">
-        <v>0.0001137744045057076</v>
+        <v>0.0001005398043909878</v>
       </c>
       <c r="BW6">
-        <v>0.0001517524126717074</v>
+        <v>0.0001386135132613591</v>
       </c>
       <c r="BX6">
-        <v>0.0002069030500084219</v>
+        <v>0.0001939031245752393</v>
       </c>
       <c r="BY6">
-        <v>3.982258407692318E-05</v>
+        <v>2.640163292257917E-05</v>
       </c>
       <c r="BZ6">
-        <v>5.039720556626296E-05</v>
+        <v>3.700290137877852E-05</v>
       </c>
       <c r="CA6">
-        <v>8.869713571671679E-05</v>
+        <v>7.539934344414788E-05</v>
       </c>
       <c r="CB6">
-        <v>7.990806614115071E-05</v>
+        <v>6.658812631030345E-05</v>
       </c>
       <c r="CC6">
-        <v>0.00026109525739142</v>
+        <v>0.0002482318907897414</v>
       </c>
       <c r="CD6">
-        <v>0.0001828021911722791</v>
+        <v>0.0001697415340346718</v>
       </c>
       <c r="CE6">
-        <v>1.397431332516488E-05</v>
+        <v>4.8822716671755E-07</v>
       </c>
       <c r="CF6">
-        <v>5.472900435707559E-06</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>1.346043434998067E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>8.152915606286649E-05</v>
+        <v>6.82133012131662E-05</v>
       </c>
       <c r="CI6">
-        <v>9.866229523548816E-07</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>5.428281737862245E-05</v>
+        <v>4.089830453632209E-05</v>
       </c>
       <c r="CK6">
-        <v>0.0001567918724283463</v>
+        <v>0.0001436656719422347</v>
       </c>
       <c r="CL6">
-        <v>0.0002202396293643836</v>
+        <v>0.0002072733107499866</v>
       </c>
       <c r="CM6">
-        <v>0.006205061200350702</v>
+        <v>0.006207176021257306</v>
       </c>
       <c r="CN6">
-        <v>0.08031065612170921</v>
+        <v>0.08049950947826635</v>
       </c>
       <c r="CO6">
-        <v>0.08213743203349215</v>
+        <v>0.082330888678898</v>
       </c>
       <c r="CP6">
-        <v>0.06639975679348198</v>
+        <v>0.06655355610354113</v>
       </c>
       <c r="CQ6">
-        <v>0.0005315285743318946</v>
+        <v>0.0005193466720872619</v>
       </c>
       <c r="CR6">
-        <v>0.00114486804471305</v>
+        <v>0.001134231695333585</v>
       </c>
       <c r="CS6">
-        <v>0.006025045309043869</v>
+        <v>0.006026706508277614</v>
       </c>
       <c r="CT6">
-        <v>0.07209337651853076</v>
+        <v>0.07226152316918052</v>
       </c>
       <c r="CU6">
-        <v>0.009616624535602518</v>
+        <v>0.009627336147914414</v>
       </c>
       <c r="CV6">
-        <v>0.005334286242401392</v>
+        <v>0.005334206799289185</v>
       </c>
       <c r="CW6">
-        <v>0.003644765423990229</v>
+        <v>0.00364042856085574</v>
       </c>
       <c r="CX6">
-        <v>0.0001027612950375429</v>
+        <v>8.949894301101093E-05</v>
       </c>
       <c r="CY6">
-        <v>0.001315322136481633</v>
+        <v>0.001305115314016111</v>
       </c>
       <c r="CZ6">
-        <v>0.007678786629182864</v>
+        <v>0.007684615087755061</v>
       </c>
       <c r="DA6">
-        <v>5.034523756877256E-05</v>
+        <v>3.695080242723853E-05</v>
       </c>
       <c r="DB6">
-        <v>0.003799398216522839</v>
+        <v>0.003795451012243013</v>
       </c>
       <c r="DC6">
-        <v>0.008926823568913772</v>
+        <v>0.008935796953193811</v>
       </c>
       <c r="DD6">
-        <v>0.002308726388509038</v>
+        <v>0.002301022843367307</v>
       </c>
       <c r="DE6">
-        <v>0.0007339606645562242</v>
+        <v>0.0007222888705178246</v>
       </c>
       <c r="DF6">
-        <v>0.01070135148321985</v>
+        <v>0.01071479649672762</v>
       </c>
       <c r="DG6">
-        <v>0.03261537842496715</v>
+        <v>0.03268404454972369</v>
       </c>
       <c r="DH6">
-        <v>9.025202564162942E-07</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.002570726575856758</v>
+        <v>0.002563683244446222</v>
       </c>
       <c r="DJ6">
-        <v>0.0005119685452764703</v>
+        <v>0.0004997373537550026</v>
       </c>
       <c r="DK6">
-        <v>7.430340641180597E-05</v>
+        <v>6.096934341047761E-05</v>
       </c>
       <c r="DL6">
-        <v>0.0009080215561506303</v>
+        <v>0.0008967883777936088</v>
       </c>
       <c r="DM6">
-        <v>0.001514804626848402</v>
+        <v>0.001505100479898522</v>
       </c>
       <c r="DN6">
-        <v>0.0006695126276684914</v>
+        <v>0.0006576784311549921</v>
       </c>
       <c r="DO6">
-        <v>1.2183422411649E-05</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.003560246028071765</v>
+        <v>0.003555696184685992</v>
       </c>
       <c r="DQ6">
-        <v>0.00497575175971542</v>
+        <v>0.00497476884630049</v>
       </c>
       <c r="DR6">
-        <v>0.01049955249296495</v>
+        <v>0.01051248899361379</v>
       </c>
       <c r="DS6">
-        <v>0.009990274517558545</v>
+        <v>0.01000192768968857</v>
       </c>
       <c r="DT6">
-        <v>3.055448252449009E-06</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.001702531417782866</v>
+        <v>0.001693300323185898</v>
       </c>
       <c r="DV6">
-        <v>0.01528380826192792</v>
+        <v>0.01530880059881182</v>
       </c>
       <c r="DW6">
-        <v>0.01690054618385385</v>
+        <v>0.01692961253528944</v>
       </c>
       <c r="DX6">
-        <v>0.009494372541506204</v>
+        <v>0.009504776091270567</v>
       </c>
       <c r="DY6">
-        <v>0.008197300604143249</v>
+        <v>0.00820443566501047</v>
       </c>
       <c r="DZ6">
-        <v>0.01802282112965795</v>
+        <v>0.01805471549941252</v>
       </c>
       <c r="EA6">
-        <v>0.07862431220314461</v>
+        <v>0.07880891614514285</v>
       </c>
       <c r="EB6">
-        <v>0.03257469842693162</v>
+        <v>0.0326432620422451</v>
       </c>
       <c r="EC6">
-        <v>0.002734128267965908</v>
+        <v>0.002727496692141974</v>
       </c>
       <c r="ED6">
-        <v>0.000537606104038404</v>
+        <v>0.0005254395165483316</v>
       </c>
       <c r="EE6">
-        <v>2.562303476263519E-05</v>
+        <v>1.216630219328923E-05</v>
       </c>
       <c r="EF6">
-        <v>0.0006296125695953096</v>
+        <v>0.0006176778290078457</v>
       </c>
       <c r="EG6">
-        <v>0.003838849514617692</v>
+        <v>0.003835001723582487</v>
       </c>
       <c r="EH6">
-        <v>0.004971779759907233</v>
+        <v>0.004970786837458186</v>
       </c>
       <c r="EI6">
-        <v>0.02799567464805777</v>
+        <v>0.0280526995908043</v>
       </c>
       <c r="EJ6">
-        <v>0.03657972823352428</v>
+        <v>0.03665838411517897</v>
       </c>
       <c r="EK6">
-        <v>0.02471739880636935</v>
+        <v>0.02476616282859045</v>
       </c>
       <c r="EL6">
-        <v>0.004595260378089771</v>
+        <v>0.00459331866522781</v>
       </c>
       <c r="EM6">
-        <v>0.002989583055629713</v>
+        <v>0.002983595199797824</v>
       </c>
       <c r="EN6">
-        <v>0.01093766147180818</v>
+        <v>0.01095170196236832</v>
       </c>
       <c r="EO6">
-        <v>0.001643400120638382</v>
+        <v>0.001634020021207817</v>
       </c>
       <c r="EP6">
-        <v>0.00466731217461031</v>
+        <v>0.004665552024921651</v>
       </c>
       <c r="EQ6">
-        <v>0.02030923701924438</v>
+        <v>0.0203468929236788</v>
       </c>
       <c r="ER6">
-        <v>0.01424229431222379</v>
+        <v>0.01426466214025605</v>
       </c>
       <c r="ES6">
-        <v>0.009733696029949005</v>
+        <v>0.00974470265047781</v>
       </c>
       <c r="ET6">
-        <v>0.01401021232343128</v>
+        <v>0.01403199532853912</v>
       </c>
       <c r="EU6">
-        <v>0.008863075571992235</v>
+        <v>0.008871888317826438</v>
       </c>
       <c r="EV6">
-        <v>7.126013655876884E-05</v>
+        <v>5.791840482802068E-05</v>
       </c>
       <c r="EW6">
-        <v>0.004060669103905778</v>
+        <v>0.004057380275595671</v>
       </c>
       <c r="EX6">
-        <v>0.005192622249242503</v>
+        <v>0.0051921858273264</v>
       </c>
       <c r="EY6">
-        <v>0.00341499743508598</v>
+        <v>0.00341008158007061</v>
       </c>
       <c r="EZ6">
-        <v>0.00958167253729039</v>
+        <v>0.009592296074133899</v>
       </c>
       <c r="FA6">
-        <v>0.008676013581025665</v>
+        <v>0.008684354949735023</v>
       </c>
       <c r="FB6">
-        <v>0.001790890913515888</v>
+        <v>0.001781882475829798</v>
       </c>
       <c r="FC6">
-        <v>0.009242874553651319</v>
+        <v>0.009252644354155307</v>
       </c>
       <c r="FD6">
-        <v>0.01906749307920958</v>
+        <v>0.01910201991565309</v>
       </c>
       <c r="FE6">
-        <v>0.007765589324991064</v>
+        <v>0.007771636517497223</v>
       </c>
       <c r="FF6">
-        <v>0.0009765973528390289</v>
+        <v>0.0009655369784905071</v>
       </c>
       <c r="FG6">
-        <v>0.0004227702795839535</v>
+        <v>0.0004103143175369181</v>
       </c>
       <c r="FH6">
-        <v>0.009927300520599629</v>
+        <v>0.009938795004684725</v>
       </c>
       <c r="FI6">
-        <v>0.02065317600263519</v>
+        <v>0.02069169859820378</v>
       </c>
       <c r="FJ6">
-        <v>0.004470607784109384</v>
+        <v>0.004468351959433199</v>
       </c>
       <c r="FK6">
-        <v>0.0005243628746779343</v>
+        <v>0.0005121629156015372</v>
       </c>
       <c r="FL6">
-        <v>0.001899265008282383</v>
+        <v>0.001890529662253956</v>
       </c>
       <c r="FM6">
-        <v>0.0006554978683452797</v>
+        <v>0.0006436283560686954</v>
       </c>
       <c r="FN6">
-        <v>0.001376624833521258</v>
+        <v>0.001366572487595446</v>
       </c>
       <c r="FO6">
-        <v>0.01198258542134764</v>
+        <v>0.01199925901361097</v>
       </c>
       <c r="FP6">
-        <v>0.003307657140269562</v>
+        <v>0.00330247079866689</v>
       </c>
       <c r="FQ6">
-        <v>0.0001136963345094777</v>
+        <v>0.0001004615376663356</v>
       </c>
       <c r="FR6">
-        <v>0.0006433493389319458</v>
+        <v>0.0006314492136011735</v>
       </c>
       <c r="FS6">
-        <v>0.001210330441551799</v>
+        <v>0.00119985905073098</v>
       </c>
       <c r="FT6">
-        <v>0.004200644097146229</v>
+        <v>0.004197707991532609</v>
       </c>
       <c r="FU6">
-        <v>0.0008370456595781353</v>
+        <v>0.0008256336292058713</v>
       </c>
       <c r="FV6">
-        <v>6.334769294086954E-05</v>
+        <v>4.998602265978395E-05</v>
       </c>
       <c r="FW6">
-        <v>0.00141917173146662</v>
+        <v>0.001409226599381103</v>
       </c>
       <c r="FX6">
-        <v>0.001393822332690771</v>
+        <v>0.001383813322707613</v>
       </c>
       <c r="FY6">
-        <v>0.001293358537542279</v>
+        <v>0.001283096369049135</v>
       </c>
       <c r="FZ6">
-        <v>0.0009608192536009709</v>
+        <v>0.0009497191200527531</v>
       </c>
       <c r="GA6">
-        <v>0.0008743920077746386</v>
+        <v>0.000863074086388093</v>
       </c>
       <c r="GB6">
-        <v>0.001333504535603585</v>
+        <v>0.001323343530928073</v>
       </c>
       <c r="GC6">
-        <v>0.0001296345837398019</v>
+        <v>0.0001164399496579906</v>
       </c>
       <c r="GD6">
-        <v>0.002651691271946883</v>
+        <v>0.002644851963306872</v>
       </c>
       <c r="GE6">
-        <v>0.00544371013711719</v>
+        <v>0.005443906431051369</v>
       </c>
       <c r="GF6">
-        <v>0.005232462447318576</v>
+        <v>0.005232126418635355</v>
       </c>
       <c r="GG6">
-        <v>0.003524920529777672</v>
+        <v>0.003520281669741678</v>
       </c>
       <c r="GH6">
-        <v>0.0009292993551231018</v>
+        <v>0.0009181197946477828</v>
       </c>
       <c r="GI6">
-        <v>0.0006335715694041251</v>
+        <v>0.0006216468050921061</v>
       </c>
       <c r="GJ6">
-        <v>0.001991178003843803</v>
+        <v>0.001982674269183136</v>
       </c>
       <c r="GK6">
-        <v>0.000329715484077673</v>
+        <v>0.000317025033443554</v>
       </c>
       <c r="GL6">
-        <v>0.0003360908137698012</v>
+        <v>0.0003234164283158115</v>
       </c>
       <c r="GM6">
-        <v>0.002672626770935884</v>
+        <v>0.002665840217616554</v>
       </c>
       <c r="GN6">
-        <v>0.006129861003982203</v>
+        <v>0.00613178632806923</v>
       </c>
       <c r="GO6">
-        <v>0.005497328734527888</v>
+        <v>0.005497660141854987</v>
       </c>
       <c r="GP6">
-        <v>0.002588845874981757</v>
+        <v>0.002581848202355679</v>
       </c>
       <c r="GQ6">
-        <v>0.002308375088526003</v>
+        <v>0.002300670658144169</v>
       </c>
       <c r="GR6">
-        <v>0.001147798544571533</v>
+        <v>0.001137169579752612</v>
       </c>
       <c r="GS6">
-        <v>0.0009411331945516325</v>
+        <v>0.0009299834541438585</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.068898312256476E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.246391620316193E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.070530307925089E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.334077843484314E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001740438956987437</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0003415055027377479</v>
+        <v>1.139815592735797E-05</v>
       </c>
       <c r="H2">
-        <v>0.0005525136842075603</v>
+        <v>6.739938630106329E-05</v>
       </c>
       <c r="I2">
-        <v>0.0007703260263696874</v>
+        <v>0.0001303698556992166</v>
       </c>
       <c r="J2">
-        <v>0.0009420593238433306</v>
+        <v>0.0001461433391685996</v>
       </c>
       <c r="K2">
-        <v>0.001098392759750058</v>
+        <v>0.0001461433391685996</v>
       </c>
       <c r="L2">
-        <v>0.001270843227296672</v>
+        <v>0.0001626513922470398</v>
       </c>
       <c r="M2">
-        <v>0.001420750322549527</v>
+        <v>0.0001626513922470398</v>
       </c>
       <c r="N2">
-        <v>0.001542954194983615</v>
+        <v>0.0001626513922470398</v>
       </c>
       <c r="O2">
-        <v>0.001618710017691673</v>
+        <v>0.0001626513922470398</v>
       </c>
       <c r="P2">
-        <v>0.001669966442906948</v>
+        <v>0.0001626513922470398</v>
       </c>
       <c r="Q2">
-        <v>0.001676911926313642</v>
+        <v>0.0001626513922470398</v>
       </c>
       <c r="R2">
-        <v>0.001680325180060937</v>
+        <v>0.0001626513922470398</v>
       </c>
       <c r="S2">
-        <v>0.001748061441953015</v>
+        <v>0.0001626513922470398</v>
       </c>
       <c r="T2">
-        <v>0.001823662694645345</v>
+        <v>0.0001626513922470398</v>
       </c>
       <c r="U2">
-        <v>0.001962841618806623</v>
+        <v>0.0001626513922470398</v>
       </c>
       <c r="V2">
-        <v>0.002111529613935436</v>
+        <v>0.0001626513922470398</v>
       </c>
       <c r="W2">
-        <v>0.002295046692608064</v>
+        <v>0.0001904945477158334</v>
       </c>
       <c r="X2">
-        <v>0.00252610528611798</v>
+        <v>0.0002670326408070797</v>
       </c>
       <c r="Y2">
-        <v>0.002856621979747631</v>
+        <v>0.0004454418248375552</v>
       </c>
       <c r="Z2">
-        <v>0.00310805530533065</v>
+        <v>0.0005428489691310942</v>
       </c>
       <c r="AA2">
-        <v>0.003300567224918491</v>
+        <v>0.0005799051927738676</v>
       </c>
       <c r="AB2">
-        <v>0.003463235171469747</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AC2">
-        <v>0.00356612878193904</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AD2">
-        <v>0.003615130640924916</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AE2">
-        <v>0.003669032952409407</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AF2">
-        <v>0.003677681824289419</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AG2">
-        <v>0.003683348748866022</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AH2">
-        <v>0.003687674509306162</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AI2">
-        <v>0.003690267796870026</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AJ2">
-        <v>0.003701740507037359</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AK2">
-        <v>0.003731007780015267</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AL2">
-        <v>0.003778991277897526</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AM2">
-        <v>0.003821640742237055</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AN2">
-        <v>0.003896921474896773</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AO2">
-        <v>0.00400505126589884</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AP2">
-        <v>0.004132446108861102</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AQ2">
-        <v>0.004254649981295189</v>
+        <v>0.0005863933873919772</v>
       </c>
       <c r="AR2">
-        <v>0.004432526939393942</v>
+        <v>0.0006084595851750947</v>
       </c>
       <c r="AS2">
-        <v>0.004598224556253462</v>
+        <v>0.0006180509540858722</v>
       </c>
       <c r="AT2">
-        <v>0.004742496070932904</v>
+        <v>0.0006180509540858722</v>
       </c>
       <c r="AU2">
-        <v>0.004818967324713756</v>
+        <v>0.0006180509540858722</v>
       </c>
       <c r="AV2">
-        <v>0.004865076009405256</v>
+        <v>0.0006180509540858722</v>
       </c>
       <c r="AW2">
-        <v>0.004887936077731238</v>
+        <v>0.0006180509540858722</v>
       </c>
       <c r="AX2">
-        <v>0.004892949521241349</v>
+        <v>0.0006180509540858722</v>
       </c>
       <c r="AY2">
-        <v>0.004897661610720799</v>
+        <v>0.0006180509540858722</v>
       </c>
       <c r="AZ2">
-        <v>0.004898026137057889</v>
+        <v>0.0006180509540858722</v>
       </c>
       <c r="BA2">
-        <v>0.004901000010360477</v>
+        <v>0.0006180509540858722</v>
       </c>
       <c r="BB2">
-        <v>0.004949239461268779</v>
+        <v>0.0006180509540858722</v>
       </c>
       <c r="BC2">
-        <v>0.00503238812972905</v>
+        <v>0.0006180509540858722</v>
       </c>
       <c r="BD2">
-        <v>0.005179414204688765</v>
+        <v>0.0006180509540858722</v>
       </c>
       <c r="BE2">
-        <v>0.00541130453828331</v>
+        <v>0.0006954409664244899</v>
       </c>
       <c r="BF2">
-        <v>0.005652442892818829</v>
+        <v>0.0007823033694598101</v>
       </c>
       <c r="BG2">
-        <v>0.005933296981395373</v>
+        <v>0.0009098450650750289</v>
       </c>
       <c r="BH2">
-        <v>0.006247133253327812</v>
+        <v>0.00107116913734914</v>
       </c>
       <c r="BI2">
-        <v>0.006483204817347791</v>
+        <v>0.001152841822535867</v>
       </c>
       <c r="BJ2">
-        <v>0.006688044638189981</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BK2">
-        <v>0.00684313307397003</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BL2">
-        <v>0.006925040138303969</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BM2">
-        <v>0.00699711830563783</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BN2">
-        <v>0.007017605896722416</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BO2">
-        <v>0.007026254768602428</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BP2">
-        <v>0.007026316474208706</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BQ2">
-        <v>0.007040943259696964</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BR2">
-        <v>0.007080611953733202</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BS2">
-        <v>0.007145818850367921</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BT2">
-        <v>0.007233681129307796</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BU2">
-        <v>0.007367005442873375</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BV2">
-        <v>0.007476561119020524</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BW2">
-        <v>0.007624799484103588</v>
+        <v>0.001202525039337163</v>
       </c>
       <c r="BX2">
-        <v>0.007824449714417743</v>
+        <v>0.001246892758979532</v>
       </c>
       <c r="BY2">
-        <v>0.008015693203876522</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="BZ2">
-        <v>0.008127839019287215</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CA2">
-        <v>0.008253083322030662</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CB2">
-        <v>0.008305322917345974</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CC2">
-        <v>0.008353306415228233</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CD2">
-        <v>0.008357726489677969</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CE2">
-        <v>0.008360637065574116</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CF2">
-        <v>0.008361100801191301</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CG2">
-        <v>0.008361219191113347</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CH2">
-        <v>0.008361450314546864</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CI2">
-        <v>0.008386088441053761</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CJ2">
-        <v>0.008441812073723569</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CK2">
-        <v>0.008532346272935308</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CL2">
-        <v>0.008633308113208046</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CM2">
-        <v>0.008677825207737603</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="CN2">
-        <v>0.08050336651589451</v>
+        <v>0.07469065157945647</v>
       </c>
       <c r="CO2">
-        <v>0.09400971789014848</v>
+        <v>0.08836455938385326</v>
       </c>
       <c r="CP2">
-        <v>0.1987930845517219</v>
+        <v>0.1955299888823282</v>
       </c>
       <c r="CQ2">
-        <v>0.2021674288950571</v>
+        <v>0.1988260731771159</v>
       </c>
       <c r="CR2">
-        <v>0.2065962337456824</v>
+        <v>0.2032022006468753</v>
       </c>
       <c r="CS2">
-        <v>0.2175630338615402</v>
+        <v>0.2142749441732751</v>
       </c>
       <c r="CT2">
-        <v>0.2549265856632338</v>
+        <v>0.2523848610244291</v>
       </c>
       <c r="CU2">
-        <v>0.2572146512960416</v>
+        <v>0.2545683119874694</v>
       </c>
       <c r="CV2">
-        <v>0.268086192402207</v>
+        <v>0.2655434853890882</v>
       </c>
       <c r="CW2">
-        <v>0.3035306230086324</v>
+        <v>0.3016877205152625</v>
       </c>
       <c r="CX2">
-        <v>0.3107533572435364</v>
+        <v>0.3089255619534267</v>
       </c>
       <c r="CY2">
-        <v>0.3112981890989723</v>
+        <v>0.3093234858809696</v>
       </c>
       <c r="CZ2">
-        <v>0.3119838153987339</v>
+        <v>0.3098656201204366</v>
       </c>
       <c r="DA2">
-        <v>0.3407857303292919</v>
+        <v>0.3392061829698742</v>
       </c>
       <c r="DB2">
-        <v>0.3486654501310433</v>
+        <v>0.3471169493517634</v>
       </c>
       <c r="DC2">
-        <v>0.356564592934771</v>
+        <v>0.355047609964472</v>
       </c>
       <c r="DD2">
-        <v>0.3834286566681551</v>
+        <v>0.3824033066713195</v>
       </c>
       <c r="DE2">
-        <v>0.3841967901863117</v>
+        <v>0.3830299498682082</v>
       </c>
       <c r="DF2">
-        <v>0.3890608306812216</v>
+        <v>0.3878518723998634</v>
       </c>
       <c r="DG2">
-        <v>0.4241016602465811</v>
+        <v>0.4235827145665091</v>
       </c>
       <c r="DH2">
-        <v>0.4338235152357675</v>
+        <v>0.4333803088787089</v>
       </c>
       <c r="DI2">
-        <v>0.4456678354409119</v>
+        <v>0.4453518623432544</v>
       </c>
       <c r="DJ2">
-        <v>0.4456720847906442</v>
+        <v>0.4453518623432544</v>
       </c>
       <c r="DK2">
-        <v>0.4457744246010572</v>
+        <v>0.4453518623432544</v>
       </c>
       <c r="DL2">
-        <v>0.4486887058975816</v>
+        <v>0.4481767218265584</v>
       </c>
       <c r="DM2">
-        <v>0.4492227450519194</v>
+        <v>0.4485635912071744</v>
       </c>
       <c r="DN2">
-        <v>0.44968074162852</v>
+        <v>0.4488725731121337</v>
       </c>
       <c r="DO2">
-        <v>0.4501962154809688</v>
+        <v>0.4492404267710058</v>
       </c>
       <c r="DP2">
-        <v>0.4503454539561536</v>
+        <v>0.4492404267710058</v>
       </c>
       <c r="DQ2">
-        <v>0.4508986119524367</v>
+        <v>0.4496468788430679</v>
       </c>
       <c r="DR2">
-        <v>0.4529859994648258</v>
+        <v>0.4516247829574344</v>
       </c>
       <c r="DS2">
-        <v>0.4624658674293902</v>
+        <v>0.4611745193057107</v>
       </c>
       <c r="DT2">
-        <v>0.4635025882348752</v>
+        <v>0.4620762660883266</v>
       </c>
       <c r="DU2">
-        <v>0.4711878275168385</v>
+        <v>0.4697878335845203</v>
       </c>
       <c r="DV2">
-        <v>0.4712135145434521</v>
+        <v>0.4697878335845203</v>
       </c>
       <c r="DW2">
-        <v>0.4958225740473924</v>
+        <v>0.4948338165460875</v>
       </c>
       <c r="DX2">
-        <v>0.495989452484372</v>
+        <v>0.4948446173834448</v>
       </c>
       <c r="DY2">
-        <v>0.5179725647211256</v>
+        <v>0.5172009439717737</v>
       </c>
       <c r="DZ2">
-        <v>0.5202781191557129</v>
+        <v>0.5194023080390694</v>
       </c>
       <c r="EA2">
-        <v>0.5549871406873114</v>
+        <v>0.5547932920509651</v>
       </c>
       <c r="EB2">
-        <v>0.6154307008373663</v>
+        <v>0.6165431701169781</v>
       </c>
       <c r="EC2">
-        <v>0.615454000824737</v>
+        <v>0.6165431701169781</v>
       </c>
       <c r="ED2">
-        <v>0.6160952761899859</v>
+        <v>0.6170398774070308</v>
       </c>
       <c r="EE2">
-        <v>0.6172157855039964</v>
+        <v>0.6180274455230662</v>
       </c>
       <c r="EF2">
-        <v>0.6172367271871272</v>
+        <v>0.6180274455230662</v>
       </c>
       <c r="EG2">
-        <v>0.6220040266721938</v>
+        <v>0.6227502799744199</v>
       </c>
       <c r="EH2">
-        <v>0.6271151481922439</v>
+        <v>0.627825278058002</v>
       </c>
       <c r="EI2">
-        <v>0.655077348037362</v>
+        <v>0.6563057531747269</v>
       </c>
       <c r="EJ2">
-        <v>0.6946440720632254</v>
+        <v>0.696672294249881</v>
       </c>
       <c r="EK2">
-        <v>0.7231067219592636</v>
+        <v>0.7256653610266763</v>
       </c>
       <c r="EL2">
-        <v>0.7422181239038244</v>
+        <v>0.7450803056664771</v>
       </c>
       <c r="EM2">
-        <v>0.7434297650271073</v>
+        <v>0.7461612165752934</v>
       </c>
       <c r="EN2">
-        <v>0.7499679586923602</v>
+        <v>0.7526979095445187</v>
       </c>
       <c r="EO2">
-        <v>0.7527012028704643</v>
+        <v>0.755337339698972</v>
       </c>
       <c r="EP2">
-        <v>0.7546130440649916</v>
+        <v>0.7571354384994485</v>
       </c>
       <c r="EQ2">
-        <v>0.7694333005729338</v>
+        <v>0.7721551285900375</v>
       </c>
       <c r="ER2">
-        <v>0.7865383673133525</v>
+        <v>0.7895150615637229</v>
       </c>
       <c r="ES2">
-        <v>0.7953397822088851</v>
+        <v>0.798369884634849</v>
       </c>
       <c r="ET2">
-        <v>0.8099808876985989</v>
+        <v>0.8132060772561738</v>
       </c>
       <c r="EU2">
-        <v>0.8236177990861372</v>
+        <v>0.8270137126400267</v>
       </c>
       <c r="EV2">
-        <v>0.8269842090286651</v>
+        <v>0.8303016700344893</v>
       </c>
       <c r="EW2">
-        <v>0.8273225487130907</v>
+        <v>0.8304880920058728</v>
       </c>
       <c r="EX2">
-        <v>0.8323074347202966</v>
+        <v>0.83543379192879</v>
       </c>
       <c r="EY2">
-        <v>0.835673289762768</v>
+        <v>0.8387211809605547</v>
       </c>
       <c r="EZ2">
-        <v>0.8386797795686745</v>
+        <v>0.8416404860589803</v>
       </c>
       <c r="FA2">
-        <v>0.8454805992606491</v>
+        <v>0.8484461767249138</v>
       </c>
       <c r="FB2">
-        <v>0.8480514843222334</v>
+        <v>0.8509193087065297</v>
       </c>
       <c r="FC2">
-        <v>0.8491598114350043</v>
+        <v>0.8518943990643049</v>
       </c>
       <c r="FD2">
-        <v>0.8611114706510703</v>
+        <v>0.8639758957323679</v>
       </c>
       <c r="FE2">
-        <v>0.8736866589305796</v>
+        <v>0.8766960491397896</v>
       </c>
       <c r="FF2">
-        <v>0.8755048364155769</v>
+        <v>0.8783982118198318</v>
       </c>
       <c r="FG2">
-        <v>0.875508001833099</v>
+        <v>0.8783982118198318</v>
       </c>
       <c r="FH2">
-        <v>0.8831406126097073</v>
+        <v>0.8860558739704725</v>
       </c>
       <c r="FI2">
-        <v>0.9023100645601745</v>
+        <v>0.9055302769894662</v>
       </c>
       <c r="FJ2">
-        <v>0.9147609548270367</v>
+        <v>0.9181231167428496</v>
       </c>
       <c r="FK2">
-        <v>0.9161779189712109</v>
+        <v>0.9194143320925106</v>
       </c>
       <c r="FL2">
-        <v>0.9165530843793835</v>
+        <v>0.9196384732305403</v>
       </c>
       <c r="FM2">
-        <v>0.9175405451798564</v>
+        <v>0.9204897648924146</v>
       </c>
       <c r="FN2">
-        <v>0.9176781163838541</v>
+        <v>0.9204897648924146</v>
       </c>
       <c r="FO2">
-        <v>0.9222888448529898</v>
+        <v>0.9250522296988309</v>
       </c>
       <c r="FP2">
-        <v>0.9287674975121845</v>
+        <v>0.9315279371149895</v>
       </c>
       <c r="FQ2">
-        <v>0.9288239684179304</v>
+        <v>0.9315279371149895</v>
       </c>
       <c r="FR2">
-        <v>0.9309076110299384</v>
+        <v>0.9335020054725215</v>
       </c>
       <c r="FS2">
-        <v>0.9336460738085735</v>
+        <v>0.9361467808379594</v>
       </c>
       <c r="FT2">
-        <v>0.9404401324998602</v>
+        <v>0.9429455464719942</v>
       </c>
       <c r="FU2">
-        <v>0.9438330012450803</v>
+        <v>0.9462606045962311</v>
       </c>
       <c r="FV2">
-        <v>0.9446566499288855</v>
+        <v>0.9469441098333305</v>
       </c>
       <c r="FW2">
-        <v>0.9458826053536249</v>
+        <v>0.9480396823283188</v>
       </c>
       <c r="FX2">
-        <v>0.9473965059076623</v>
+        <v>0.9494301858989753</v>
       </c>
       <c r="FY2">
-        <v>0.9496093631328177</v>
+        <v>0.9515366037945618</v>
       </c>
       <c r="FZ2">
-        <v>0.9508768191617798</v>
+        <v>0.9526746837557264</v>
       </c>
       <c r="GA2">
-        <v>0.9511761304322344</v>
+        <v>0.9528211304299338</v>
       </c>
       <c r="GB2">
-        <v>0.9518761464034601</v>
+        <v>0.9533780034541608</v>
       </c>
       <c r="GC2">
-        <v>0.9522569716622086</v>
+        <v>0.9536079417585552</v>
       </c>
       <c r="GD2">
-        <v>0.9539305268324907</v>
+        <v>0.9551619733868636</v>
       </c>
       <c r="GE2">
-        <v>0.960998451951643</v>
+        <v>0.9622412498264005</v>
       </c>
       <c r="GF2">
-        <v>0.968930060758674</v>
+        <v>0.9702051641124747</v>
       </c>
       <c r="GG2">
-        <v>0.9741183699865779</v>
+        <v>0.9753592225842675</v>
       </c>
       <c r="GH2">
-        <v>0.9768788341674516</v>
+        <v>0.9780265331363373</v>
       </c>
       <c r="GI2">
-        <v>0.9774895747295936</v>
+        <v>0.9784919648068038</v>
       </c>
       <c r="GJ2">
-        <v>0.9811657235036371</v>
+        <v>0.9820971757244561</v>
       </c>
       <c r="GK2">
-        <v>0.9829889747891506</v>
+        <v>0.98380453530242</v>
       </c>
       <c r="GL2">
-        <v>0.9830938184998184</v>
+        <v>0.98380453530242</v>
       </c>
       <c r="GM2">
-        <v>0.98361905061326</v>
+        <v>0.9841823839711688</v>
       </c>
       <c r="GN2">
-        <v>0.9881166107708811</v>
+        <v>0.9886289348465943</v>
       </c>
       <c r="GO2">
-        <v>0.994539609424413</v>
+        <v>0.9950476380140775</v>
       </c>
       <c r="GP2">
-        <v>0.9969845644731841</v>
+        <v>0.9973917847469118</v>
       </c>
       <c r="GQ2">
-        <v>0.9988261279605608</v>
+        <v>0.9991179008060377</v>
       </c>
       <c r="GR2">
-        <v>0.9991629609448331</v>
+        <v>0.999302779522642</v>
       </c>
       <c r="GS2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.450579159227552E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.865227567572737E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.754962686348921E-05</v>
+        <v>9.032485533775472E-06</v>
       </c>
       <c r="E3">
-        <v>6.988510623569018E-05</v>
+        <v>1.148035629747733E-05</v>
       </c>
       <c r="F3">
-        <v>0.0001970351826617936</v>
+        <v>0.0001191061036304504</v>
       </c>
       <c r="G3">
-        <v>0.000244114611338499</v>
+        <v>0.0001463836843671543</v>
       </c>
       <c r="H3">
-        <v>0.0003091983495091446</v>
+        <v>0.0001917279761812739</v>
       </c>
       <c r="I3">
-        <v>0.0004878811644867811</v>
+        <v>0.0003510650706643229</v>
       </c>
       <c r="J3">
-        <v>0.0006431317701230432</v>
+        <v>0.0004868887415296198</v>
       </c>
       <c r="K3">
-        <v>0.0006979449685823701</v>
+        <v>0.0005219268967137302</v>
       </c>
       <c r="L3">
-        <v>0.0008545772241797971</v>
+        <v>0.0006591370062351106</v>
       </c>
       <c r="M3">
-        <v>0.000880609950448077</v>
+        <v>0.0006652949382747426</v>
       </c>
       <c r="N3">
-        <v>0.0008824576456961425</v>
+        <v>0.0006652949382747426</v>
       </c>
       <c r="O3">
-        <v>0.0009060657170325739</v>
+        <v>0.000669019811710773</v>
       </c>
       <c r="P3">
-        <v>0.0009716861151881352</v>
+        <v>0.0007149026235329799</v>
       </c>
       <c r="Q3">
-        <v>0.00100133653135473</v>
+        <v>0.0007246907841122036</v>
       </c>
       <c r="R3">
-        <v>0.001021232594795498</v>
+        <v>0.0007246907841122036</v>
       </c>
       <c r="S3">
-        <v>0.001026587349244988</v>
+        <v>0.0007246907841122036</v>
       </c>
       <c r="T3">
-        <v>0.001030202855043364</v>
+        <v>0.0007246907841122036</v>
       </c>
       <c r="U3">
-        <v>0.001061404536166357</v>
+        <v>0.0007360355862155683</v>
       </c>
       <c r="V3">
-        <v>0.001180383647822127</v>
+        <v>0.0008354620488284563</v>
       </c>
       <c r="W3">
-        <v>0.00136645034259222</v>
+        <v>0.001002208615076339</v>
       </c>
       <c r="X3">
-        <v>0.001517241938353814</v>
+        <v>0.001133557821473888</v>
       </c>
       <c r="Y3">
-        <v>0.001603795885920982</v>
+        <v>0.001200446736816565</v>
       </c>
       <c r="Z3">
-        <v>0.001733632382271576</v>
+        <v>0.001310768215003572</v>
       </c>
       <c r="AA3">
-        <v>0.001947533116259317</v>
+        <v>0.001505445291156985</v>
       </c>
       <c r="AB3">
-        <v>0.002102152941913309</v>
+        <v>0.001640635995804003</v>
       </c>
       <c r="AC3">
-        <v>0.002295534476477799</v>
+        <v>0.001814722754531215</v>
       </c>
       <c r="AD3">
-        <v>0.002518923640198842</v>
+        <v>0.002018921146602221</v>
       </c>
       <c r="AE3">
-        <v>0.002528374712933195</v>
+        <v>0.002018921146602221</v>
       </c>
       <c r="AF3">
-        <v>0.002528602592576789</v>
+        <v>0.002018921146602221</v>
       </c>
       <c r="AG3">
-        <v>0.002539245534277641</v>
+        <v>0.002018921146602221</v>
       </c>
       <c r="AH3">
-        <v>0.002540278415348609</v>
+        <v>0.002018921146602221</v>
       </c>
       <c r="AI3">
-        <v>0.002572980999429414</v>
+        <v>0.002031772053680241</v>
       </c>
       <c r="AJ3">
-        <v>0.002607219745467041</v>
+        <v>0.002046164446936964</v>
       </c>
       <c r="AK3">
-        <v>0.002632914857744811</v>
+        <v>0.00205198359484137</v>
       </c>
       <c r="AL3">
-        <v>0.002643869750436894</v>
+        <v>0.00205198359484137</v>
       </c>
       <c r="AM3">
-        <v>0.002690645996122121</v>
+        <v>0.002078956941777135</v>
       </c>
       <c r="AN3">
-        <v>0.002803265396956649</v>
+        <v>0.002172001651289079</v>
       </c>
       <c r="AO3">
-        <v>0.002812668229692357</v>
+        <v>0.002172001651289079</v>
       </c>
       <c r="AP3">
-        <v>0.002856907011448906</v>
+        <v>0.002196428739636909</v>
       </c>
       <c r="AQ3">
-        <v>0.003005341107276765</v>
+        <v>0.002325412275183145</v>
       </c>
       <c r="AR3">
-        <v>0.003137530613561221</v>
+        <v>0.002438094918659589</v>
       </c>
       <c r="AS3">
-        <v>0.003227470691033213</v>
+        <v>0.002508381699978834</v>
       </c>
       <c r="AT3">
-        <v>0.003345796587707343</v>
+        <v>0.002607152683616052</v>
       </c>
       <c r="AU3">
-        <v>0.003380985769718256</v>
+        <v>0.002622498806985709</v>
       </c>
       <c r="AV3">
-        <v>0.00339245935039576</v>
+        <v>0.002622498806985709</v>
       </c>
       <c r="AW3">
-        <v>0.003405401272031993</v>
+        <v>0.002622498806985709</v>
       </c>
       <c r="AX3">
-        <v>0.003405405468645175</v>
+        <v>0.002622498806985709</v>
       </c>
       <c r="AY3">
-        <v>0.003436360425775102</v>
+        <v>0.002633596029969193</v>
       </c>
       <c r="AZ3">
-        <v>0.003441715180224592</v>
+        <v>0.002633596029969193</v>
       </c>
       <c r="BA3">
-        <v>0.003445123365128796</v>
+        <v>0.002633596029969193</v>
       </c>
       <c r="BB3">
-        <v>0.003486000679979828</v>
+        <v>0.002654650000819864</v>
       </c>
       <c r="BC3">
-        <v>0.003490138728463518</v>
+        <v>0.002654650000819864</v>
       </c>
       <c r="BD3">
-        <v>0.00349529061701871</v>
+        <v>0.002654650000819864</v>
       </c>
       <c r="BE3">
-        <v>0.003508691088642053</v>
+        <v>0.002654650000819864</v>
       </c>
       <c r="BF3">
-        <v>0.003509870271008909</v>
+        <v>0.002654650000819864</v>
       </c>
       <c r="BG3">
-        <v>0.003531759355393657</v>
+        <v>0.002656649929424638</v>
       </c>
       <c r="BH3">
-        <v>0.003637150682431349</v>
+        <v>0.002742441513179239</v>
       </c>
       <c r="BI3">
-        <v>0.003785776238253826</v>
+        <v>0.002871617172306045</v>
       </c>
       <c r="BJ3">
-        <v>0.003880545355590084</v>
+        <v>0.002946749730578767</v>
       </c>
       <c r="BK3">
-        <v>0.00398122005276035</v>
+        <v>0.00302780833698133</v>
       </c>
       <c r="BL3">
-        <v>0.004041008708079828</v>
+        <v>0.003067839193585106</v>
       </c>
       <c r="BM3">
-        <v>0.004076554521080716</v>
+        <v>0.003083543184000945</v>
       </c>
       <c r="BN3">
-        <v>0.004141408163257829</v>
+        <v>0.003128656582326113</v>
       </c>
       <c r="BO3">
-        <v>0.00417761669224009</v>
+        <v>0.003145025585647105</v>
       </c>
       <c r="BP3">
-        <v>0.004185320230023561</v>
+        <v>0.003145025585647105</v>
       </c>
       <c r="BQ3">
-        <v>0.004185744274511643</v>
+        <v>0.003145025585647105</v>
       </c>
       <c r="BR3">
-        <v>0.004185938725586177</v>
+        <v>0.003145025585647105</v>
       </c>
       <c r="BS3">
-        <v>0.004186805490321814</v>
+        <v>0.003145025585647105</v>
       </c>
       <c r="BT3">
-        <v>0.004282501021632033</v>
+        <v>0.003221087768774991</v>
       </c>
       <c r="BU3">
-        <v>0.004361269129418042</v>
+        <v>0.003280163859201024</v>
       </c>
       <c r="BV3">
-        <v>0.004384877200754474</v>
+        <v>0.003283888732637054</v>
       </c>
       <c r="BW3">
-        <v>0.00445976640364951</v>
+        <v>0.003339072474179306</v>
       </c>
       <c r="BX3">
-        <v>0.004506542649334738</v>
+        <v>0.003366045821115071</v>
       </c>
       <c r="BY3">
-        <v>0.004512052124179879</v>
+        <v>0.003366045821115071</v>
       </c>
       <c r="BZ3">
-        <v>0.004591213507954835</v>
+        <v>0.003425516550595068</v>
       </c>
       <c r="CA3">
-        <v>0.004633415741768627</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="CB3">
-        <v>0.004633613032863081</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="CC3">
-        <v>0.004640080773281288</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="CD3">
-        <v>0.004645019443142473</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="CE3">
-        <v>0.004651600226957502</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="CF3">
-        <v>0.004658295033169326</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="CG3">
-        <v>0.004674770342706244</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="CH3">
-        <v>0.00469018545027296</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="CI3">
-        <v>0.004691505831935847</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="CJ3">
-        <v>0.004705503334542409</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="CK3">
-        <v>0.004718184676185966</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="CL3">
-        <v>0.004730630713836136</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="CM3">
-        <v>0.004828658677080796</v>
+        <v>0.003526302731574144</v>
       </c>
       <c r="CN3">
-        <v>0.1049485518629406</v>
+        <v>0.1039732389203557</v>
       </c>
       <c r="CO3">
-        <v>0.1418366958260996</v>
+        <v>0.1409692693962224</v>
       </c>
       <c r="CP3">
-        <v>0.251205202752002</v>
+        <v>0.2506968743251302</v>
       </c>
       <c r="CQ3">
-        <v>0.2541310994697618</v>
+        <v>0.2536129469592977</v>
       </c>
       <c r="CR3">
-        <v>0.2547381551226989</v>
+        <v>0.2542021415997994</v>
       </c>
       <c r="CS3">
-        <v>0.2604602809618631</v>
+        <v>0.2599241348753375</v>
       </c>
       <c r="CT3">
-        <v>0.3038342367427208</v>
+        <v>0.3034284565051798</v>
       </c>
       <c r="CU3">
-        <v>0.3107849265473529</v>
+        <v>0.3103832718565493</v>
       </c>
       <c r="CV3">
-        <v>0.3240871891734569</v>
+        <v>0.3237116741033964</v>
       </c>
       <c r="CW3">
-        <v>0.3323711369406141</v>
+        <v>0.3320043683891796</v>
       </c>
       <c r="CX3">
-        <v>0.3327027470512933</v>
+        <v>0.3323171628138769</v>
       </c>
       <c r="CY3">
-        <v>0.3332278755965332</v>
+        <v>0.3328241463934839</v>
       </c>
       <c r="CZ3">
-        <v>0.3381965447568753</v>
+        <v>0.337790071565982</v>
       </c>
       <c r="DA3">
-        <v>0.3451448545615742</v>
+        <v>0.3447424986685176</v>
       </c>
       <c r="DB3">
-        <v>0.3580796221980076</v>
+        <v>0.3577021322156814</v>
       </c>
       <c r="DC3">
-        <v>0.3585407600850461</v>
+        <v>0.3581449033502753</v>
       </c>
       <c r="DD3">
-        <v>0.3678083878245544</v>
+        <v>0.3674246869692588</v>
       </c>
       <c r="DE3">
-        <v>0.3690864662886305</v>
+        <v>0.368687230135528</v>
       </c>
       <c r="DF3">
-        <v>0.3691957549155587</v>
+        <v>0.3687769325269215</v>
       </c>
       <c r="DG3">
-        <v>0.3951007131874298</v>
+        <v>0.3947517104154067</v>
       </c>
       <c r="DH3">
-        <v>0.3980698591039739</v>
+        <v>0.397711182146831</v>
       </c>
       <c r="DI3">
-        <v>0.4041442289332373</v>
+        <v>0.4037866402636628</v>
       </c>
       <c r="DJ3">
-        <v>0.4041452910291075</v>
+        <v>0.4037866402636628</v>
       </c>
       <c r="DK3">
-        <v>0.4041555760758184</v>
+        <v>0.4037866402636628</v>
       </c>
       <c r="DL3">
-        <v>0.4053124696433008</v>
+        <v>0.404927578515595</v>
       </c>
       <c r="DM3">
-        <v>0.4063385593144597</v>
+        <v>0.4059372595147306</v>
       </c>
       <c r="DN3">
-        <v>0.4064085523584924</v>
+        <v>0.4059875301276918</v>
       </c>
       <c r="DO3">
-        <v>0.4066508467216821</v>
+        <v>0.4062106992432319</v>
       </c>
       <c r="DP3">
-        <v>0.4076536780934948</v>
+        <v>0.4071970413315038</v>
       </c>
       <c r="DQ3">
-        <v>0.4102883137194412</v>
+        <v>0.4098208433848055</v>
       </c>
       <c r="DR3">
-        <v>0.417573157514681</v>
+        <v>0.4171109708793987</v>
       </c>
       <c r="DS3">
-        <v>0.4291869871882429</v>
+        <v>0.4287450881919954</v>
       </c>
       <c r="DT3">
-        <v>0.4292039146537672</v>
+        <v>0.4287450881919954</v>
       </c>
       <c r="DU3">
-        <v>0.438119199403179</v>
+        <v>0.4376713076265614</v>
       </c>
       <c r="DV3">
-        <v>0.4398024859558657</v>
+        <v>0.4393404633022202</v>
       </c>
       <c r="DW3">
-        <v>0.4633261792946687</v>
+        <v>0.4629257229723587</v>
       </c>
       <c r="DX3">
-        <v>0.4669995581914184</v>
+        <v>0.4665918685025667</v>
       </c>
       <c r="DY3">
-        <v>0.4856192276680623</v>
+        <v>0.4852561073324335</v>
       </c>
       <c r="DZ3">
-        <v>0.4967766878544517</v>
+        <v>0.4964322734155165</v>
       </c>
       <c r="EA3">
-        <v>0.5569833561621805</v>
+        <v>0.5568276484886766</v>
       </c>
       <c r="EB3">
-        <v>0.6025254008820983</v>
+        <v>0.6025075734908849</v>
       </c>
       <c r="EC3">
-        <v>0.6029251897108612</v>
+        <v>0.6028887829359783</v>
       </c>
       <c r="ED3">
-        <v>0.6037332092881496</v>
+        <v>0.6036796380266883</v>
       </c>
       <c r="EE3">
-        <v>0.6042612373333079</v>
+        <v>0.6041895311556627</v>
       </c>
       <c r="EF3">
-        <v>0.6042633980632472</v>
+        <v>0.6041895311556627</v>
       </c>
       <c r="EG3">
-        <v>0.6087488559371713</v>
+        <v>0.6086705702677428</v>
       </c>
       <c r="EH3">
-        <v>0.6182442906702764</v>
+        <v>0.6181789504422408</v>
       </c>
       <c r="EI3">
-        <v>0.6520515297200326</v>
+        <v>0.6520833978198401</v>
       </c>
       <c r="EJ3">
-        <v>0.688877181684948</v>
+        <v>0.6890167197048944</v>
       </c>
       <c r="EK3">
-        <v>0.720212790804176</v>
+        <v>0.7204409706683977</v>
       </c>
       <c r="EL3">
-        <v>0.7322574114656294</v>
+        <v>0.732507372058071</v>
       </c>
       <c r="EM3">
-        <v>0.7323941451317861</v>
+        <v>0.7326246146111364</v>
       </c>
       <c r="EN3">
-        <v>0.7403150189091485</v>
+        <v>0.7405529765199653</v>
       </c>
       <c r="EO3">
-        <v>0.7412027278841971</v>
+        <v>0.7414237972058986</v>
       </c>
       <c r="EP3">
-        <v>0.7432634383262752</v>
+        <v>0.7434716848937817</v>
       </c>
       <c r="EQ3">
-        <v>0.7602536318487199</v>
+        <v>0.7605008001282658</v>
       </c>
       <c r="ER3">
-        <v>0.7763923413950978</v>
+        <v>0.776675480207221</v>
       </c>
       <c r="ES3">
-        <v>0.7866008591081598</v>
+        <v>0.786899414853688</v>
       </c>
       <c r="ET3">
-        <v>0.7982784737799289</v>
+        <v>0.7985975382385014</v>
       </c>
       <c r="EU3">
-        <v>0.8076400705167959</v>
+        <v>0.8079716165443258</v>
       </c>
       <c r="EV3">
-        <v>0.8091922903731665</v>
+        <v>0.8095092512563503</v>
       </c>
       <c r="EW3">
-        <v>0.8126039982772713</v>
+        <v>0.8129128188619205</v>
       </c>
       <c r="EX3">
-        <v>0.8196658210787796</v>
+        <v>0.8199791523887806</v>
       </c>
       <c r="EY3">
-        <v>0.8227780769913012</v>
+        <v>0.8230822301246721</v>
       </c>
       <c r="EZ3">
-        <v>0.8270613468709084</v>
+        <v>0.8273603804740438</v>
       </c>
       <c r="FA3">
-        <v>0.8318190621371799</v>
+        <v>0.8321146206021302</v>
       </c>
       <c r="FB3">
-        <v>0.8327618544506802</v>
+        <v>0.8330407155412262</v>
       </c>
       <c r="FC3">
-        <v>0.8354489970751507</v>
+        <v>0.8357172065783623</v>
       </c>
       <c r="FD3">
-        <v>0.8488689196979475</v>
+        <v>0.8491636766226073</v>
       </c>
       <c r="FE3">
-        <v>0.8585681299253251</v>
+        <v>0.8588765385619246</v>
       </c>
       <c r="FF3">
-        <v>0.8593518040032978</v>
+        <v>0.8596429637736482</v>
       </c>
       <c r="FG3">
-        <v>0.8597309429726411</v>
+        <v>0.8600034517884614</v>
       </c>
       <c r="FH3">
-        <v>0.8732322785931496</v>
+        <v>0.873531617001749</v>
       </c>
       <c r="FI3">
-        <v>0.896040991952049</v>
+        <v>0.8963994186251125</v>
       </c>
       <c r="FJ3">
-        <v>0.9049918317004615</v>
+        <v>0.9053613162896333</v>
       </c>
       <c r="FK3">
-        <v>0.9057629870787861</v>
+        <v>0.9061151794128368</v>
       </c>
       <c r="FL3">
-        <v>0.9062763719643561</v>
+        <v>0.9066103786301322</v>
       </c>
       <c r="FM3">
-        <v>0.9070936708913837</v>
+        <v>0.9074105452321102</v>
       </c>
       <c r="FN3">
-        <v>0.9077232860736867</v>
+        <v>0.908022377591611</v>
       </c>
       <c r="FO3">
-        <v>0.9152168125630609</v>
+        <v>0.9155219110588716</v>
       </c>
       <c r="FP3">
-        <v>0.9204094438171079</v>
+        <v>0.9207125745608581</v>
       </c>
       <c r="FQ3">
-        <v>0.9209654385014802</v>
+        <v>0.9212505312593158</v>
       </c>
       <c r="FR3">
-        <v>0.9235099914299586</v>
+        <v>0.9237839383952907</v>
       </c>
       <c r="FS3">
-        <v>0.9260567772583743</v>
+        <v>0.9263195861702663</v>
       </c>
       <c r="FT3">
-        <v>0.9338565850391396</v>
+        <v>0.9341264624768535</v>
       </c>
       <c r="FU3">
-        <v>0.9381297229190315</v>
+        <v>0.9383944457097605</v>
       </c>
       <c r="FV3">
-        <v>0.9389946947947192</v>
+        <v>0.9392424504912554</v>
       </c>
       <c r="FW3">
-        <v>0.9412762865305889</v>
+        <v>0.9415119850308926</v>
       </c>
       <c r="FX3">
-        <v>0.9437719614604413</v>
+        <v>0.943996344760772</v>
       </c>
       <c r="FY3">
-        <v>0.9460387793967262</v>
+        <v>0.9462510542959455</v>
       </c>
       <c r="FZ3">
-        <v>0.9480074125413924</v>
+        <v>0.9482065455534245</v>
       </c>
       <c r="GA3">
-        <v>0.9487573861203124</v>
+        <v>0.9489391534626986</v>
       </c>
       <c r="GB3">
-        <v>0.9496691824946838</v>
+        <v>0.9498341450330705</v>
       </c>
       <c r="GC3">
-        <v>0.949900677518177</v>
+        <v>0.9500464773792144</v>
       </c>
       <c r="GD3">
-        <v>0.9523871967482866</v>
+        <v>0.952521649676384</v>
       </c>
       <c r="GE3">
-        <v>0.9604743665209748</v>
+        <v>0.9606168839499595</v>
       </c>
       <c r="GF3">
-        <v>0.9686293372917574</v>
+        <v>0.9687801542147926</v>
       </c>
       <c r="GG3">
-        <v>0.9736920361494565</v>
+        <v>0.9738404349845113</v>
       </c>
       <c r="GH3">
-        <v>0.976632313866812</v>
+        <v>0.9767709384617383</v>
       </c>
       <c r="GI3">
-        <v>0.9776084928093739</v>
+        <v>0.9777305357454429</v>
       </c>
       <c r="GJ3">
-        <v>0.9817164880939075</v>
+        <v>0.9818328040111686</v>
       </c>
       <c r="GK3">
-        <v>0.9832065712520247</v>
+        <v>0.9833080866638138</v>
       </c>
       <c r="GL3">
-        <v>0.9832667026103346</v>
+        <v>0.9833484614111907</v>
       </c>
       <c r="GM3">
-        <v>0.9839188876520031</v>
+        <v>0.9839829418554933</v>
       </c>
       <c r="GN3">
-        <v>0.9883644205270493</v>
+        <v>0.9884239175916504</v>
       </c>
       <c r="GO3">
-        <v>0.9936923286772941</v>
+        <v>0.9937503268493891</v>
       </c>
       <c r="GP3">
-        <v>0.9956629261219051</v>
+        <v>0.995707789214929</v>
       </c>
       <c r="GQ3">
-        <v>0.9980633520544346</v>
+        <v>0.9980965698216199</v>
       </c>
       <c r="GR3">
-        <v>0.9989127750305593</v>
+        <v>0.9989289718122347</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.00031381083190612</v>
+        <v>0.0002977476890487253</v>
       </c>
       <c r="C4">
-        <v>0.0004415019348888703</v>
+        <v>0.0004088063112133593</v>
       </c>
       <c r="D4">
-        <v>0.0004584731066143819</v>
+        <v>0.0004088063112133593</v>
       </c>
       <c r="E4">
-        <v>0.0004734875811409501</v>
+        <v>0.0004088063112133593</v>
       </c>
       <c r="F4">
-        <v>0.0004799854278016063</v>
+        <v>0.0004088063112133593</v>
       </c>
       <c r="G4">
-        <v>0.0005138893212487202</v>
+        <v>0.0004257908299223643</v>
       </c>
       <c r="H4">
-        <v>0.0005308604929742318</v>
+        <v>0.0004257908299223643</v>
       </c>
       <c r="I4">
-        <v>0.0005309875692371521</v>
+        <v>0.0004257908299223643</v>
       </c>
       <c r="J4">
-        <v>0.0006050647367688074</v>
+        <v>0.0004830715122670352</v>
       </c>
       <c r="K4">
-        <v>0.0007714810536888703</v>
+        <v>0.000632973808321933</v>
       </c>
       <c r="L4">
-        <v>0.0008464385613100324</v>
+        <v>0.0006911375237056127</v>
       </c>
       <c r="M4">
-        <v>0.0009552711223753763</v>
+        <v>0.0007832799159051542</v>
       </c>
       <c r="N4">
-        <v>0.001221171079410249</v>
+        <v>0.001032970171305906</v>
       </c>
       <c r="O4">
-        <v>0.001244830311815757</v>
+        <v>0.001039678690681231</v>
       </c>
       <c r="P4">
-        <v>0.001253459430193106</v>
+        <v>0.001039678690681231</v>
       </c>
       <c r="Q4">
-        <v>0.001267009824570817</v>
+        <v>0.001039678690681231</v>
       </c>
       <c r="R4">
-        <v>0.001304445285376996</v>
+        <v>0.0010602055797704</v>
       </c>
       <c r="S4">
-        <v>0.001345587242560026</v>
+        <v>0.001084450303363231</v>
       </c>
       <c r="T4">
-        <v>0.001362811424311262</v>
+        <v>0.001084704087343511</v>
       </c>
       <c r="U4">
-        <v>0.001367527941790805</v>
+        <v>0.001084704087343511</v>
       </c>
       <c r="V4">
-        <v>0.001377844690839741</v>
+        <v>0.001084704087343511</v>
       </c>
       <c r="W4">
-        <v>0.001392701516350281</v>
+        <v>0.001084704087343511</v>
       </c>
       <c r="X4">
-        <v>0.001416064054725622</v>
+        <v>0.001091115005105282</v>
       </c>
       <c r="Y4">
-        <v>0.001434493707599422</v>
+        <v>0.001092577947729457</v>
       </c>
       <c r="Z4">
-        <v>0.001449753384150921</v>
+        <v>0.001092577947729457</v>
       </c>
       <c r="AA4">
-        <v>0.001515658780851727</v>
+        <v>0.001141661861896854</v>
       </c>
       <c r="AB4">
-        <v>0.001545766852912908</v>
+        <v>0.001154838947849011</v>
       </c>
       <c r="AC4">
-        <v>0.001572716811652994</v>
+        <v>0.001164848259850282</v>
       </c>
       <c r="AD4">
-        <v>0.001707889765396447</v>
+        <v>0.001283411619665038</v>
       </c>
       <c r="AE4">
-        <v>0.001808805270656839</v>
+        <v>0.001367612737883333</v>
       </c>
       <c r="AF4">
-        <v>0.0018775556176469</v>
+        <v>0.001419550305007916</v>
       </c>
       <c r="AG4">
-        <v>0.001953948525414004</v>
+        <v>0.001479153811408922</v>
       </c>
       <c r="AH4">
-        <v>0.001957026959526998</v>
+        <v>0.001479153811408922</v>
       </c>
       <c r="AI4">
-        <v>0.001960210412950669</v>
+        <v>0.001479153811408922</v>
       </c>
       <c r="AJ4">
-        <v>0.001969761656921774</v>
+        <v>0.001479153811408922</v>
       </c>
       <c r="AK4">
-        <v>0.001983318806300171</v>
+        <v>0.001479153811408922</v>
       </c>
       <c r="AL4">
-        <v>0.002005139172518715</v>
+        <v>0.001484017839528243</v>
       </c>
       <c r="AM4">
-        <v>0.002051276547209646</v>
+        <v>0.001513273261549666</v>
       </c>
       <c r="AN4">
-        <v>0.00206095427819361</v>
+        <v>0.001513273261549666</v>
       </c>
       <c r="AO4">
-        <v>0.002065074763012553</v>
+        <v>0.001513273261549666</v>
       </c>
       <c r="AP4">
-        <v>0.002065266662262064</v>
+        <v>0.001513273261549666</v>
       </c>
       <c r="AQ4">
-        <v>0.00212804900864534</v>
+        <v>0.001559224572027038</v>
       </c>
       <c r="AR4">
-        <v>0.002237520844775681</v>
+        <v>0.001652008194826135</v>
       </c>
       <c r="AS4">
-        <v>0.002350000716211858</v>
+        <v>0.001747809054474057</v>
       </c>
       <c r="AT4">
-        <v>0.002473329828751111</v>
+        <v>0.001854492342920098</v>
       </c>
       <c r="AU4">
-        <v>0.002600539661684929</v>
+        <v>0.001965068222836641</v>
       </c>
       <c r="AV4">
-        <v>0.002729828314830107</v>
+        <v>0.002077729282049994</v>
       </c>
       <c r="AW4">
-        <v>0.002833198881340113</v>
+        <v>0.002164392971520058</v>
       </c>
       <c r="AX4">
-        <v>0.003004118258718016</v>
+        <v>0.00231881210283933</v>
       </c>
       <c r="AY4">
-        <v>0.00309718333218023</v>
+        <v>0.002395138774885171</v>
       </c>
       <c r="AZ4">
-        <v>0.003098536022217763</v>
+        <v>0.002395138774885171</v>
       </c>
       <c r="BA4">
-        <v>0.003103799067752873</v>
+        <v>0.002395138774885171</v>
       </c>
       <c r="BB4">
-        <v>0.003123565539762591</v>
+        <v>0.002397942625958553</v>
       </c>
       <c r="BC4">
-        <v>0.00313165862458544</v>
+        <v>0.002397942625958553</v>
       </c>
       <c r="BD4">
-        <v>0.003243059520911915</v>
+        <v>0.002492661209925188</v>
       </c>
       <c r="BE4">
-        <v>0.003287401215420272</v>
+        <v>0.002520115458800454</v>
       </c>
       <c r="BF4">
-        <v>0.003289933692277757</v>
+        <v>0.002520115458800454</v>
       </c>
       <c r="BG4">
-        <v>0.003290117546866451</v>
+        <v>0.002520115458800454</v>
       </c>
       <c r="BH4">
-        <v>0.003318028889704283</v>
+        <v>0.002531089095761597</v>
       </c>
       <c r="BI4">
-        <v>0.003363476159325048</v>
+        <v>0.002559652301689936</v>
       </c>
       <c r="BJ4">
-        <v>0.003363677921145562</v>
+        <v>0.002559652301689936</v>
       </c>
       <c r="BK4">
-        <v>0.003457351984669694</v>
+        <v>0.002636589826690801</v>
       </c>
       <c r="BL4">
-        <v>0.003608378200024997</v>
+        <v>0.002771054943049616</v>
       </c>
       <c r="BM4">
-        <v>0.003715745406941354</v>
+        <v>0.002861727498599859</v>
       </c>
       <c r="BN4">
-        <v>0.003834605965026275</v>
+        <v>0.002963928563338475</v>
       </c>
       <c r="BO4">
-        <v>0.003960002657775745</v>
+        <v>0.003072685756697156</v>
       </c>
       <c r="BP4">
-        <v>0.003987377818559063</v>
+        <v>0.003083121571429477</v>
       </c>
       <c r="BQ4">
-        <v>0.004049369150861914</v>
+        <v>0.003128279448124085</v>
       </c>
       <c r="BR4">
-        <v>0.004136451603715857</v>
+        <v>0.003198605198798825</v>
       </c>
       <c r="BS4">
-        <v>0.004136681786429261</v>
+        <v>0.003198605198798825</v>
       </c>
       <c r="BT4">
-        <v>0.00413733012979518</v>
+        <v>0.003198605198798825</v>
       </c>
       <c r="BU4">
-        <v>0.004148659141947036</v>
+        <v>0.003198605198798825</v>
       </c>
       <c r="BV4">
-        <v>0.004160820547183523</v>
+        <v>0.003198605198798825</v>
       </c>
       <c r="BW4">
-        <v>0.004183015036440106</v>
+        <v>0.003203844494393955</v>
       </c>
       <c r="BX4">
-        <v>0.00418309631290837</v>
+        <v>0.003203844494393955</v>
       </c>
       <c r="BY4">
-        <v>0.00418451891475301</v>
+        <v>0.003203844494393955</v>
       </c>
       <c r="BZ4">
-        <v>0.004213728391722829</v>
+        <v>0.003216120236463421</v>
       </c>
       <c r="CA4">
-        <v>0.004214963031148359</v>
+        <v>0.003216120236463421</v>
       </c>
       <c r="CB4">
-        <v>0.004264759839211355</v>
+        <v>0.003249046286018568</v>
       </c>
       <c r="CC4">
-        <v>0.004442954707328979</v>
+        <v>0.003410763163714215</v>
       </c>
       <c r="CD4">
-        <v>0.004587266942001652</v>
+        <v>0.003538493761406101</v>
       </c>
       <c r="CE4">
-        <v>0.004668348660245481</v>
+        <v>0.003602800421297389</v>
       </c>
       <c r="CF4">
-        <v>0.004772134390797698</v>
+        <v>0.003689880544791361</v>
       </c>
       <c r="CG4">
-        <v>0.0049061029844187</v>
+        <v>0.00380723586036087</v>
       </c>
       <c r="CH4">
-        <v>0.004984995757439973</v>
+        <v>0.003869346879073099</v>
       </c>
       <c r="CI4">
-        <v>0.00521125341044429</v>
+        <v>0.004079273565123033</v>
       </c>
       <c r="CJ4">
-        <v>0.005337774033308033</v>
+        <v>0.004189158126684378</v>
       </c>
       <c r="CK4">
-        <v>0.005417575221421667</v>
+        <v>0.004252180339319559</v>
       </c>
       <c r="CL4">
-        <v>0.005479873671755744</v>
+        <v>0.004297646273515672</v>
       </c>
       <c r="CM4">
-        <v>0.006083454693123697</v>
+        <v>0.004886050555470403</v>
       </c>
       <c r="CN4">
-        <v>0.1071427749681381</v>
+        <v>0.1062374869614206</v>
       </c>
       <c r="CO4">
-        <v>0.1592153352625167</v>
+        <v>0.1584523134906973</v>
       </c>
       <c r="CP4">
-        <v>0.2555645550586405</v>
+        <v>0.2550792412783461</v>
       </c>
       <c r="CQ4">
-        <v>0.2560166599046074</v>
+        <v>0.255515706021143</v>
       </c>
       <c r="CR4">
-        <v>0.2568661465509774</v>
+        <v>0.256350768150381</v>
       </c>
       <c r="CS4">
-        <v>0.2574453795098698</v>
+        <v>0.2569147498894366</v>
       </c>
       <c r="CT4">
-        <v>0.3037487422176762</v>
+        <v>0.3033427309277092</v>
       </c>
       <c r="CU4">
-        <v>0.3143876122993631</v>
+        <v>0.3139971220957422</v>
       </c>
       <c r="CV4">
-        <v>0.3293866253243593</v>
+        <v>0.3290249938306999</v>
       </c>
       <c r="CW4">
-        <v>0.334973134892357</v>
+        <v>0.3346115693763976</v>
       </c>
       <c r="CX4">
-        <v>0.334990366692109</v>
+        <v>0.334611830801682</v>
       </c>
       <c r="CY4">
-        <v>0.3352694266204819</v>
+        <v>0.3348747212846112</v>
       </c>
       <c r="CZ4">
-        <v>0.3404929691515756</v>
+        <v>0.340097219481705</v>
       </c>
       <c r="DA4">
-        <v>0.3428573100919655</v>
+        <v>0.3424517698256092</v>
       </c>
       <c r="DB4">
-        <v>0.3524842950707709</v>
+        <v>0.3520911805466814</v>
       </c>
       <c r="DC4">
-        <v>0.3546062557865173</v>
+        <v>0.3542026092278171</v>
       </c>
       <c r="DD4">
-        <v>0.360445437980205</v>
+        <v>0.3600426303216578</v>
       </c>
       <c r="DE4">
-        <v>0.3610820296749293</v>
+        <v>0.3606641462562125</v>
       </c>
       <c r="DF4">
-        <v>0.3629631966661933</v>
+        <v>0.3625340446278256</v>
       </c>
       <c r="DG4">
-        <v>0.3904094344567374</v>
+        <v>0.3900472170357359</v>
       </c>
       <c r="DH4">
-        <v>0.3932617887467451</v>
+        <v>0.3928912735560898</v>
       </c>
       <c r="DI4">
-        <v>0.3965713078832341</v>
+        <v>0.3961938933845653</v>
       </c>
       <c r="DJ4">
-        <v>0.3969330361700122</v>
+        <v>0.3965397051073908</v>
       </c>
       <c r="DK4">
-        <v>0.3976889479468681</v>
+        <v>0.3972809061227403</v>
       </c>
       <c r="DL4">
-        <v>0.3978732080456024</v>
+        <v>0.3974487067845184</v>
       </c>
       <c r="DM4">
-        <v>0.3987770947075033</v>
+        <v>0.3983383353382655</v>
       </c>
       <c r="DN4">
-        <v>0.3992449469550713</v>
+        <v>0.3987905956537712</v>
       </c>
       <c r="DO4">
-        <v>0.3997951012610073</v>
+        <v>0.3993254097886288</v>
       </c>
       <c r="DP4">
-        <v>0.4013463464187272</v>
+        <v>0.4008643770998683</v>
       </c>
       <c r="DQ4">
-        <v>0.4058247595740613</v>
+        <v>0.4053394665796103</v>
       </c>
       <c r="DR4">
-        <v>0.4151066780177828</v>
+        <v>0.4146327552113135</v>
       </c>
       <c r="DS4">
-        <v>0.425030091026727</v>
+        <v>0.4245695007322213</v>
       </c>
       <c r="DT4">
-        <v>0.4254654404009903</v>
+        <v>0.4249891587485329</v>
       </c>
       <c r="DU4">
-        <v>0.4324363681097461</v>
+        <v>0.4319643873530471</v>
       </c>
       <c r="DV4">
-        <v>0.43875263015194</v>
+        <v>0.4382829476767806</v>
       </c>
       <c r="DW4">
-        <v>0.4655675818782993</v>
+        <v>0.4651629029242031</v>
       </c>
       <c r="DX4">
-        <v>0.4702362130529735</v>
+        <v>0.4698287922978659</v>
       </c>
       <c r="DY4">
-        <v>0.4823512997847519</v>
+        <v>0.4819639158445593</v>
       </c>
       <c r="DZ4">
-        <v>0.4952834260996013</v>
+        <v>0.4949185782883553</v>
       </c>
       <c r="EA4">
-        <v>0.550765826740669</v>
+        <v>0.5505536758239862</v>
       </c>
       <c r="EB4">
-        <v>0.5755208022575841</v>
+        <v>0.5753673534200863</v>
       </c>
       <c r="EC4">
-        <v>0.5780445300141793</v>
+        <v>0.5778817781425054</v>
       </c>
       <c r="ED4">
-        <v>0.5792781556396058</v>
+        <v>0.5791021543272104</v>
       </c>
       <c r="EE4">
-        <v>0.5794759190397131</v>
+        <v>0.5792834995967941</v>
       </c>
       <c r="EF4">
-        <v>0.5794764739550695</v>
+        <v>0.5792834995967941</v>
       </c>
       <c r="EG4">
-        <v>0.58473558848978</v>
+        <v>0.584541678611826</v>
       </c>
       <c r="EH4">
-        <v>0.5987955619193011</v>
+        <v>0.5986276382407403</v>
       </c>
       <c r="EI4">
-        <v>0.6343561325348545</v>
+        <v>0.6342799651179312</v>
       </c>
       <c r="EJ4">
-        <v>0.6686814340248143</v>
+        <v>0.6686932441964722</v>
       </c>
       <c r="EK4">
-        <v>0.6967122498747942</v>
+        <v>0.6967927828809094</v>
       </c>
       <c r="EL4">
-        <v>0.7034637045612355</v>
+        <v>0.7035478670978342</v>
       </c>
       <c r="EM4">
-        <v>0.7055268860710056</v>
+        <v>0.7056003367681258</v>
       </c>
       <c r="EN4">
-        <v>0.7159229311280036</v>
+        <v>0.7160111601127073</v>
       </c>
       <c r="EO4">
-        <v>0.7171947518573136</v>
+        <v>0.7172698482396485</v>
       </c>
       <c r="EP4">
-        <v>0.7226116886080703</v>
+        <v>0.7226863322469437</v>
       </c>
       <c r="EQ4">
-        <v>0.7478730581764721</v>
+        <v>0.7480079529477032</v>
       </c>
       <c r="ER4">
-        <v>0.7687290512969656</v>
+        <v>0.7689107212082048</v>
       </c>
       <c r="ES4">
-        <v>0.782545601201737</v>
+        <v>0.7827525126828023</v>
       </c>
       <c r="ET4">
-        <v>0.7986403208381371</v>
+        <v>0.7988794427822064</v>
       </c>
       <c r="EU4">
-        <v>0.8112933141246061</v>
+        <v>0.8115541183331227</v>
       </c>
       <c r="EV4">
-        <v>0.8125111657484289</v>
+        <v>0.8127586722637471</v>
       </c>
       <c r="EW4">
-        <v>0.8164065918444889</v>
+        <v>0.8166489913339738</v>
       </c>
       <c r="EX4">
-        <v>0.8221899394324999</v>
+        <v>0.822433007024766</v>
       </c>
       <c r="EY4">
-        <v>0.8250325960215216</v>
+        <v>0.8252673361789858</v>
       </c>
       <c r="EZ4">
-        <v>0.8289829538231667</v>
+        <v>0.8292127549902092</v>
       </c>
       <c r="FA4">
-        <v>0.8331766732495551</v>
+        <v>0.8334022798663916</v>
       </c>
       <c r="FB4">
-        <v>0.8350411487391222</v>
+        <v>0.8352554356772093</v>
       </c>
       <c r="FC4">
-        <v>0.8414077617864354</v>
+        <v>0.8416245010291672</v>
       </c>
       <c r="FD4">
-        <v>0.8574510034176015</v>
+        <v>0.8576997956527527</v>
       </c>
       <c r="FE4">
-        <v>0.8708773787827027</v>
+        <v>0.8711502190485638</v>
       </c>
       <c r="FF4">
-        <v>0.8722766925249752</v>
+        <v>0.8725367901880255</v>
       </c>
       <c r="FG4">
-        <v>0.8731261791713452</v>
+        <v>0.8733718523172634</v>
       </c>
       <c r="FH4">
-        <v>0.8834806722241185</v>
+        <v>0.8837409965505505</v>
       </c>
       <c r="FI4">
-        <v>0.9000839259122227</v>
+        <v>0.9003780163010658</v>
       </c>
       <c r="FJ4">
-        <v>0.9040843223189554</v>
+        <v>0.904373626784854</v>
       </c>
       <c r="FK4">
-        <v>0.904151878855824</v>
+        <v>0.9044243668900067</v>
       </c>
       <c r="FL4">
-        <v>0.9044167819427575</v>
+        <v>0.9046730572258928</v>
       </c>
       <c r="FM4">
-        <v>0.9046321296146526</v>
+        <v>0.9048720405573355</v>
       </c>
       <c r="FN4">
-        <v>0.9052758997801067</v>
+        <v>0.9055007569214737</v>
       </c>
       <c r="FO4">
-        <v>0.9129089612561837</v>
+        <v>0.9131401447523563</v>
       </c>
       <c r="FP4">
-        <v>0.9163846828095711</v>
+        <v>0.9166094754088785</v>
       </c>
       <c r="FQ4">
-        <v>0.916883967630335</v>
+        <v>0.9170932644494347</v>
       </c>
       <c r="FR4">
-        <v>0.9189966274451357</v>
+        <v>0.9191953637782833</v>
       </c>
       <c r="FS4">
-        <v>0.9211205520610817</v>
+        <v>0.9213087623671652</v>
       </c>
       <c r="FT4">
-        <v>0.9266371553219719</v>
+        <v>0.926825217763222</v>
       </c>
       <c r="FU4">
-        <v>0.9288398153459232</v>
+        <v>0.9290175926107536</v>
       </c>
       <c r="FV4">
-        <v>0.9290018120823939</v>
+        <v>0.9291630618069169</v>
       </c>
       <c r="FW4">
-        <v>0.9298079294243543</v>
+        <v>0.9299546219655768</v>
       </c>
       <c r="FX4">
-        <v>0.9312057175664717</v>
+        <v>0.9313396628380913</v>
       </c>
       <c r="FY4">
-        <v>0.932235097371132</v>
+        <v>0.9323551684165773</v>
       </c>
       <c r="FZ4">
-        <v>0.9330604381950469</v>
+        <v>0.9331660108615865</v>
       </c>
       <c r="GA4">
-        <v>0.9332913491685243</v>
+        <v>0.9333806051025596</v>
       </c>
       <c r="GB4">
-        <v>0.9337561578157828</v>
+        <v>0.93382981250742</v>
       </c>
       <c r="GC4">
-        <v>0.9337600702561806</v>
+        <v>0.93382981250742</v>
       </c>
       <c r="GD4">
-        <v>0.9390042713893748</v>
+        <v>0.9390730325010239</v>
       </c>
       <c r="GE4">
-        <v>0.949567352463356</v>
+        <v>0.9496514028237091</v>
       </c>
       <c r="GF4">
-        <v>0.958198692340931</v>
+        <v>0.9582921227774369</v>
       </c>
       <c r="GG4">
-        <v>0.9620293527304061</v>
+        <v>0.9621174780235792</v>
       </c>
       <c r="GH4">
-        <v>0.9638032825107671</v>
+        <v>0.9638798111469804</v>
       </c>
       <c r="GI4">
-        <v>0.9648936865216319</v>
+        <v>0.9649565276039669</v>
       </c>
       <c r="GJ4">
-        <v>0.9674916345857734</v>
+        <v>0.9675453996729398</v>
       </c>
       <c r="GK4">
-        <v>0.9682599337038887</v>
+        <v>0.9682990259222732</v>
       </c>
       <c r="GL4">
-        <v>0.9682900417759499</v>
+        <v>0.9683122030082254</v>
       </c>
       <c r="GM4">
-        <v>0.9702256395727481</v>
+        <v>0.970236698688537</v>
       </c>
       <c r="GN4">
-        <v>0.9767989622410782</v>
+        <v>0.976813105983699</v>
       </c>
       <c r="GO4">
-        <v>0.9839310396662186</v>
+        <v>0.9839499772595973</v>
       </c>
       <c r="GP4">
-        <v>0.9897625714591286</v>
+        <v>0.9897823245501783</v>
       </c>
       <c r="GQ4">
-        <v>0.9944452749352336</v>
+        <v>0.9944623292722687</v>
       </c>
       <c r="GR4">
-        <v>0.9972586459212778</v>
+        <v>0.9972672832392119</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.385426169127342E-05</v>
+        <v>3.658627466997722E-05</v>
       </c>
       <c r="C5">
-        <v>9.378431794526226E-05</v>
+        <v>5.920555775250258E-05</v>
       </c>
       <c r="D5">
-        <v>0.0001867147608637089</v>
+        <v>0.0001349880865231451</v>
       </c>
       <c r="E5">
-        <v>0.0001879032597010333</v>
+        <v>0.0001349880865231451</v>
       </c>
       <c r="F5">
-        <v>0.0002599713919643066</v>
+        <v>0.0001898441991526282</v>
       </c>
       <c r="G5">
-        <v>0.0003695457094054481</v>
+        <v>0.0002823217455663324</v>
       </c>
       <c r="H5">
-        <v>0.0004073364885922537</v>
+        <v>0.000302795178033887</v>
       </c>
       <c r="I5">
-        <v>0.0006850809573147173</v>
+        <v>0.0005639596271786664</v>
       </c>
       <c r="J5">
-        <v>0.001375479078996418</v>
+        <v>0.001239045727032509</v>
       </c>
       <c r="K5">
-        <v>0.001689317068852386</v>
+        <v>0.001536414605098115</v>
       </c>
       <c r="L5">
-        <v>0.001762935931164359</v>
+        <v>0.001592826212843076</v>
       </c>
       <c r="M5">
-        <v>0.001814301010777461</v>
+        <v>0.001626915656702703</v>
       </c>
       <c r="N5">
-        <v>0.001831681075323275</v>
+        <v>0.001626915656702703</v>
       </c>
       <c r="O5">
-        <v>0.001831681992374854</v>
+        <v>0.001626915656702703</v>
       </c>
       <c r="P5">
-        <v>0.001838359758284567</v>
+        <v>0.001626915656702703</v>
       </c>
       <c r="Q5">
-        <v>0.001868959119245529</v>
+        <v>0.001640175573231082</v>
       </c>
       <c r="R5">
-        <v>0.001941886731535794</v>
+        <v>0.001695893806888629</v>
       </c>
       <c r="S5">
-        <v>0.002017247993902487</v>
+        <v>0.00175405316871664</v>
       </c>
       <c r="T5">
-        <v>0.002044483304757802</v>
+        <v>0.001763938698122037</v>
       </c>
       <c r="U5">
-        <v>0.002070675215580349</v>
+        <v>0.001772777621346158</v>
       </c>
       <c r="V5">
-        <v>0.002072587675640409</v>
+        <v>0.001772777621346158</v>
       </c>
       <c r="W5">
-        <v>0.002100886766529132</v>
+        <v>0.001783730199556919</v>
       </c>
       <c r="X5">
-        <v>0.002100896955991451</v>
+        <v>0.001783730199556919</v>
       </c>
       <c r="Y5">
-        <v>0.002148848157497342</v>
+        <v>0.001814395275181046</v>
       </c>
       <c r="Z5">
-        <v>0.002156836695748219</v>
+        <v>0.001814395275181046</v>
       </c>
       <c r="AA5">
-        <v>0.002417035223919659</v>
+        <v>0.00205795986879555</v>
       </c>
       <c r="AB5">
-        <v>0.00246568796744758</v>
+        <v>0.002089328642132562</v>
       </c>
       <c r="AC5">
-        <v>0.002488100810151447</v>
+        <v>0.002094376884957736</v>
       </c>
       <c r="AD5">
-        <v>0.00257679895293698</v>
+        <v>0.002165914108628693</v>
       </c>
       <c r="AE5">
-        <v>0.002615714954159123</v>
+        <v>0.002187516220701871</v>
       </c>
       <c r="AF5">
-        <v>0.002628411940557867</v>
+        <v>0.002187516220701871</v>
       </c>
       <c r="AG5">
-        <v>0.00270553598297992</v>
+        <v>0.002247443779237021</v>
       </c>
       <c r="AH5">
-        <v>0.00285250888759555</v>
+        <v>0.002377434830805568</v>
       </c>
       <c r="AI5">
-        <v>0.002862237887901086</v>
+        <v>0.002377434830805568</v>
       </c>
       <c r="AJ5">
-        <v>0.002882597348540467</v>
+        <v>0.002380423381955719</v>
       </c>
       <c r="AK5">
-        <v>0.002941606660393633</v>
+        <v>0.002422180547170822</v>
       </c>
       <c r="AL5">
-        <v>0.00300439667236553</v>
+        <v>0.002467730029799715</v>
       </c>
       <c r="AM5">
-        <v>0.003224281279270926</v>
+        <v>0.002670856825960275</v>
       </c>
       <c r="AN5">
-        <v>0.003269613075694555</v>
+        <v>0.002698894447622102</v>
       </c>
       <c r="AO5">
-        <v>0.00331925654325359</v>
+        <v>0.002731256989276478</v>
       </c>
       <c r="AP5">
-        <v>0.003388440545426288</v>
+        <v>0.002783220109491161</v>
       </c>
       <c r="AQ5">
-        <v>0.003493829032735975</v>
+        <v>0.002871498963599165</v>
       </c>
       <c r="AR5">
-        <v>0.003607886206317899</v>
+        <v>0.002968473141026256</v>
       </c>
       <c r="AS5">
-        <v>0.003633871882133969</v>
+        <v>0.002977105195527169</v>
       </c>
       <c r="AT5">
-        <v>0.003635728911592289</v>
+        <v>0.002977105195527169</v>
       </c>
       <c r="AU5">
-        <v>0.003635739101054609</v>
+        <v>0.002977105195527169</v>
       </c>
       <c r="AV5">
-        <v>0.003635945437661089</v>
+        <v>0.002977105195527169</v>
       </c>
       <c r="AW5">
-        <v>0.00368950379634307</v>
+        <v>0.003013394657940237</v>
       </c>
       <c r="AX5">
-        <v>0.003796975004718164</v>
+        <v>0.003103762632876755</v>
       </c>
       <c r="AY5">
-        <v>0.003801773120568847</v>
+        <v>0.003103762632876755</v>
       </c>
       <c r="AZ5">
-        <v>0.003802458259990364</v>
+        <v>0.003103762632876755</v>
       </c>
       <c r="BA5">
-        <v>0.003807345228143837</v>
+        <v>0.003103762632876755</v>
       </c>
       <c r="BB5">
-        <v>0.003822922978633051</v>
+        <v>0.003103762632876755</v>
       </c>
       <c r="BC5">
-        <v>0.003854877129636559</v>
+        <v>0.003118381502432094</v>
       </c>
       <c r="BD5">
-        <v>0.003890829220765622</v>
+        <v>0.003137010596940824</v>
       </c>
       <c r="BE5">
-        <v>0.004102117897401066</v>
+        <v>0.00333151504934845</v>
       </c>
       <c r="BF5">
-        <v>0.004388679086400415</v>
+        <v>0.003601523310694279</v>
       </c>
       <c r="BG5">
-        <v>0.00451197157027237</v>
+        <v>0.003707761176574499</v>
       </c>
       <c r="BH5">
-        <v>0.004568373912043665</v>
+        <v>0.00374690336103783</v>
       </c>
       <c r="BI5">
-        <v>0.004614662191497331</v>
+        <v>0.003775900404800562</v>
       </c>
       <c r="BJ5">
-        <v>0.00461853673461901</v>
+        <v>0.003775900404800562</v>
       </c>
       <c r="BK5">
-        <v>0.004641623610344045</v>
+        <v>0.003781624751808393</v>
       </c>
       <c r="BL5">
-        <v>0.004684277614683579</v>
+        <v>0.003806976353095129</v>
       </c>
       <c r="BM5">
-        <v>0.004743753098551385</v>
+        <v>0.003849201122773273</v>
       </c>
       <c r="BN5">
-        <v>0.00488780366307524</v>
+        <v>0.003976260854514536</v>
       </c>
       <c r="BO5">
-        <v>0.005004027116725195</v>
+        <v>0.00407540796853198</v>
       </c>
       <c r="BP5">
-        <v>0.005006081719789719</v>
+        <v>0.00407540796853198</v>
       </c>
       <c r="BQ5">
-        <v>0.005013787500031716</v>
+        <v>0.00407540796853198</v>
       </c>
       <c r="BR5">
-        <v>0.005013824283987871</v>
+        <v>0.00407540796853198</v>
       </c>
       <c r="BS5">
-        <v>0.005014059049195244</v>
+        <v>0.00407540796853198</v>
       </c>
       <c r="BT5">
-        <v>0.005029240939672026</v>
+        <v>0.00407540796853198</v>
       </c>
       <c r="BU5">
-        <v>0.005029241041566649</v>
+        <v>0.00407540796853198</v>
       </c>
       <c r="BV5">
-        <v>0.005067654904773023</v>
+        <v>0.004096506399625041</v>
       </c>
       <c r="BW5">
-        <v>0.005351828813697401</v>
+        <v>0.00436412004528711</v>
       </c>
       <c r="BX5">
-        <v>0.005570517590565241</v>
+        <v>0.004566047336876312</v>
       </c>
       <c r="BY5">
-        <v>0.00570363771474583</v>
+        <v>0.004682143041333637</v>
       </c>
       <c r="BZ5">
-        <v>0.005805125157933006</v>
+        <v>0.004766508864232298</v>
       </c>
       <c r="CA5">
-        <v>0.005807636758511882</v>
+        <v>0.004766508864232298</v>
       </c>
       <c r="CB5">
-        <v>0.005813121134684117</v>
+        <v>0.004766508864232298</v>
       </c>
       <c r="CC5">
-        <v>0.005846810045742105</v>
+        <v>0.004782867824394335</v>
       </c>
       <c r="CD5">
-        <v>0.005897167284323556</v>
+        <v>0.004815946330339123</v>
       </c>
       <c r="CE5">
-        <v>0.00597988543692129</v>
+        <v>0.004881485188572121</v>
       </c>
       <c r="CF5">
-        <v>0.006000427494566406</v>
+        <v>0.004884656897810141</v>
       </c>
       <c r="CG5">
-        <v>0.006006593749260055</v>
+        <v>0.004884656897810141</v>
       </c>
       <c r="CH5">
-        <v>0.006014299529502052</v>
+        <v>0.004884656897810141</v>
       </c>
       <c r="CI5">
-        <v>0.006018498504633919</v>
+        <v>0.004884656897810141</v>
       </c>
       <c r="CJ5">
-        <v>0.006018609467877405</v>
+        <v>0.004884656897810141</v>
       </c>
       <c r="CK5">
-        <v>0.006026037585510682</v>
+        <v>0.004884656897810141</v>
       </c>
       <c r="CL5">
-        <v>0.00602823942627983</v>
+        <v>0.004884656897810141</v>
       </c>
       <c r="CM5">
-        <v>0.006029908867732259</v>
+        <v>0.004884656897810141</v>
       </c>
       <c r="CN5">
-        <v>0.07611869106884488</v>
+        <v>0.07517137369256335</v>
       </c>
       <c r="CO5">
-        <v>0.09344767261305521</v>
+        <v>0.09253617007687655</v>
       </c>
       <c r="CP5">
-        <v>0.2033509060645261</v>
+        <v>0.2027596795437444</v>
       </c>
       <c r="CQ5">
-        <v>0.2099064430704004</v>
+        <v>0.2093179268640872</v>
       </c>
       <c r="CR5">
-        <v>0.211216015711527</v>
+        <v>0.2106140900762548</v>
       </c>
       <c r="CS5">
-        <v>0.2257254531671906</v>
+        <v>0.2251506785069756</v>
       </c>
       <c r="CT5">
-        <v>0.2650332274016369</v>
+        <v>0.2645618037816171</v>
       </c>
       <c r="CU5">
-        <v>0.2725851352388018</v>
+        <v>0.2721194835709291</v>
       </c>
       <c r="CV5">
-        <v>0.2875874832099451</v>
+        <v>0.2871504971273118</v>
       </c>
       <c r="CW5">
-        <v>0.3000515996013761</v>
+        <v>0.2996354796530177</v>
       </c>
       <c r="CX5">
-        <v>0.3007017561217941</v>
+        <v>0.300270200497644</v>
       </c>
       <c r="CY5">
-        <v>0.301440721245001</v>
+        <v>0.3009940028351881</v>
       </c>
       <c r="CZ5">
-        <v>0.3030482906954861</v>
+        <v>0.3025890785381361</v>
       </c>
       <c r="DA5">
-        <v>0.3152523250787493</v>
+        <v>0.3148131798784495</v>
       </c>
       <c r="DB5">
-        <v>0.3231466308266671</v>
+        <v>0.3227143096951678</v>
       </c>
       <c r="DC5">
-        <v>0.3249810445842762</v>
+        <v>0.3245369267500107</v>
       </c>
       <c r="DD5">
-        <v>0.3406180520753507</v>
+        <v>0.3402045500013381</v>
       </c>
       <c r="DE5">
-        <v>0.3407460970293719</v>
+        <v>0.3403155549407072</v>
       </c>
       <c r="DF5">
-        <v>0.3411937421034301</v>
+        <v>0.3407471420639582</v>
       </c>
       <c r="DG5">
-        <v>0.3754927371805775</v>
+        <v>0.3751340972580525</v>
       </c>
       <c r="DH5">
-        <v>0.3833226004264715</v>
+        <v>0.3829705865545131</v>
       </c>
       <c r="DI5">
-        <v>0.3946078957808821</v>
+        <v>0.3942731257744711</v>
       </c>
       <c r="DJ5">
-        <v>0.3946544591793444</v>
+        <v>0.3943023987826252</v>
       </c>
       <c r="DK5">
-        <v>0.3949838645196893</v>
+        <v>0.3946153828463685</v>
       </c>
       <c r="DL5">
-        <v>0.3977901956078211</v>
+        <v>0.3974129037289559</v>
       </c>
       <c r="DM5">
-        <v>0.3999622516760337</v>
+        <v>0.3995742005980983</v>
       </c>
       <c r="DN5">
-        <v>0.400031771932217</v>
+        <v>0.3996265010055613</v>
       </c>
       <c r="DO5">
-        <v>0.4002093131177926</v>
+        <v>0.399787154267978</v>
       </c>
       <c r="DP5">
-        <v>0.4015653169603774</v>
+        <v>0.4011298913549051</v>
       </c>
       <c r="DQ5">
-        <v>0.4038018248306141</v>
+        <v>0.4033558380728824</v>
       </c>
       <c r="DR5">
-        <v>0.4090153044943415</v>
+        <v>0.4085679041915711</v>
       </c>
       <c r="DS5">
-        <v>0.4192721278164533</v>
+        <v>0.4188388111013232</v>
       </c>
       <c r="DT5">
-        <v>0.4202494407471455</v>
+        <v>0.4198016936389568</v>
       </c>
       <c r="DU5">
-        <v>0.4279884619901866</v>
+        <v>0.4275470617942257</v>
       </c>
       <c r="DV5">
-        <v>0.4286588496512399</v>
+        <v>0.4282020759455208</v>
       </c>
       <c r="DW5">
-        <v>0.4543896764593071</v>
+        <v>0.4539945346943334</v>
       </c>
       <c r="DX5">
-        <v>0.4554396087922798</v>
+        <v>0.4550302597783735</v>
       </c>
       <c r="DY5">
-        <v>0.476081247440523</v>
+        <v>0.4757178923641871</v>
       </c>
       <c r="DZ5">
-        <v>0.4831448138623517</v>
+        <v>0.4827857301678629</v>
       </c>
       <c r="EA5">
-        <v>0.5321082614000309</v>
+        <v>0.5318821985958253</v>
       </c>
       <c r="EB5">
-        <v>0.6006133435514079</v>
+        <v>0.6005803489641974</v>
       </c>
       <c r="EC5">
-        <v>0.6010403033048165</v>
+        <v>0.6009911872051659</v>
       </c>
       <c r="ED5">
-        <v>0.6028121386604604</v>
+        <v>0.6027510335677965</v>
       </c>
       <c r="EE5">
-        <v>0.6034586967807652</v>
+        <v>0.6033821449551843</v>
       </c>
       <c r="EF5">
-        <v>0.6034750815372798</v>
+        <v>0.6033821449551843</v>
       </c>
       <c r="EG5">
-        <v>0.6078359432742311</v>
+        <v>0.6077389732318123</v>
       </c>
       <c r="EH5">
-        <v>0.6122382321124833</v>
+        <v>0.6121373559064969</v>
       </c>
       <c r="EI5">
-        <v>0.6367626568826639</v>
+        <v>0.6367197055980897</v>
       </c>
       <c r="EJ5">
-        <v>0.6759744281140952</v>
+        <v>0.6760345328727111</v>
       </c>
       <c r="EK5">
-        <v>0.7095630021689322</v>
+        <v>0.7097088840703439</v>
       </c>
       <c r="EL5">
-        <v>0.7298666728065616</v>
+        <v>0.7300575101410404</v>
       </c>
       <c r="EM5">
-        <v>0.7305019866865133</v>
+        <v>0.730677342736893</v>
       </c>
       <c r="EN5">
-        <v>0.7376404079106929</v>
+        <v>0.737820265355959</v>
       </c>
       <c r="EO5">
-        <v>0.740311514294578</v>
+        <v>0.7404821460172687</v>
       </c>
       <c r="EP5">
-        <v>0.7423648049590609</v>
+        <v>0.7425243125416137</v>
       </c>
       <c r="EQ5">
-        <v>0.7581409724545056</v>
+        <v>0.7583315234066905</v>
       </c>
       <c r="ER5">
-        <v>0.775339974994634</v>
+        <v>0.7755659413888224</v>
       </c>
       <c r="ES5">
-        <v>0.7828796065314134</v>
+        <v>0.7831113071552638</v>
       </c>
       <c r="ET5">
-        <v>0.7945193698969559</v>
+        <v>0.7947694035918831</v>
       </c>
       <c r="EU5">
-        <v>0.8071372237932151</v>
+        <v>0.8074085960253845</v>
       </c>
       <c r="EV5">
-        <v>0.8102442438907899</v>
+        <v>0.8105077298714006</v>
       </c>
       <c r="EW5">
-        <v>0.8115168217307547</v>
+        <v>0.8117667846051754</v>
       </c>
       <c r="EX5">
-        <v>0.8176226612225064</v>
+        <v>0.8178739525856638</v>
       </c>
       <c r="EY5">
-        <v>0.8208306423232519</v>
+        <v>0.8210743576667457</v>
       </c>
       <c r="EZ5">
-        <v>0.8247613820466954</v>
+        <v>0.8249997422555239</v>
       </c>
       <c r="FA5">
-        <v>0.8315527499599757</v>
+        <v>0.8317945451419734</v>
       </c>
       <c r="FB5">
-        <v>0.8337004113274222</v>
+        <v>0.833931372350573</v>
       </c>
       <c r="FC5">
-        <v>0.8352942495774761</v>
+        <v>0.8355126746600035</v>
       </c>
       <c r="FD5">
-        <v>0.8472409439526577</v>
+        <v>0.8474786452405992</v>
       </c>
       <c r="FE5">
-        <v>0.8596195583414036</v>
+        <v>0.8598778630339767</v>
       </c>
       <c r="FF5">
-        <v>0.8609080296818675</v>
+        <v>0.8611528601056297</v>
       </c>
       <c r="FG5">
-        <v>0.860917758682173</v>
+        <v>0.8611528601056297</v>
       </c>
       <c r="FH5">
-        <v>0.8693408229466962</v>
+        <v>0.8695843732024917</v>
       </c>
       <c r="FI5">
-        <v>0.891566419644683</v>
+        <v>0.8918608310074742</v>
       </c>
       <c r="FJ5">
-        <v>0.9028302784984203</v>
+        <v>0.903141867856908</v>
       </c>
       <c r="FK5">
-        <v>0.9042131776418498</v>
+        <v>0.9045115828882737</v>
       </c>
       <c r="FL5">
-        <v>0.9049709199356465</v>
+        <v>0.9052542200946972</v>
       </c>
       <c r="FM5">
-        <v>0.9060130169683732</v>
+        <v>0.9062820858022641</v>
       </c>
       <c r="FN5">
-        <v>0.9062914347571168</v>
+        <v>0.9065439256404006</v>
       </c>
       <c r="FO5">
-        <v>0.9125816393546584</v>
+        <v>0.9128360252418124</v>
       </c>
       <c r="FP5">
-        <v>0.9192652945645562</v>
+        <v>0.9195227844464315</v>
       </c>
       <c r="FQ5">
-        <v>0.9193657676577115</v>
+        <v>0.9196061328024143</v>
       </c>
       <c r="FR5">
-        <v>0.9218022819342293</v>
+        <v>0.9220327005042278</v>
       </c>
       <c r="FS5">
-        <v>0.9242348118106221</v>
+        <v>0.9244552715626939</v>
       </c>
       <c r="FT5">
-        <v>0.9323004450639203</v>
+        <v>0.9325282553381264</v>
       </c>
       <c r="FU5">
-        <v>0.9368431442065821</v>
+        <v>0.9370674797685086</v>
       </c>
       <c r="FV5">
-        <v>0.9377467950049609</v>
+        <v>0.9379564738256132</v>
       </c>
       <c r="FW5">
-        <v>0.9395622351619741</v>
+        <v>0.9397600589779824</v>
       </c>
       <c r="FX5">
-        <v>0.941532225823841</v>
+        <v>0.9417186695363505</v>
       </c>
       <c r="FY5">
-        <v>0.9447185179239054</v>
+        <v>0.9448973189710211</v>
       </c>
       <c r="FZ5">
-        <v>0.9461414935685935</v>
+        <v>0.9463072336502917</v>
       </c>
       <c r="GA5">
-        <v>0.9465261711306741</v>
+        <v>0.946675659775665</v>
       </c>
       <c r="GB5">
-        <v>0.9474255787589196</v>
+        <v>0.9475603976242685</v>
       </c>
       <c r="GC5">
-        <v>0.9477739361998597</v>
+        <v>0.9478923920244198</v>
       </c>
       <c r="GD5">
-        <v>0.9501176770734641</v>
+        <v>0.9502259012501953</v>
       </c>
       <c r="GE5">
-        <v>0.9582141618277312</v>
+        <v>0.9583298313267604</v>
       </c>
       <c r="GF5">
-        <v>0.9656978018627522</v>
+        <v>0.9658190335413531</v>
       </c>
       <c r="GG5">
-        <v>0.971295662638551</v>
+        <v>0.9714166618943004</v>
       </c>
       <c r="GH5">
-        <v>0.9744819547386154</v>
+        <v>0.974595311328971</v>
       </c>
       <c r="GI5">
-        <v>0.9753795468668039</v>
+        <v>0.9754782280988682</v>
       </c>
       <c r="GJ5">
-        <v>0.9792850127894537</v>
+        <v>0.9793782612257866</v>
       </c>
       <c r="GK5">
-        <v>0.9814439161572532</v>
+        <v>0.9815263649790382</v>
       </c>
       <c r="GL5">
-        <v>0.9816304453631112</v>
+        <v>0.9816960338800302</v>
       </c>
       <c r="GM5">
-        <v>0.9821596698397312</v>
+        <v>0.9822094510821625</v>
       </c>
       <c r="GN5">
-        <v>0.9861450246648898</v>
+        <v>0.9861896185933586</v>
       </c>
       <c r="GO5">
-        <v>0.9924930033642458</v>
+        <v>0.9925396698242295</v>
       </c>
       <c r="GP5">
-        <v>0.9952918529521427</v>
+        <v>0.9953296862175077</v>
       </c>
       <c r="GQ5">
-        <v>0.9980164377377073</v>
+        <v>0.9980452096083601</v>
       </c>
       <c r="GR5">
-        <v>0.9991126607721338</v>
+        <v>0.9991273676354283</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>7.757559625378829E-05</v>
+        <v>6.424977883688728E-05</v>
       </c>
       <c r="C6">
-        <v>0.0003115050849570734</v>
+        <v>0.0002852474459740606</v>
       </c>
       <c r="D6">
-        <v>0.0004679186474036887</v>
+        <v>0.0004285338546320224</v>
       </c>
       <c r="E6">
-        <v>0.0005643823867453475</v>
+        <v>0.0005117193727495526</v>
       </c>
       <c r="F6">
-        <v>0.0007943087456419482</v>
+        <v>0.0007287038226015062</v>
       </c>
       <c r="G6">
-        <v>0.0009495504081451559</v>
+        <v>0.0008708153782478123</v>
       </c>
       <c r="H6">
-        <v>0.0009707280021224663</v>
+        <v>0.0008785250375987196</v>
       </c>
       <c r="I6">
-        <v>0.0009729615627146052</v>
+        <v>0.0008785250375987196</v>
       </c>
       <c r="J6">
-        <v>0.001010795368887569</v>
+        <v>0.0009029328811000048</v>
       </c>
       <c r="K6">
-        <v>0.001011390797458815</v>
+        <v>0.0009029328811000048</v>
       </c>
       <c r="L6">
-        <v>0.001090396773643528</v>
+        <v>0.0009686166442792523</v>
       </c>
       <c r="M6">
-        <v>0.001130173158722683</v>
+        <v>0.0009949719617873033</v>
       </c>
       <c r="N6">
-        <v>0.001146106804953229</v>
+        <v>0.0009974244591783457</v>
       </c>
       <c r="O6">
-        <v>0.001157351550410208</v>
+        <v>0.0009974244591783457</v>
       </c>
       <c r="P6">
-        <v>0.001170838863758891</v>
+        <v>0.0009974244591783457</v>
       </c>
       <c r="Q6">
-        <v>0.001188860342888613</v>
+        <v>0.001001970050594377</v>
       </c>
       <c r="R6">
-        <v>0.001200614419320996</v>
+        <v>0.001001970050594377</v>
       </c>
       <c r="S6">
-        <v>0.001211733594784039</v>
+        <v>0.001001970050594377</v>
       </c>
       <c r="T6">
-        <v>0.001254696372709318</v>
+        <v>0.001031519790333308</v>
       </c>
       <c r="U6">
-        <v>0.001269598027989701</v>
+        <v>0.001032937696262321</v>
       </c>
       <c r="V6">
-        <v>0.001269620043455638</v>
+        <v>0.001032937696262321</v>
       </c>
       <c r="W6">
-        <v>0.00130048716396503</v>
+        <v>0.001050361298763215</v>
       </c>
       <c r="X6">
-        <v>0.001348593081641942</v>
+        <v>0.00108506713844102</v>
       </c>
       <c r="Y6">
-        <v>0.001390895079599132</v>
+        <v>0.001113954433113783</v>
       </c>
       <c r="Z6">
-        <v>0.001485635015024035</v>
+        <v>0.001195411803504627</v>
       </c>
       <c r="AA6">
-        <v>0.001852339477315469</v>
+        <v>0.001549519023611779</v>
       </c>
       <c r="AB6">
-        <v>0.002032765758602484</v>
+        <v>0.001716878660710771</v>
       </c>
       <c r="AC6">
-        <v>0.002032830938993336</v>
+        <v>0.001716878660710771</v>
       </c>
       <c r="AD6">
-        <v>0.002043007437501902</v>
+        <v>0.001716878660710771</v>
       </c>
       <c r="AE6">
-        <v>0.002100661044717745</v>
+        <v>0.001761156249130666</v>
       </c>
       <c r="AF6">
-        <v>0.002100939358184305</v>
+        <v>0.001761156249130666</v>
       </c>
       <c r="AG6">
-        <v>0.00210325789407234</v>
+        <v>0.001761156249130666</v>
       </c>
       <c r="AH6">
-        <v>0.002136462605468847</v>
+        <v>0.001780923333009125</v>
       </c>
       <c r="AI6">
-        <v>0.002141935505904555</v>
+        <v>0.001780923333009125</v>
       </c>
       <c r="AJ6">
-        <v>0.002280127459231112</v>
+        <v>0.001905942215951826</v>
       </c>
       <c r="AK6">
-        <v>0.002314136531588776</v>
+        <v>0.001926515687698966</v>
       </c>
       <c r="AL6">
-        <v>0.002368196860978143</v>
+        <v>0.001967190943599008</v>
       </c>
       <c r="AM6">
-        <v>0.002605585099514401</v>
+        <v>0.002191656076265718</v>
       </c>
       <c r="AN6">
-        <v>0.00265732403701587</v>
+        <v>0.002230004090607236</v>
       </c>
       <c r="AO6">
-        <v>0.002657871363459439</v>
+        <v>0.002230004090607236</v>
       </c>
       <c r="AP6">
-        <v>0.002706419761114983</v>
+        <v>0.002265153525268058</v>
       </c>
       <c r="AQ6">
-        <v>0.002822205705523551</v>
+        <v>0.002367709938437155</v>
       </c>
       <c r="AR6">
-        <v>0.002907574897400978</v>
+        <v>0.002439772951963202</v>
       </c>
       <c r="AS6">
-        <v>0.002944262627629287</v>
+        <v>0.002463031831525426</v>
       </c>
       <c r="AT6">
-        <v>0.002969885662391922</v>
+        <v>0.002475198133718715</v>
       </c>
       <c r="AU6">
-        <v>0.003027025762632563</v>
+        <v>0.002518960921178241</v>
       </c>
       <c r="AV6">
-        <v>0.003059733577053066</v>
+        <v>0.002538229855951031</v>
       </c>
       <c r="AW6">
-        <v>0.003122097324041452</v>
+        <v>0.002587229453214957</v>
       </c>
       <c r="AX6">
-        <v>0.003219485313338477</v>
+        <v>0.002671341550303409</v>
       </c>
       <c r="AY6">
-        <v>0.003222707064182896</v>
+        <v>0.002671341550303409</v>
       </c>
       <c r="AZ6">
-        <v>0.003274393343686908</v>
+        <v>0.002709636773954691</v>
       </c>
       <c r="BA6">
-        <v>0.003282797758281049</v>
+        <v>0.002709636773954691</v>
       </c>
       <c r="BB6">
-        <v>0.003311916990874849</v>
+        <v>0.002725308084040842</v>
       </c>
       <c r="BC6">
-        <v>0.003436891134839709</v>
+        <v>0.002837075850091323</v>
       </c>
       <c r="BD6">
-        <v>0.003493551109103536</v>
+        <v>0.002880357301705576</v>
       </c>
       <c r="BE6">
-        <v>0.003525682704551865</v>
+        <v>0.002899048565493195</v>
       </c>
       <c r="BF6">
-        <v>0.003637385805157599</v>
+        <v>0.002997511846509787</v>
       </c>
       <c r="BG6">
-        <v>0.003648795479606612</v>
+        <v>0.002997511846509787</v>
       </c>
       <c r="BH6">
-        <v>0.003651171546891869</v>
+        <v>0.002997511846509787</v>
       </c>
       <c r="BI6">
-        <v>0.003714519239832739</v>
+        <v>0.003047497869169571</v>
       </c>
       <c r="BJ6">
-        <v>0.003840545093746811</v>
+        <v>0.003160319995370993</v>
       </c>
       <c r="BK6">
-        <v>0.003941035088894037</v>
+        <v>0.003247541915047783</v>
       </c>
       <c r="BL6">
-        <v>0.00412500947000971</v>
+        <v>0.003418458592824867</v>
       </c>
       <c r="BM6">
-        <v>0.00424998361397457</v>
+        <v>0.003530226358875348</v>
       </c>
       <c r="BN6">
-        <v>0.00428527580827027</v>
+        <v>0.003552086185896848</v>
       </c>
       <c r="BO6">
-        <v>0.004298394018136777</v>
+        <v>0.003552086185896848</v>
       </c>
       <c r="BP6">
-        <v>0.004307771656683921</v>
+        <v>0.003552086185896848</v>
       </c>
       <c r="BQ6">
-        <v>0.004351351977579379</v>
+        <v>0.003582255024751213</v>
       </c>
       <c r="BR6">
-        <v>0.004408067084840543</v>
+        <v>0.003625591748292331</v>
       </c>
       <c r="BS6">
-        <v>0.00443622078648097</v>
+        <v>0.003640295094385652</v>
       </c>
       <c r="BT6">
-        <v>0.004471556494774569</v>
+        <v>0.003662198545055884</v>
       </c>
       <c r="BU6">
-        <v>0.004595774038775966</v>
+        <v>0.003773207804588217</v>
       </c>
       <c r="BV6">
-        <v>0.004709548443281674</v>
+        <v>0.003873747608979204</v>
       </c>
       <c r="BW6">
-        <v>0.004861300855953381</v>
+        <v>0.004012361122240563</v>
       </c>
       <c r="BX6">
-        <v>0.005068203905961802</v>
+        <v>0.004206264246815803</v>
       </c>
       <c r="BY6">
-        <v>0.005108026490038726</v>
+        <v>0.004232665879738382</v>
       </c>
       <c r="BZ6">
-        <v>0.005158423695604988</v>
+        <v>0.00426966878111716</v>
       </c>
       <c r="CA6">
-        <v>0.005247120831321705</v>
+        <v>0.004345068124561308</v>
       </c>
       <c r="CB6">
-        <v>0.005327028897462856</v>
+        <v>0.004411656250871612</v>
       </c>
       <c r="CC6">
-        <v>0.005588124154854276</v>
+        <v>0.004659888141661353</v>
       </c>
       <c r="CD6">
-        <v>0.005770926346026556</v>
+        <v>0.004829629675696025</v>
       </c>
       <c r="CE6">
-        <v>0.005784900659351721</v>
+        <v>0.004830117902862742</v>
       </c>
       <c r="CF6">
-        <v>0.005790373559787428</v>
+        <v>0.004830117902862742</v>
       </c>
       <c r="CG6">
-        <v>0.005803833994137408</v>
+        <v>0.004830117902862742</v>
       </c>
       <c r="CH6">
-        <v>0.005885363150200274</v>
+        <v>0.004898331204075909</v>
       </c>
       <c r="CI6">
-        <v>0.00588634977315263</v>
+        <v>0.004898331204075909</v>
       </c>
       <c r="CJ6">
-        <v>0.005940632590531252</v>
+        <v>0.00493922950861223</v>
       </c>
       <c r="CK6">
-        <v>0.006097424462959598</v>
+        <v>0.005082895180554465</v>
       </c>
       <c r="CL6">
-        <v>0.006317664092323982</v>
+        <v>0.005290168491304452</v>
       </c>
       <c r="CM6">
-        <v>0.01252272529267469</v>
+        <v>0.01149734451256176</v>
       </c>
       <c r="CN6">
-        <v>0.09283338141438389</v>
+        <v>0.0919968539908281</v>
       </c>
       <c r="CO6">
-        <v>0.174970813447876</v>
+        <v>0.1743277426697261</v>
       </c>
       <c r="CP6">
-        <v>0.241370570241358</v>
+        <v>0.2408812987732672</v>
       </c>
       <c r="CQ6">
-        <v>0.2419020988156899</v>
+        <v>0.2414006454453545</v>
       </c>
       <c r="CR6">
-        <v>0.243046966860403</v>
+        <v>0.2425348771406881</v>
       </c>
       <c r="CS6">
-        <v>0.2490720121694469</v>
+        <v>0.2485615836489657</v>
       </c>
       <c r="CT6">
-        <v>0.3211653886879776</v>
+        <v>0.3208231068181462</v>
       </c>
       <c r="CU6">
-        <v>0.3307820132235801</v>
+        <v>0.3304504429660606</v>
       </c>
       <c r="CV6">
-        <v>0.3361162994659815</v>
+        <v>0.3357846497653498</v>
       </c>
       <c r="CW6">
-        <v>0.3397610648899718</v>
+        <v>0.3394250783262055</v>
       </c>
       <c r="CX6">
-        <v>0.3398638261850093</v>
+        <v>0.3395145772692165</v>
       </c>
       <c r="CY6">
-        <v>0.3411791483214909</v>
+        <v>0.3408196925832326</v>
       </c>
       <c r="CZ6">
-        <v>0.3488579349506738</v>
+        <v>0.3485043076709877</v>
       </c>
       <c r="DA6">
-        <v>0.3489082801882425</v>
+        <v>0.3485412584734149</v>
       </c>
       <c r="DB6">
-        <v>0.3527076784047654</v>
+        <v>0.3523367094856579</v>
       </c>
       <c r="DC6">
-        <v>0.3616345019736792</v>
+        <v>0.3612725064388517</v>
       </c>
       <c r="DD6">
-        <v>0.3639432283621882</v>
+        <v>0.363573529282219</v>
       </c>
       <c r="DE6">
-        <v>0.3646771890267445</v>
+        <v>0.3642958181527369</v>
       </c>
       <c r="DF6">
-        <v>0.3753785405099643</v>
+        <v>0.3750106146494645</v>
       </c>
       <c r="DG6">
-        <v>0.4079939189349314</v>
+        <v>0.4076946591991882</v>
       </c>
       <c r="DH6">
-        <v>0.4079948214551878</v>
+        <v>0.4076946591991882</v>
       </c>
       <c r="DI6">
-        <v>0.4105655480310446</v>
+        <v>0.4102583424436344</v>
       </c>
       <c r="DJ6">
-        <v>0.4110775165763211</v>
+        <v>0.4107580797973894</v>
       </c>
       <c r="DK6">
-        <v>0.4111518199827329</v>
+        <v>0.4108190491407999</v>
       </c>
       <c r="DL6">
-        <v>0.4120598415388835</v>
+        <v>0.4117158375185935</v>
       </c>
       <c r="DM6">
-        <v>0.4135746461657319</v>
+        <v>0.4132209379984921</v>
       </c>
       <c r="DN6">
-        <v>0.4142441587934004</v>
+        <v>0.4138786164296471</v>
       </c>
       <c r="DO6">
-        <v>0.414256342215812</v>
+        <v>0.4138786164296471</v>
       </c>
       <c r="DP6">
-        <v>0.4178165882438838</v>
+        <v>0.4174343126143331</v>
       </c>
       <c r="DQ6">
-        <v>0.4227923400035992</v>
+        <v>0.4224090814606336</v>
       </c>
       <c r="DR6">
-        <v>0.4332918924965642</v>
+        <v>0.4329215704542473</v>
       </c>
       <c r="DS6">
-        <v>0.4432821670141227</v>
+        <v>0.4429234981439359</v>
       </c>
       <c r="DT6">
-        <v>0.4432852224623752</v>
+        <v>0.4429234981439359</v>
       </c>
       <c r="DU6">
-        <v>0.444987753880158</v>
+        <v>0.4446167984671218</v>
       </c>
       <c r="DV6">
-        <v>0.460271562142086</v>
+        <v>0.4599255990659336</v>
       </c>
       <c r="DW6">
-        <v>0.4771721083259398</v>
+        <v>0.4768552116012231</v>
       </c>
       <c r="DX6">
-        <v>0.486666480867446</v>
+        <v>0.4863599876924937</v>
       </c>
       <c r="DY6">
-        <v>0.4948637814715893</v>
+        <v>0.4945644233575041</v>
       </c>
       <c r="DZ6">
-        <v>0.5128866026012472</v>
+        <v>0.5126191388569167</v>
       </c>
       <c r="EA6">
-        <v>0.5915109148043918</v>
+        <v>0.5914280550020595</v>
       </c>
       <c r="EB6">
-        <v>0.6240856132313234</v>
+        <v>0.6240713170443046</v>
       </c>
       <c r="EC6">
-        <v>0.6268197414992893</v>
+        <v>0.6267988137364466</v>
       </c>
       <c r="ED6">
-        <v>0.6273573476033277</v>
+        <v>0.627324253252995</v>
       </c>
       <c r="EE6">
-        <v>0.6273829706380903</v>
+        <v>0.6273364195551883</v>
       </c>
       <c r="EF6">
-        <v>0.6280125832076856</v>
+        <v>0.6279540973841962</v>
       </c>
       <c r="EG6">
-        <v>0.6318514327223033</v>
+        <v>0.6317890991077787</v>
       </c>
       <c r="EH6">
-        <v>0.6368232124822105</v>
+        <v>0.6367598859452369</v>
       </c>
       <c r="EI6">
-        <v>0.6648188871302683</v>
+        <v>0.6648125855360412</v>
       </c>
       <c r="EJ6">
-        <v>0.7013986153637926</v>
+        <v>0.7014709696512201</v>
       </c>
       <c r="EK6">
-        <v>0.7261160141701619</v>
+        <v>0.7262371324798106</v>
       </c>
       <c r="EL6">
-        <v>0.7307112745482517</v>
+        <v>0.7308304511450384</v>
       </c>
       <c r="EM6">
-        <v>0.7337008576038814</v>
+        <v>0.7338140463448363</v>
       </c>
       <c r="EN6">
-        <v>0.7446385190756896</v>
+        <v>0.7447657483072045</v>
       </c>
       <c r="EO6">
-        <v>0.7462819191963279</v>
+        <v>0.7463997683284124</v>
       </c>
       <c r="EP6">
-        <v>0.7509492313709383</v>
+        <v>0.7510653203533341</v>
       </c>
       <c r="EQ6">
-        <v>0.7712584683901826</v>
+        <v>0.7714122132770128</v>
       </c>
       <c r="ER6">
-        <v>0.7855007627024064</v>
+        <v>0.7856768754172688</v>
       </c>
       <c r="ES6">
-        <v>0.7952344587323554</v>
+        <v>0.7954215780677466</v>
       </c>
       <c r="ET6">
-        <v>0.8092446710557867</v>
+        <v>0.8094535733962858</v>
       </c>
       <c r="EU6">
-        <v>0.818107746627779</v>
+        <v>0.8183254617141122</v>
       </c>
       <c r="EV6">
-        <v>0.8181790067643377</v>
+        <v>0.8183833801189403</v>
       </c>
       <c r="EW6">
-        <v>0.8222396758682435</v>
+        <v>0.822440760394536</v>
       </c>
       <c r="EX6">
-        <v>0.8274322981174861</v>
+        <v>0.8276329462218623</v>
       </c>
       <c r="EY6">
-        <v>0.8308472955525721</v>
+        <v>0.831043027801933</v>
       </c>
       <c r="EZ6">
-        <v>0.8404289680898624</v>
+        <v>0.8406353238760669</v>
       </c>
       <c r="FA6">
-        <v>0.8491049816708881</v>
+        <v>0.8493196788258019</v>
       </c>
       <c r="FB6">
-        <v>0.850895872584404</v>
+        <v>0.8511015613016317</v>
       </c>
       <c r="FC6">
-        <v>0.8601387471380554</v>
+        <v>0.860354205655787</v>
       </c>
       <c r="FD6">
-        <v>0.879206240217265</v>
+        <v>0.8794562255714401</v>
       </c>
       <c r="FE6">
-        <v>0.8869718295422561</v>
+        <v>0.8872278620889373</v>
       </c>
       <c r="FF6">
-        <v>0.8879484268950951</v>
+        <v>0.8881933990674279</v>
       </c>
       <c r="FG6">
-        <v>0.8883711971746791</v>
+        <v>0.8886037133849648</v>
       </c>
       <c r="FH6">
-        <v>0.8982984976952787</v>
+        <v>0.8985425083896496</v>
       </c>
       <c r="FI6">
-        <v>0.9189516736979139</v>
+        <v>0.9192342069878533</v>
       </c>
       <c r="FJ6">
-        <v>0.9234222814820232</v>
+        <v>0.9237025589472865</v>
       </c>
       <c r="FK6">
-        <v>0.9239466443567012</v>
+        <v>0.924214721862888</v>
       </c>
       <c r="FL6">
-        <v>0.9258459093649836</v>
+        <v>0.926105251525142</v>
       </c>
       <c r="FM6">
-        <v>0.9265014072333289</v>
+        <v>0.9267488798812107</v>
       </c>
       <c r="FN6">
-        <v>0.9278780320668502</v>
+        <v>0.9281154523688061</v>
       </c>
       <c r="FO6">
-        <v>0.9398606174881978</v>
+        <v>0.9401147113824171</v>
       </c>
       <c r="FP6">
-        <v>0.9431682746284674</v>
+        <v>0.9434171821810839</v>
       </c>
       <c r="FQ6">
-        <v>0.9432819709629769</v>
+        <v>0.9435176437187502</v>
       </c>
       <c r="FR6">
-        <v>0.9439253203019089</v>
+        <v>0.9441490929323514</v>
       </c>
       <c r="FS6">
-        <v>0.9451356507434607</v>
+        <v>0.9453489519830823</v>
       </c>
       <c r="FT6">
-        <v>0.949336294840607</v>
+        <v>0.949546659974615</v>
       </c>
       <c r="FU6">
-        <v>0.9501733405001851</v>
+        <v>0.9503722936038208</v>
       </c>
       <c r="FV6">
-        <v>0.950236688193126</v>
+        <v>0.9504222796264806</v>
       </c>
       <c r="FW6">
-        <v>0.9516558599245927</v>
+        <v>0.9518315062258618</v>
       </c>
       <c r="FX6">
-        <v>0.9530496822572835</v>
+        <v>0.9532153195485694</v>
       </c>
       <c r="FY6">
-        <v>0.9543430407948258</v>
+        <v>0.9544984159176185</v>
       </c>
       <c r="FZ6">
-        <v>0.9553038600484267</v>
+        <v>0.9554481350376712</v>
       </c>
       <c r="GA6">
-        <v>0.9561782520562013</v>
+        <v>0.9563112091240593</v>
       </c>
       <c r="GB6">
-        <v>0.9575117565918049</v>
+        <v>0.9576345526549874</v>
       </c>
       <c r="GC6">
-        <v>0.9576413911755447</v>
+        <v>0.9577509926046455</v>
       </c>
       <c r="GD6">
-        <v>0.9602930824474916</v>
+        <v>0.9603958445679524</v>
       </c>
       <c r="GE6">
-        <v>0.9657367925846088</v>
+        <v>0.9658397509990038</v>
       </c>
       <c r="GF6">
-        <v>0.9709692550319273</v>
+        <v>0.9710718774176391</v>
       </c>
       <c r="GG6">
-        <v>0.974494175561705</v>
+        <v>0.9745921590873808</v>
       </c>
       <c r="GH6">
-        <v>0.9754234749168281</v>
+        <v>0.9755102788820286</v>
       </c>
       <c r="GI6">
-        <v>0.9760570464862323</v>
+        <v>0.9761319256871207</v>
       </c>
       <c r="GJ6">
-        <v>0.9780482244900761</v>
+        <v>0.9781145999563038</v>
       </c>
       <c r="GK6">
-        <v>0.9783779399741538</v>
+        <v>0.9784316249897473</v>
       </c>
       <c r="GL6">
-        <v>0.9787140307879236</v>
+        <v>0.9787550414180631</v>
       </c>
       <c r="GM6">
-        <v>0.9813866575588596</v>
+        <v>0.9814208816356796</v>
       </c>
       <c r="GN6">
-        <v>0.9875165185628417</v>
+        <v>0.9875526679637489</v>
       </c>
       <c r="GO6">
-        <v>0.9930138472973696</v>
+        <v>0.9930503281056038</v>
       </c>
       <c r="GP6">
-        <v>0.9956026931723514</v>
+        <v>0.9956321763079594</v>
       </c>
       <c r="GQ6">
-        <v>0.9979110682608774</v>
+        <v>0.9979328469661036</v>
       </c>
       <c r="GR6">
-        <v>0.999058866805449</v>
+        <v>0.9990700165458563</v>
       </c>
       <c r="GS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>128</v>
       </c>
       <c r="E2">
-        <v>0.008441812073723569</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="F2">
-        <v>0.5179725647211256</v>
+        <v>0.5172009439717737</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>0.004705503334542409</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="F3">
-        <v>0.5569833561621805</v>
+        <v>0.5568276484886766</v>
       </c>
       <c r="G3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>130</v>
       </c>
       <c r="E4">
-        <v>0.005337774033308033</v>
+        <v>0.004297646273515672</v>
       </c>
       <c r="F4">
-        <v>0.550765826740669</v>
+        <v>0.5505536758239862</v>
       </c>
       <c r="G4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>130</v>
       </c>
       <c r="E5">
-        <v>0.006026037585510682</v>
+        <v>0.004884656897810141</v>
       </c>
       <c r="F5">
-        <v>0.5321082614000309</v>
+        <v>0.5318821985958253</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>129</v>
       </c>
       <c r="E6">
-        <v>0.005940632590531252</v>
+        <v>0.005290168491304452</v>
       </c>
       <c r="F6">
-        <v>0.5128866026012472</v>
+        <v>0.5126191388569167</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>140</v>
       </c>
       <c r="E2">
-        <v>0.008441812073723569</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="F2">
-        <v>0.7231067219592636</v>
+        <v>0.7256653610266763</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>140</v>
       </c>
       <c r="E3">
-        <v>0.004705503334542409</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="F3">
-        <v>0.720212790804176</v>
+        <v>0.7204409706683977</v>
       </c>
       <c r="G3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>141</v>
       </c>
       <c r="E4">
-        <v>0.005337774033308033</v>
+        <v>0.004297646273515672</v>
       </c>
       <c r="F4">
-        <v>0.7034637045612355</v>
+        <v>0.7035478670978342</v>
       </c>
       <c r="G4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>140</v>
       </c>
       <c r="E5">
-        <v>0.006026037585510682</v>
+        <v>0.004884656897810141</v>
       </c>
       <c r="F5">
-        <v>0.7095630021689322</v>
+        <v>0.7097088840703439</v>
       </c>
       <c r="G5">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>139</v>
       </c>
       <c r="E6">
-        <v>0.005940632590531252</v>
+        <v>0.005290168491304452</v>
       </c>
       <c r="F6">
-        <v>0.7013986153637926</v>
+        <v>0.7014709696512201</v>
       </c>
       <c r="G6">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>149</v>
       </c>
       <c r="E2">
-        <v>0.008441812073723569</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="F2">
-        <v>0.8099808876985989</v>
+        <v>0.8132060772561738</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>150</v>
       </c>
       <c r="E3">
-        <v>0.004705503334542409</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="F3">
-        <v>0.8076400705167959</v>
+        <v>0.8079716165443258</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.005337774033308033</v>
+        <v>0.004297646273515672</v>
       </c>
       <c r="F4">
-        <v>0.8112933141246061</v>
+        <v>0.8115541183331227</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>150</v>
       </c>
       <c r="E5">
-        <v>0.006026037585510682</v>
+        <v>0.004884656897810141</v>
       </c>
       <c r="F5">
-        <v>0.8071372237932151</v>
+        <v>0.8074085960253845</v>
       </c>
       <c r="G5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>149</v>
       </c>
       <c r="E6">
-        <v>0.005940632590531252</v>
+        <v>0.005290168491304452</v>
       </c>
       <c r="F6">
-        <v>0.8092446710557867</v>
+        <v>0.8094535733962858</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>164</v>
       </c>
       <c r="E2">
-        <v>0.008441812073723569</v>
+        <v>0.001282649778627135</v>
       </c>
       <c r="F2">
-        <v>0.9023100645601745</v>
+        <v>0.9055302769894662</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>165</v>
       </c>
       <c r="E3">
-        <v>0.004705503334542409</v>
+        <v>0.003447900032478041</v>
       </c>
       <c r="F3">
-        <v>0.9049918317004615</v>
+        <v>0.9053613162896333</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>164</v>
       </c>
       <c r="E4">
-        <v>0.005337774033308033</v>
+        <v>0.004297646273515672</v>
       </c>
       <c r="F4">
-        <v>0.9000839259122227</v>
+        <v>0.9003780163010658</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>165</v>
       </c>
       <c r="E5">
-        <v>0.006026037585510682</v>
+        <v>0.004884656897810141</v>
       </c>
       <c r="F5">
-        <v>0.9028302784984203</v>
+        <v>0.903141867856908</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>164</v>
       </c>
       <c r="E6">
-        <v>0.005940632590531252</v>
+        <v>0.005290168491304452</v>
       </c>
       <c r="F6">
-        <v>0.9189516736979139</v>
+        <v>0.9192342069878533</v>
       </c>
       <c r="G6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>10</v>

--- a/on_trucks/Processed_Stand_Alone/10_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/10_245-70R19.xlsx
@@ -2009,22 +2009,22 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.139815592735797E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5.600123037370532E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.297046939815336E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.577348346938293E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.650805307844023E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -2057,22 +2057,22 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>2.784315546879364E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>7.653809309124626E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001784091840304756</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>9.740714429353906E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>3.705622364277343E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>6.488194618109547E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -2120,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>2.206619778311755E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>9.591368910777515E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         <v>0</v>
       </c>
       <c r="BE2">
-        <v>7.739001233861765E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>8.686240303532024E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0001275416956152188</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0001613240722741113</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>8.167268518672719E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>4.968321680129604E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="BX2">
-        <v>4.436771964236893E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>3.575701964760276E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
         <v>0</v>
@@ -2264,70 +2264,70 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.07340800180082933</v>
+        <v>0.2334313852808811</v>
       </c>
       <c r="CO2">
-        <v>0.0136739078043968</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.107165429498475</v>
+        <v>0.4173714034485117</v>
       </c>
       <c r="CQ2">
-        <v>0.003296084294787704</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.004376127469759353</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.01107274352639979</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.03810991685115407</v>
+        <v>0.04109651767547214</v>
       </c>
       <c r="CU2">
-        <v>0.002183450963040245</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.01097517340161879</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.03614423512617438</v>
+        <v>0.03038576283233103</v>
       </c>
       <c r="CX2">
-        <v>0.007237841438164127</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.0003979239275429808</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.0005421342394669978</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.02934056284943758</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.007910766381889218</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.007930660612708577</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.02735569670684751</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.0006266431968886824</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.004821922531655173</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.03573084216664576</v>
+        <v>0.02813323609459715</v>
       </c>
       <c r="DH2">
-        <v>0.009797594312199736</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.01197155346454553</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
         <v>0</v>
@@ -2336,262 +2336,262 @@
         <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.002824859483304046</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.0003868693806159302</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.0003089819049593726</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.0003678536588720874</v>
+        <v>0</v>
       </c>
       <c r="DP2">
         <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.0004064520720620718</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.001977904114366479</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.009549736348276324</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.000901746782615881</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.007711567496193677</v>
+        <v>0</v>
       </c>
       <c r="DV2">
         <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.0250459829615672</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>1.080083735726448E-05</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.02235632658832902</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.002201364067295695</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.03539098401189572</v>
+        <v>0.02628139134744837</v>
       </c>
       <c r="EB2">
-        <v>0.06174987806601308</v>
+        <v>0.1699077213693638</v>
       </c>
       <c r="EC2">
         <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.0004967072900527329</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0009875681160354313</v>
+        <v>0</v>
       </c>
       <c r="EF2">
         <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.004722834451353692</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.005074998083582178</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.02848047511672488</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.04036654107515398</v>
+        <v>0.05339258195139469</v>
       </c>
       <c r="EK2">
-        <v>0.02899306677679534</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.01941494463980081</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.001080910908816347</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.006536692969225245</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.002639430154453328</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.001798098800476526</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.01501969009058898</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.01735993297368537</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.008854823071126191</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.01483619262132475</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.01380763538385289</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.003287957394462671</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.0001864219713834871</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.004945699922917128</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.003287389031764753</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.002919305098425651</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.006805690665933537</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.00247313198161579</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.0009750903577752446</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.01208149666806297</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.01272015340742169</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.001702162680042233</v>
+        <v>0</v>
       </c>
       <c r="FG2">
         <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.007657662150640638</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.01947440301899372</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.01259283975338345</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.001291215349660881</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.0002241411380296855</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0008512916618744064</v>
+        <v>0</v>
       </c>
       <c r="FN2">
         <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.004562464806416351</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.006475707416158495</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
         <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.001974068357532035</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.002644775365437929</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.006798765634034774</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.003315058124236818</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0006835052370994473</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.001095572494988285</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.001390503570656493</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.002106417895586467</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.001138079961164567</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0001464466742073245</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.000556873024227046</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.0002299383043944567</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.001554031628308378</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.007079276439536863</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.007963914286074245</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.00515405847179283</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.002667310552069709</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0004654316704665215</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.003605210917652264</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.001707359577963835</v>
+        <v>0</v>
       </c>
       <c r="GL2">
         <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0003778486687487968</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.00444655087542554</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.00641870316748318</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.002344146732834347</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.001726116059125874</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0001848787166043321</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0006972204773577304</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2773,46 +2773,46 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.032485533775472E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.447870763701863E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001076257473329731</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.727758073670389E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.534429181411959E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.000159337094483049</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001358236708652969</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3.503815518411039E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001372101095213804</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.157932039632015E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.724873436030354E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4.588281182220688E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>9.788160579223702E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2824,34 +2824,34 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.134480210336472E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>9.942646261288796E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0001667465662478824</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0001313492063975496</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>6.688891534267699E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.000110321478187007</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0001946770761534124</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0001351907046470185</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0001740867587272123</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0002041983920710056</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -2866,43 +2866,43 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.285090707801947E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.439239325672363E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>5.819147904406027E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.69733469357649E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>9.304470951194366E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.442708834782992E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0001289835355462363</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0001126826434764444</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>7.028678131924427E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>9.877098363721858E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1.534612336965629E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.109722298348374E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>2.105397085067133E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -2938,31 +2938,31 @@
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>1.999928604774195E-06</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>8.57915837546011E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0001291756591268058</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>7.513255827272281E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>8.105860640256309E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>4.003085660377632E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>1.570399041583856E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>4.511339832516783E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1.636900332099186E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -2977,28 +2977,28 @@
         <v>0</v>
       </c>
       <c r="BT3">
-        <v>7.606218312788654E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>5.90760904260328E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>3.724873436030354E-06</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>5.518374154225203E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>2.69733469357649E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>5.947072947999721E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>2.238348188297296E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
         <v>0</v>
@@ -3034,73 +3034,73 @@
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>7.8402699096103E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1004469361887816</v>
+        <v>0.3082630596480259</v>
       </c>
       <c r="CO3">
-        <v>0.03699603047586666</v>
+        <v>0.03028185350698261</v>
       </c>
       <c r="CP3">
-        <v>0.1097276049289078</v>
+        <v>0.3489220772174261</v>
       </c>
       <c r="CQ3">
-        <v>0.002916072634167562</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.0005891946405017043</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.005721993275538058</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.04350432162984233</v>
+        <v>0.05879496304532281</v>
       </c>
       <c r="CU3">
-        <v>0.006954815351369575</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.01332840224684708</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.00829269428578323</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.0003127944246972741</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.0005069835796069711</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.004965925172498115</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.006952427102535588</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.01295963354716378</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.0004427711345939079</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.009279783618983574</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.001262543166269136</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>8.970239139355044E-05</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.02597477788848525</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.00295947173142424</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.006075458116831793</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
         <v>0</v>
@@ -3109,262 +3109,262 @@
         <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.001140938251932207</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.001009680999135562</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>5.027061296125732E-05</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.0002231691155400394</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0009863420882718927</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.002623802053301632</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.007290127494593213</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.01163411731259665</v>
+        <v>0</v>
       </c>
       <c r="DT3">
         <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.008926219434566071</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.001669155675658753</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.02358525967013851</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.003666145530208068</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.0186642388298668</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.01117616608308302</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.06039537507316002</v>
+        <v>0.1327954104212941</v>
       </c>
       <c r="EB3">
-        <v>0.04567992500220835</v>
+        <v>0.06832637702184118</v>
       </c>
       <c r="EC3">
-        <v>0.0003812094450933915</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.0007908550907101262</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.0005098931289742596</v>
+        <v>0</v>
       </c>
       <c r="EF3">
         <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.004481039112080224</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.009508380174497939</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.03390444737759934</v>
+        <v>0.01673749210054346</v>
       </c>
       <c r="EJ3">
-        <v>0.03693332188505424</v>
+        <v>0.03000712441504008</v>
       </c>
       <c r="EK3">
-        <v>0.03142425096350332</v>
+        <v>0.005871642623523789</v>
       </c>
       <c r="EL3">
-        <v>0.01206640138967325</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.00011724255306529</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.007928361908828955</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.0008708206859333039</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.002047887687883128</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.01702911523448419</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.01617468007895519</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.01022393464646698</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.01169812338481342</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.009374078305824318</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.001537634712024472</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.00340356760557011</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.007066333526860136</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.003103077735891445</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.00427815034937171</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.004754240128086303</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0009260949390959664</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.002676491037136161</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.01344647004424496</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.009712861939317358</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.0007664252117236378</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.0003604880148131374</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.01352816521328758</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.02286780162336356</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.008961897664520872</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0007538631232034532</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.0004951992172953132</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.0008001666019780513</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0006118323595007824</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.007499533467260592</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.005190663501986515</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0005379566984576831</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.002533407135974974</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.002535647774975567</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.007806876306587136</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.00426798323290702</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0008480047814949606</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.002269534539637179</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.002484359729879326</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.002254709535173496</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.001955491257479045</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0007326079092741439</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0008949915703718713</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.0002123323461438905</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.00247517229716952</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.008095234273575502</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.008163270264833145</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.005060280769718786</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.002930503477227047</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0009595972837044839</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.004102268265725649</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.001475282652645131</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>4.037474737695028E-05</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0006344804443025726</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.004440975736157135</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.005326409257738801</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.001957462365539802</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.002388780606690892</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0008324019906147975</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.001071028187766014</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,10 +3540,10 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0002977476890487253</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.000111058622164634</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.698451870900504E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3564,22 +3564,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.728068234467081E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001499022960548978</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5.816371538367964E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.214239219954153E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0002496902554007522</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>6.708519375324712E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -3588,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>2.052688908916869E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>2.424472359283097E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2.537839802799164E-07</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -3606,34 +3606,34 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>6.410917761771216E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1.462942624175466E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>4.908391416739711E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>1.31770859521571E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.000931200127077E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0001185633598147557</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>8.420111821829566E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>5.1937567124582E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>5.96035064010062E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -3648,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>4.864028119321349E-06</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>2.925542202142259E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -3663,31 +3663,31 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>4.595131047737223E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>9.278362279909669E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>9.580085964792202E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.000106683288446041</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0001105758799165437</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0001126610592133521</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>8.666368947006433E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0001544191313192719</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>7.63266720458406E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -3696,16 +3696,16 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>2.803851073382291E-06</v>
+        <v>0</v>
       </c>
       <c r="BC4">
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>9.471858396663462E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>2.745424887526614E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -3714,37 +3714,37 @@
         <v>0</v>
       </c>
       <c r="BH4">
-        <v>1.097363696114361E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>2.856320592833902E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>7.693752500086479E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0001344651163588148</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>9.067255555024272E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0001022010647386154</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0001087571933586814</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1.043581473232085E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>4.515787669460814E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>7.032575067473971E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="BW4">
-        <v>5.23929559512967E-06</v>
+        <v>0</v>
       </c>
       <c r="BX4">
         <v>0</v>
@@ -3768,376 +3768,376 @@
         <v>0</v>
       </c>
       <c r="BZ4">
-        <v>1.227574206946617E-05</v>
+        <v>0</v>
       </c>
       <c r="CA4">
         <v>0</v>
       </c>
       <c r="CB4">
-        <v>3.292604955514726E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0001617168776956473</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0001277305976918856</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>6.430665989128832E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>8.708012349397221E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0001173553155695088</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>6.21110187122289E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0002099266860499337</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0001098845615613454</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>6.302221263518051E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>4.546593419611246E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0005884042819547312</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1013514364059502</v>
+        <v>0.3365304266558122</v>
       </c>
       <c r="CO4">
-        <v>0.05221482652927675</v>
+        <v>0.1045336221132588</v>
       </c>
       <c r="CP4">
-        <v>0.09662692778764878</v>
+        <v>0.3142238225732214</v>
       </c>
       <c r="CQ4">
-        <v>0.0004364647427969207</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.0008350621292379266</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.0005639817390556591</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.0464279810382726</v>
+        <v>0.07721123121848557</v>
       </c>
       <c r="CU4">
-        <v>0.01065439116803295</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.0150278717349577</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.005586575545697697</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>2.614252844251018E-07</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.0002628904829291672</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.005222498197093844</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.00235455034390419</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.009639410721072186</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.002111428681135752</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.005840021093840756</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.0006215159345546556</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.001869898371613091</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.02751317240791025</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.002844056520353885</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.00330261982847559</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0003458117228255086</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.0007412010153494002</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.0001678006617781467</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.0008896285537471054</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.0004522603155057463</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.000534814134857538</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.00153896731123953</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.004475089479742005</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.009293288631703148</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.009936745520907826</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0004196580163115614</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.006975228604514197</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.006318560323733437</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.02687995524742257</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.004665889373662741</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.01213512354669344</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.01295466244379598</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.05563509753563094</v>
+        <v>0.120682313407495</v>
       </c>
       <c r="EB4">
-        <v>0.02481367759610008</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.002514424722419186</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.001220376184704937</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0001813452695838216</v>
+        <v>0</v>
       </c>
       <c r="EF4">
         <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.005258179015031938</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.01408595962891421</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.03565232687719093</v>
+        <v>0.02633435268532896</v>
       </c>
       <c r="EJ4">
-        <v>0.0344132790785411</v>
+        <v>0.02048423134639814</v>
       </c>
       <c r="EK4">
-        <v>0.02809953868443716</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.006755084216924875</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.002052469670291638</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.01041082334458143</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.001258688126941171</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.005416484007295221</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.02532162070075945</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.02090276826050167</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.01384179147459751</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.01612693009940408</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.01267467555091635</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.001204553930624326</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.003890319070226776</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.005784015690792114</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.002834329154219896</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.003945418811223346</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.004189524876182397</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.001853155810817699</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.00636906535195791</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.01607529462358553</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.01345042339581119</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.001386571139461734</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0008350621292379266</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.01036914423328705</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.01663701975051536</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.003995610483788204</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>5.074010515273121E-05</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.000248690335886023</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.0001989833314427076</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0006287163641381502</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.007639387830882597</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.003469330656522208</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0004837890405562467</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.002102099328848548</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.002113398588881974</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.005516455396056805</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.002192374847531559</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0001454691961633302</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.000791560158659871</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.001385040872514518</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.001015505578485989</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0008108424450091513</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.0002145942409731231</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0004492074048603965</v>
+        <v>0</v>
       </c>
       <c r="GC4">
         <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.005243219993603905</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.01057837032268521</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.008640719953727817</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.003825355246142293</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.001762333123401268</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.001076716456986435</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.002588872068972957</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.000753626249333356</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>1.31770859521571E-05</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001924495680311642</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.006576407295162011</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.00713687127589839</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.005832347290581069</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.004680004722090444</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.002804953966943166</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.002732716760787596</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,40 +4313,40 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.658627466997722E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.261928308252536E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>7.578252877064253E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.48561126294831E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>9.247754641370427E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2.047343246755458E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0002611644491447794</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0006750860998538423</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002973688780656066</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5.641160774496074E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3.408944385962671E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -4358,91 +4358,91 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.325991652837889E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>5.571823365754778E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>5.815936182801081E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>9.885529405396472E-06</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>8.838923224120966E-06</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1.095257821076091E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>3.066507562412695E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0002435645936145042</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>3.136877333701211E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>5.048242825174778E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>7.153722367095658E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>2.160211207317772E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>5.992755853514982E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0001299910515685476</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>2.988551150150958E-06</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>4.175716521510304E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>4.554948262889286E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0002031267961605594</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>2.803762166182681E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>3.236254165437649E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>5.19631202146833E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>8.827885410800329E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>9.697417742709126E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>8.632054500912844E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
@@ -4454,10 +4454,10 @@
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>3.628946241306907E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>9.036797493651802E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
         <v>0</v>
@@ -4472,43 +4472,43 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.461886955533906E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>1.862909450873045E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0001945044524076252</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0002700082613458292</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0001062378658802209</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>3.914218446333018E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>2.899704376273245E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>5.724347007831162E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>2.535160128673567E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>4.22247696781446E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0001270597317412631</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>9.914711401744348E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -4529,19 +4529,19 @@
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>2.109843109306144E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.000267613645662069</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0002019272915892016</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.000116095704457325</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>8.436582289866102E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -4550,16 +4550,16 @@
         <v>0</v>
       </c>
       <c r="CC5">
-        <v>1.635896016203782E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>3.307850594478783E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>6.553885823299828E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>3.171709238019812E-06</v>
+        <v>0</v>
       </c>
       <c r="CG5">
         <v>0</v>
@@ -4583,334 +4583,334 @@
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.07028671679475321</v>
+        <v>0.1966412044608206</v>
       </c>
       <c r="CO5">
-        <v>0.01736479638431319</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.1102235094668679</v>
+        <v>0.3919367764126119</v>
       </c>
       <c r="CQ5">
-        <v>0.00655824732034279</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.001296163212167594</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.01453658843072084</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.03941112527464151</v>
+        <v>0.04565596248668571</v>
       </c>
       <c r="CU5">
-        <v>0.007557679789311947</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.01503101355638272</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.0124849825257059</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.0006347208446263014</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.0007238023375440928</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.001595075702948043</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.01222410134031344</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.007901129816718266</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.00182261705484292</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.01566762325132734</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.0001110049393691287</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.0004315871232509868</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.03438695519409433</v>
+        <v>0.02108718508086646</v>
       </c>
       <c r="DH5">
-        <v>0.007836489296460599</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.01130253921995799</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>2.927300815413204E-05</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.0003129840637432749</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.002797520882587406</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0021612968691424</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>5.23004074629856E-05</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0001606532624166982</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.001342737086927072</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.002225946717977298</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.005212066118688667</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.01027090690975214</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0009628825376336246</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.00774536815526889</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0006550141512951245</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0257924587488126</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.001035725084040101</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.02068763258581364</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.007067837803675822</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.04909646842796237</v>
+        <v>0.09301841961254001</v>
       </c>
       <c r="EB5">
-        <v>0.06869815036837212</v>
+        <v>0.1888729294425784</v>
       </c>
       <c r="EC5">
-        <v>0.0004108382409683897</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.001759846362630603</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.0006311113873877526</v>
+        <v>0</v>
       </c>
       <c r="EF5">
         <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.004356828276627963</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.004398382674684622</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.02458234969159281</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.0393148272746214</v>
+        <v>0.04518505404027777</v>
       </c>
       <c r="EK5">
-        <v>0.03367435119763283</v>
+        <v>0.0176024684636191</v>
       </c>
       <c r="EL5">
-        <v>0.02034862607069641</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.0006198325958526315</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.007142922619066028</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.002661880661309732</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.002042166524344952</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.01580721086507691</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.01723441798213186</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.007545365766441338</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.01165809643661925</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.01263919243350142</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.003099133846016149</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.001259054733774791</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.006107167980488332</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.003200405081082045</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.003925384588778066</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.006794802886449523</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.002136827208599596</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.001581302309430379</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.01196597058059575</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.01239921779337753</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.00127499707165298</v>
+        <v>0</v>
       </c>
       <c r="FG5">
         <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.008431513096861989</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.02227645780498249</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.01128103684943382</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.001369715031365695</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0007426372064235837</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.001027865707566891</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0002618398381365145</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.006292099601411734</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.00668675920461909</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>8.334835598283123E-05</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.002426567701813469</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.002422571058466072</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.008072983775432543</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.004539224430382099</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.0008889940571046619</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.001803585152369229</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.001958610558368098</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.003178649434670617</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.001409914679270513</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0003684261253733492</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0008847378486034131</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0003319944001513174</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.002333509225775569</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.008103930076565017</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.007489202214592683</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.005597628352947318</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.003178649434670617</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.000882916769897159</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.003900033126918453</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.002148103753251598</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0001696689009919597</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0005134172021322853</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.003980167511196103</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.006350051230870838</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.002790016393278213</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.002715523390852308</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.00108215802706825</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.00087263236457226</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,43 +5086,43 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>6.424977883688728E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002209976671371733</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001432864086579618</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>8.31855181175302E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0002169844498519535</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001421115556463062</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.709659350907222E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.440784350128513E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.568376317924753E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.635531750805107E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.452497391042397E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4.545591416030908E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5140,31 +5140,31 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2.954973973893123E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.417905929013623E-06</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>1.742360250089329E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>3.470583967780537E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>2.888729467276363E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>8.145737039084358E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0003541072201071518</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0001673596370989924</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>4.427758841989468E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -5182,79 +5182,79 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>1.976708387845889E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0001250188829427006</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>2.057347174714081E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>4.067525590004149E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0002244651326667099</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>3.834801434151831E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3.514943466082216E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0001025564131690967</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>7.206301352604793E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.325887956222356E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>1.216630219328923E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>4.376278745952583E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1.926893477279061E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>4.899959726392549E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>8.411209708845155E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>3.829522365128214E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>1.567131008615076E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0001117677660504811</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>4.328145161425391E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>1.869126378761849E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>9.846328101659203E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="BI6">
-        <v>4.998602265978395E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0001128221262014226</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>8.722191967679004E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0001709166777770838</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0001117677660504811</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>2.185982702150007E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
         <v>0</v>
@@ -5287,49 +5287,49 @@
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>3.016883885436503E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>4.333672354111764E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>1.470334609332127E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>2.19034506702322E-05</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0001110092595323322</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0001005398043909878</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0001386135132613591</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0001939031245752393</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>2.640163292257917E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>3.700290137877852E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>7.539934344414788E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>6.658812631030345E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0002482318907897414</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0001697415340346718</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>4.8822716671755E-07</v>
+        <v>0</v>
       </c>
       <c r="CF6">
         <v>0</v>
@@ -5338,352 +5338,352 @@
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>6.82133012131662E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
         <v>0</v>
       </c>
       <c r="CJ6">
-        <v>4.089830453632209E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0001436656719422347</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0002072733107499866</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.006207176021257306</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.08049950947826635</v>
+        <v>0.2084678372470799</v>
       </c>
       <c r="CO6">
-        <v>0.082330888678898</v>
+        <v>0.2160372877933654</v>
       </c>
       <c r="CP6">
-        <v>0.06655355610354113</v>
+        <v>0.1508264681879704</v>
       </c>
       <c r="CQ6">
-        <v>0.0005193466720872619</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.001134231695333585</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.006026706508277614</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.07226152316918052</v>
+        <v>0.1744186190698204</v>
       </c>
       <c r="CU6">
-        <v>0.009627336147914414</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.005334206799289185</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.00364042856085574</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>8.949894301101093E-05</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.001305115314016111</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.007684615087755061</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>3.695080242723853E-05</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.003795451012243013</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.008935796953193811</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.002301022843367307</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.0007222888705178246</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.01071479649672762</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.03268404454972369</v>
+        <v>0.01083711336454446</v>
       </c>
       <c r="DH6">
         <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.002563683244446222</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.0004997373537550026</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>6.096934341047761E-05</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0008967883777936088</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.001505100479898522</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.0006576784311549921</v>
+        <v>0</v>
       </c>
       <c r="DO6">
         <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.003555696184685992</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.00497476884630049</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.01051248899361379</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.01000192768968857</v>
+        <v>0</v>
       </c>
       <c r="DT6">
         <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.001693300323185898</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.01530880059881182</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01692961253528944</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.009504776091270567</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.00820443566501047</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.01805471549941252</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.07880891614514285</v>
+        <v>0.2014802823897654</v>
       </c>
       <c r="EB6">
-        <v>0.0326432620422451</v>
+        <v>0.01066855123748403</v>
       </c>
       <c r="EC6">
-        <v>0.002727496692141974</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.0005254395165483316</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>1.216630219328923E-05</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0006176778290078457</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.003835001723582487</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.004970786837458186</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.0280526995908043</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.03665838411517897</v>
+        <v>0.02726384070997</v>
       </c>
       <c r="EK6">
-        <v>0.02476616282859045</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.00459331866522781</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.002983595199797824</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.01095170196236832</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.001634020021207817</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.004665552024921651</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0203468929236788</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.01426466214025605</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.00974470265047781</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.01403199532853912</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.008871888317826438</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>5.791840482802068E-05</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.004057380275595671</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.0051921858273264</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.00341008158007061</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.009592296074133899</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.008684354949735023</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.001781882475829798</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.009252644354155307</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.01910201991565309</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.007771636517497223</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0009655369784905071</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.0004103143175369181</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.009938795004684725</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.02069169859820378</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.004468351959433199</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0005121629156015372</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.001890529662253956</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.0006436283560686954</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.001366572487595446</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.01199925901361097</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.00330247079866689</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0001004615376663356</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0006314492136011735</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.00119985905073098</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.004197707991532609</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0008256336292058713</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>4.998602265978395E-05</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.001409226599381103</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.001383813322707613</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.001283096369049135</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0009497191200527531</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.000863074086388093</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.001323343530928073</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.0001164399496579906</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.002644851963306872</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.005443906431051369</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.005232126418635355</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.003520281669741678</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0009181197946477828</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0006216468050921061</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.001982674269183136</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.000317025033443554</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0003234164283158115</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.002665840217616554</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.00613178632806923</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.005497660141854987</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.002581848202355679</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.002300670658144169</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.001137169579752612</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.0009299834541438585</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6660,757 +6660,757 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.139815592735797E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.739938630106329E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001303698556992166</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001461433391685996</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0001461433391685996</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0001626513922470398</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001626513922470398</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001626513922470398</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001626513922470398</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001626513922470398</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001626513922470398</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001626513922470398</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001626513922470398</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001626513922470398</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001626513922470398</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001626513922470398</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001904945477158334</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0002670326408070797</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0004454418248375552</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0005428489691310942</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0005799051927738676</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0005863933873919772</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0006084595851750947</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0006180509540858722</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0006180509540858722</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0006180509540858722</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0006180509540858722</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0006180509540858722</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0006180509540858722</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0006180509540858722</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0006180509540858722</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0006180509540858722</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0006180509540858722</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0006180509540858722</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0006180509540858722</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0006954409664244899</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0007823033694598101</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0009098450650750289</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.00107116913734914</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.001152841822535867</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.001202525039337163</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.001246892758979532</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.07469065157945647</v>
+        <v>0.2334313852808811</v>
       </c>
       <c r="CO2">
-        <v>0.08836455938385326</v>
+        <v>0.2334313852808811</v>
       </c>
       <c r="CP2">
-        <v>0.1955299888823282</v>
+        <v>0.6508027887293928</v>
       </c>
       <c r="CQ2">
-        <v>0.1988260731771159</v>
+        <v>0.6508027887293928</v>
       </c>
       <c r="CR2">
-        <v>0.2032022006468753</v>
+        <v>0.6508027887293928</v>
       </c>
       <c r="CS2">
-        <v>0.2142749441732751</v>
+        <v>0.6508027887293928</v>
       </c>
       <c r="CT2">
-        <v>0.2523848610244291</v>
+        <v>0.691899306404865</v>
       </c>
       <c r="CU2">
-        <v>0.2545683119874694</v>
+        <v>0.691899306404865</v>
       </c>
       <c r="CV2">
-        <v>0.2655434853890882</v>
+        <v>0.691899306404865</v>
       </c>
       <c r="CW2">
-        <v>0.3016877205152625</v>
+        <v>0.722285069237196</v>
       </c>
       <c r="CX2">
-        <v>0.3089255619534267</v>
+        <v>0.722285069237196</v>
       </c>
       <c r="CY2">
-        <v>0.3093234858809696</v>
+        <v>0.722285069237196</v>
       </c>
       <c r="CZ2">
-        <v>0.3098656201204366</v>
+        <v>0.722285069237196</v>
       </c>
       <c r="DA2">
-        <v>0.3392061829698742</v>
+        <v>0.722285069237196</v>
       </c>
       <c r="DB2">
-        <v>0.3471169493517634</v>
+        <v>0.722285069237196</v>
       </c>
       <c r="DC2">
-        <v>0.355047609964472</v>
+        <v>0.722285069237196</v>
       </c>
       <c r="DD2">
-        <v>0.3824033066713195</v>
+        <v>0.722285069237196</v>
       </c>
       <c r="DE2">
-        <v>0.3830299498682082</v>
+        <v>0.722285069237196</v>
       </c>
       <c r="DF2">
-        <v>0.3878518723998634</v>
+        <v>0.722285069237196</v>
       </c>
       <c r="DG2">
-        <v>0.4235827145665091</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DH2">
-        <v>0.4333803088787089</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DI2">
-        <v>0.4453518623432544</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DJ2">
-        <v>0.4453518623432544</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DK2">
-        <v>0.4453518623432544</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DL2">
-        <v>0.4481767218265584</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DM2">
-        <v>0.4485635912071744</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DN2">
-        <v>0.4488725731121337</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DO2">
-        <v>0.4492404267710058</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DP2">
-        <v>0.4492404267710058</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DQ2">
-        <v>0.4496468788430679</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DR2">
-        <v>0.4516247829574344</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DS2">
-        <v>0.4611745193057107</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DT2">
-        <v>0.4620762660883266</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DU2">
-        <v>0.4697878335845203</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DV2">
-        <v>0.4697878335845203</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DW2">
-        <v>0.4948338165460875</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DX2">
-        <v>0.4948446173834448</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DY2">
-        <v>0.5172009439717737</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="DZ2">
-        <v>0.5194023080390694</v>
+        <v>0.7504183053317932</v>
       </c>
       <c r="EA2">
-        <v>0.5547932920509651</v>
+        <v>0.7766996966792415</v>
       </c>
       <c r="EB2">
-        <v>0.6165431701169781</v>
+        <v>0.9466074180486054</v>
       </c>
       <c r="EC2">
-        <v>0.6165431701169781</v>
+        <v>0.9466074180486054</v>
       </c>
       <c r="ED2">
-        <v>0.6170398774070308</v>
+        <v>0.9466074180486054</v>
       </c>
       <c r="EE2">
-        <v>0.6180274455230662</v>
+        <v>0.9466074180486054</v>
       </c>
       <c r="EF2">
-        <v>0.6180274455230662</v>
+        <v>0.9466074180486054</v>
       </c>
       <c r="EG2">
-        <v>0.6227502799744199</v>
+        <v>0.9466074180486054</v>
       </c>
       <c r="EH2">
-        <v>0.627825278058002</v>
+        <v>0.9466074180486054</v>
       </c>
       <c r="EI2">
-        <v>0.6563057531747269</v>
+        <v>0.9466074180486054</v>
       </c>
       <c r="EJ2">
-        <v>0.696672294249881</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.7256653610266763</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.7450803056664771</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.7461612165752934</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.7526979095445187</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.755337339698972</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.7571354384994485</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.7721551285900375</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.7895150615637229</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.798369884634849</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.8132060772561738</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.8270137126400267</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.8303016700344893</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.8304880920058728</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.83543379192879</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8387211809605547</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8416404860589803</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8484461767249138</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8509193087065297</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8518943990643049</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8639758957323679</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8766960491397896</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8783982118198318</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8783982118198318</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8860558739704725</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.9055302769894662</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9181231167428496</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9194143320925106</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9196384732305403</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9204897648924146</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9204897648924146</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9250522296988309</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9315279371149895</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9315279371149895</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9335020054725215</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9361467808379594</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9429455464719942</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9462606045962311</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9469441098333305</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9480396823283188</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9494301858989753</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9515366037945618</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9526746837557264</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9528211304299338</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9533780034541608</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9536079417585552</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9551619733868636</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9622412498264005</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9702051641124747</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9753592225842675</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9780265331363373</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9784919648068038</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9820971757244561</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.98380453530242</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.98380453530242</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9841823839711688</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9886289348465943</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9950476380140775</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9973917847469118</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9991179008060377</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.999302779522642</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7424,766 +7424,766 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.032485533775472E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.148035629747733E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001191061036304504</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0001463836843671543</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001917279761812739</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0003510650706643229</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0004868887415296198</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0005219268967137302</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0006591370062351106</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0006652949382747426</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0006652949382747426</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.000669019811710773</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0007149026235329799</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0007246907841122036</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0007246907841122036</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0007246907841122036</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0007246907841122036</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0007360355862155683</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0008354620488284563</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001002208615076339</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.001133557821473888</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001200446736816565</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001310768215003572</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001505445291156985</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.001640635995804003</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.001814722754531215</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002018921146602221</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002018921146602221</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.002018921146602221</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002018921146602221</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.002018921146602221</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.002031772053680241</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002046164446936964</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.00205198359484137</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.00205198359484137</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.002078956941777135</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.002172001651289079</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.002172001651289079</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.002196428739636909</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.002325412275183145</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.002438094918659589</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.002508381699978834</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.002607152683616052</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.002622498806985709</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.002622498806985709</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.002622498806985709</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.002622498806985709</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.002633596029969193</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.002633596029969193</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.002633596029969193</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.002654650000819864</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.002654650000819864</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.002654650000819864</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.002654650000819864</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.002654650000819864</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.002656649929424638</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.002742441513179239</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.002871617172306045</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.002946749730578767</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.00302780833698133</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.003067839193585106</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.003083543184000945</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.003128656582326113</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.003145025585647105</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.003145025585647105</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.003145025585647105</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.003145025585647105</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.003145025585647105</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.003221087768774991</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.003280163859201024</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.003283888732637054</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.003339072474179306</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.003366045821115071</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.003366045821115071</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.003425516550595068</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.003526302731574144</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1039732389203557</v>
+        <v>0.3082630596480259</v>
       </c>
       <c r="CO3">
-        <v>0.1409692693962224</v>
+        <v>0.3385449131550085</v>
       </c>
       <c r="CP3">
-        <v>0.2506968743251302</v>
+        <v>0.6874669903724346</v>
       </c>
       <c r="CQ3">
-        <v>0.2536129469592977</v>
+        <v>0.6874669903724346</v>
       </c>
       <c r="CR3">
-        <v>0.2542021415997994</v>
+        <v>0.6874669903724346</v>
       </c>
       <c r="CS3">
-        <v>0.2599241348753375</v>
+        <v>0.6874669903724346</v>
       </c>
       <c r="CT3">
-        <v>0.3034284565051798</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="CU3">
-        <v>0.3103832718565493</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="CV3">
-        <v>0.3237116741033964</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="CW3">
-        <v>0.3320043683891796</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="CX3">
-        <v>0.3323171628138769</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="CY3">
-        <v>0.3328241463934839</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="CZ3">
-        <v>0.337790071565982</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DA3">
-        <v>0.3447424986685176</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DB3">
-        <v>0.3577021322156814</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DC3">
-        <v>0.3581449033502753</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DD3">
-        <v>0.3674246869692588</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DE3">
-        <v>0.368687230135528</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DF3">
-        <v>0.3687769325269215</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DG3">
-        <v>0.3947517104154067</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DH3">
-        <v>0.397711182146831</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DI3">
-        <v>0.4037866402636628</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DJ3">
-        <v>0.4037866402636628</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DK3">
-        <v>0.4037866402636628</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DL3">
-        <v>0.404927578515595</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DM3">
-        <v>0.4059372595147306</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DN3">
-        <v>0.4059875301276918</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DO3">
-        <v>0.4062106992432319</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DP3">
-        <v>0.4071970413315038</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DQ3">
-        <v>0.4098208433848055</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DR3">
-        <v>0.4171109708793987</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DS3">
-        <v>0.4287450881919954</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DT3">
-        <v>0.4287450881919954</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DU3">
-        <v>0.4376713076265614</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DV3">
-        <v>0.4393404633022202</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DW3">
-        <v>0.4629257229723587</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DX3">
-        <v>0.4665918685025667</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DY3">
-        <v>0.4852561073324335</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="DZ3">
-        <v>0.4964322734155165</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="EA3">
-        <v>0.5568276484886766</v>
+        <v>0.8790573638390515</v>
       </c>
       <c r="EB3">
-        <v>0.6025075734908849</v>
+        <v>0.9473837408608927</v>
       </c>
       <c r="EC3">
-        <v>0.6028887829359783</v>
+        <v>0.9473837408608927</v>
       </c>
       <c r="ED3">
-        <v>0.6036796380266883</v>
+        <v>0.9473837408608927</v>
       </c>
       <c r="EE3">
-        <v>0.6041895311556627</v>
+        <v>0.9473837408608927</v>
       </c>
       <c r="EF3">
-        <v>0.6041895311556627</v>
+        <v>0.9473837408608927</v>
       </c>
       <c r="EG3">
-        <v>0.6086705702677428</v>
+        <v>0.9473837408608927</v>
       </c>
       <c r="EH3">
-        <v>0.6181789504422408</v>
+        <v>0.9473837408608927</v>
       </c>
       <c r="EI3">
-        <v>0.6520833978198401</v>
+        <v>0.9641212329614361</v>
       </c>
       <c r="EJ3">
-        <v>0.6890167197048944</v>
+        <v>0.9941283573764762</v>
       </c>
       <c r="EK3">
-        <v>0.7204409706683977</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.732507372058071</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.7326246146111364</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.7405529765199653</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.7414237972058986</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.7434716848937817</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7605008001282658</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.776675480207221</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.786899414853688</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.7985975382385014</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8079716165443258</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8095092512563503</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8129128188619205</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8199791523887806</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8230822301246721</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8273603804740438</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8321146206021302</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8330407155412262</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8357172065783623</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8491636766226073</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8588765385619246</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8596429637736482</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8600034517884614</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.873531617001749</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8963994186251125</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9053613162896333</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9061151794128368</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9066103786301322</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9074105452321102</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.908022377591611</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9155219110588716</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9207125745608581</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9212505312593158</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9237839383952907</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9263195861702663</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9341264624768535</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9383944457097605</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9392424504912554</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9415119850308926</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.943996344760772</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9462510542959455</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9482065455534245</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9489391534626986</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9498341450330705</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9500464773792144</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.952521649676384</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9606168839499595</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9687801542147926</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9738404349845113</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9767709384617383</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9777305357454429</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9818328040111686</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9833080866638138</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9833484614111907</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9839829418554933</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9884239175916504</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9937503268493891</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.995707789214929</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9980965698216199</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9989289718122347</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0002977476890487253</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0004088063112133593</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0004088063112133593</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0004088063112133593</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0004088063112133593</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0004257908299223643</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0004257908299223643</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0004257908299223643</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0004830715122670352</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.000632973808321933</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0006911375237056127</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0007832799159051542</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001032970171305906</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001039678690681231</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001039678690681231</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001039678690681231</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0010602055797704</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001084450303363231</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001084704087343511</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001084704087343511</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001084704087343511</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001084704087343511</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001091115005105282</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001092577947729457</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001092577947729457</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001141661861896854</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001154838947849011</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.001164848259850282</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.001283411619665038</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001367612737883333</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.001419550305007916</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.001479153811408922</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.001479153811408922</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.001479153811408922</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.001479153811408922</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.001479153811408922</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.001484017839528243</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.001513273261549666</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.001513273261549666</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.001513273261549666</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.001513273261549666</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.001559224572027038</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.001652008194826135</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.001747809054474057</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.001854492342920098</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.001965068222836641</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.002077729282049994</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.002164392971520058</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.00231881210283933</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.002395138774885171</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.002395138774885171</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.002395138774885171</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.002397942625958553</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.002397942625958553</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.002492661209925188</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.002520115458800454</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.002520115458800454</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.002520115458800454</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.002531089095761597</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.002559652301689936</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.002559652301689936</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.002636589826690801</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.002771054943049616</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.002861727498599859</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.002963928563338475</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.003072685756697156</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.003083121571429477</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.003128279448124085</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.003198605198798825</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.003198605198798825</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.003198605198798825</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.003198605198798825</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.003198605198798825</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.003203844494393955</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.003203844494393955</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.003203844494393955</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.003216120236463421</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.003216120236463421</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.003249046286018568</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.003410763163714215</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.003538493761406101</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.003602800421297389</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.003689880544791361</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.00380723586036087</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.003869346879073099</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.004079273565123033</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.004189158126684378</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.004252180339319559</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.004297646273515672</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.004886050555470403</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1062374869614206</v>
+        <v>0.3365304266558122</v>
       </c>
       <c r="CO4">
-        <v>0.1584523134906973</v>
+        <v>0.441064048769071</v>
       </c>
       <c r="CP4">
-        <v>0.2550792412783461</v>
+        <v>0.7552878713422924</v>
       </c>
       <c r="CQ4">
-        <v>0.255515706021143</v>
+        <v>0.7552878713422924</v>
       </c>
       <c r="CR4">
-        <v>0.256350768150381</v>
+        <v>0.7552878713422924</v>
       </c>
       <c r="CS4">
-        <v>0.2569147498894366</v>
+        <v>0.7552878713422924</v>
       </c>
       <c r="CT4">
-        <v>0.3033427309277092</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="CU4">
-        <v>0.3139971220957422</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="CV4">
-        <v>0.3290249938306999</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="CW4">
-        <v>0.3346115693763976</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="CX4">
-        <v>0.334611830801682</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="CY4">
-        <v>0.3348747212846112</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="CZ4">
-        <v>0.340097219481705</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DA4">
-        <v>0.3424517698256092</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DB4">
-        <v>0.3520911805466814</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DC4">
-        <v>0.3542026092278171</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DD4">
-        <v>0.3600426303216578</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DE4">
-        <v>0.3606641462562125</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DF4">
-        <v>0.3625340446278256</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DG4">
-        <v>0.3900472170357359</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DH4">
-        <v>0.3928912735560898</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DI4">
-        <v>0.3961938933845653</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DJ4">
-        <v>0.3965397051073908</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DK4">
-        <v>0.3972809061227403</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DL4">
-        <v>0.3974487067845184</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DM4">
-        <v>0.3983383353382655</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DN4">
-        <v>0.3987905956537712</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DO4">
-        <v>0.3993254097886288</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DP4">
-        <v>0.4008643770998683</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DQ4">
-        <v>0.4053394665796103</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DR4">
-        <v>0.4146327552113135</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DS4">
-        <v>0.4245695007322213</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DT4">
-        <v>0.4249891587485329</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DU4">
-        <v>0.4319643873530471</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DV4">
-        <v>0.4382829476767806</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DW4">
-        <v>0.4651629029242031</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DX4">
-        <v>0.4698287922978659</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DY4">
-        <v>0.4819639158445593</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="DZ4">
-        <v>0.4949185782883553</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="EA4">
-        <v>0.5505536758239862</v>
+        <v>0.9531814159682729</v>
       </c>
       <c r="EB4">
-        <v>0.5753673534200863</v>
+        <v>0.9531814159682729</v>
       </c>
       <c r="EC4">
-        <v>0.5778817781425054</v>
+        <v>0.9531814159682729</v>
       </c>
       <c r="ED4">
-        <v>0.5791021543272104</v>
+        <v>0.9531814159682729</v>
       </c>
       <c r="EE4">
-        <v>0.5792834995967941</v>
+        <v>0.9531814159682729</v>
       </c>
       <c r="EF4">
-        <v>0.5792834995967941</v>
+        <v>0.9531814159682729</v>
       </c>
       <c r="EG4">
-        <v>0.584541678611826</v>
+        <v>0.9531814159682729</v>
       </c>
       <c r="EH4">
-        <v>0.5986276382407403</v>
+        <v>0.9531814159682729</v>
       </c>
       <c r="EI4">
-        <v>0.6342799651179312</v>
+        <v>0.9795157686536018</v>
       </c>
       <c r="EJ4">
-        <v>0.6686932441964722</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK4">
-        <v>0.6967927828809094</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL4">
-        <v>0.7035478670978342</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM4">
-        <v>0.7056003367681258</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN4">
-        <v>0.7160111601127073</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO4">
-        <v>0.7172698482396485</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP4">
-        <v>0.7226863322469437</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ4">
-        <v>0.7480079529477032</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER4">
-        <v>0.7689107212082048</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES4">
-        <v>0.7827525126828023</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET4">
-        <v>0.7988794427822064</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU4">
-        <v>0.8115541183331227</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV4">
-        <v>0.8127586722637471</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW4">
-        <v>0.8166489913339738</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX4">
-        <v>0.822433007024766</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY4">
-        <v>0.8252673361789858</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ4">
-        <v>0.8292127549902092</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA4">
-        <v>0.8334022798663916</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB4">
-        <v>0.8352554356772093</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC4">
-        <v>0.8416245010291672</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD4">
-        <v>0.8576997956527527</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE4">
-        <v>0.8711502190485638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF4">
-        <v>0.8725367901880255</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG4">
-        <v>0.8733718523172634</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH4">
-        <v>0.8837409965505505</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI4">
-        <v>0.9003780163010658</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ4">
-        <v>0.904373626784854</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK4">
-        <v>0.9044243668900067</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL4">
-        <v>0.9046730572258928</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM4">
-        <v>0.9048720405573355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN4">
-        <v>0.9055007569214737</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO4">
-        <v>0.9131401447523563</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP4">
-        <v>0.9166094754088785</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ4">
-        <v>0.9170932644494347</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR4">
-        <v>0.9191953637782833</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS4">
-        <v>0.9213087623671652</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT4">
-        <v>0.926825217763222</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU4">
-        <v>0.9290175926107536</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV4">
-        <v>0.9291630618069169</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW4">
-        <v>0.9299546219655768</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX4">
-        <v>0.9313396628380913</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY4">
-        <v>0.9323551684165773</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ4">
-        <v>0.9331660108615865</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA4">
-        <v>0.9333806051025596</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB4">
-        <v>0.93382981250742</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC4">
-        <v>0.93382981250742</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD4">
-        <v>0.9390730325010239</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE4">
-        <v>0.9496514028237091</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF4">
-        <v>0.9582921227774369</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG4">
-        <v>0.9621174780235792</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH4">
-        <v>0.9638798111469804</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI4">
-        <v>0.9649565276039669</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ4">
-        <v>0.9675453996729398</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK4">
-        <v>0.9682990259222732</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL4">
-        <v>0.9683122030082254</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM4">
-        <v>0.970236698688537</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN4">
-        <v>0.976813105983699</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO4">
-        <v>0.9839499772595973</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP4">
-        <v>0.9897823245501783</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ4">
-        <v>0.9944623292722687</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR4">
-        <v>0.9972672832392119</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.658627466997722E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.920555775250258E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001349880865231451</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001349880865231451</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001898441991526282</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0002823217455663324</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.000302795178033887</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0005639596271786664</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001239045727032509</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001536414605098115</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001592826212843076</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001626915656702703</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001626915656702703</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001626915656702703</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001626915656702703</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001640175573231082</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001695893806888629</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.00175405316871664</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001763938698122037</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001772777621346158</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001772777621346158</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001783730199556919</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001783730199556919</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.001814395275181046</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001814395275181046</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.00205795986879555</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.002089328642132562</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.002094376884957736</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.002165914108628693</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.002187516220701871</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.002187516220701871</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.002247443779237021</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.002377434830805568</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.002377434830805568</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.002380423381955719</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.002422180547170822</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.002467730029799715</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.002670856825960275</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.002698894447622102</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.002731256989276478</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.002783220109491161</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.002871498963599165</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.002968473141026256</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.002977105195527169</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.002977105195527169</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.002977105195527169</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.002977105195527169</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.003013394657940237</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.003103762632876755</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.003103762632876755</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.003103762632876755</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.003103762632876755</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.003103762632876755</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.003118381502432094</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.003137010596940824</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.00333151504934845</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.003601523310694279</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.003707761176574499</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.00374690336103783</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.003775900404800562</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.003775900404800562</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.003781624751808393</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.003806976353095129</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.003849201122773273</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.003976260854514536</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.00407540796853198</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.00407540796853198</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.00407540796853198</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.00407540796853198</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.00407540796853198</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.00407540796853198</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.00407540796853198</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.004096506399625041</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.00436412004528711</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.004566047336876312</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.004682143041333637</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.004766508864232298</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.004766508864232298</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.004766508864232298</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.004782867824394335</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.004815946330339123</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.004881485188572121</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.004884656897810141</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.004884656897810141</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.004884656897810141</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.004884656897810141</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.004884656897810141</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.004884656897810141</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.004884656897810141</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.004884656897810141</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.07517137369256335</v>
+        <v>0.1966412044608206</v>
       </c>
       <c r="CO5">
-        <v>0.09253617007687655</v>
+        <v>0.1966412044608206</v>
       </c>
       <c r="CP5">
-        <v>0.2027596795437444</v>
+        <v>0.5885779808734325</v>
       </c>
       <c r="CQ5">
-        <v>0.2093179268640872</v>
+        <v>0.5885779808734325</v>
       </c>
       <c r="CR5">
-        <v>0.2106140900762548</v>
+        <v>0.5885779808734325</v>
       </c>
       <c r="CS5">
-        <v>0.2251506785069756</v>
+        <v>0.5885779808734325</v>
       </c>
       <c r="CT5">
-        <v>0.2645618037816171</v>
+        <v>0.6342339433601182</v>
       </c>
       <c r="CU5">
-        <v>0.2721194835709291</v>
+        <v>0.6342339433601182</v>
       </c>
       <c r="CV5">
-        <v>0.2871504971273118</v>
+        <v>0.6342339433601182</v>
       </c>
       <c r="CW5">
-        <v>0.2996354796530177</v>
+        <v>0.6342339433601182</v>
       </c>
       <c r="CX5">
-        <v>0.300270200497644</v>
+        <v>0.6342339433601182</v>
       </c>
       <c r="CY5">
-        <v>0.3009940028351881</v>
+        <v>0.6342339433601182</v>
       </c>
       <c r="CZ5">
-        <v>0.3025890785381361</v>
+        <v>0.6342339433601182</v>
       </c>
       <c r="DA5">
-        <v>0.3148131798784495</v>
+        <v>0.6342339433601182</v>
       </c>
       <c r="DB5">
-        <v>0.3227143096951678</v>
+        <v>0.6342339433601182</v>
       </c>
       <c r="DC5">
-        <v>0.3245369267500107</v>
+        <v>0.6342339433601182</v>
       </c>
       <c r="DD5">
-        <v>0.3402045500013381</v>
+        <v>0.6342339433601182</v>
       </c>
       <c r="DE5">
-        <v>0.3403155549407072</v>
+        <v>0.6342339433601182</v>
       </c>
       <c r="DF5">
-        <v>0.3407471420639582</v>
+        <v>0.6342339433601182</v>
       </c>
       <c r="DG5">
-        <v>0.3751340972580525</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DH5">
-        <v>0.3829705865545131</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DI5">
-        <v>0.3942731257744711</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DJ5">
-        <v>0.3943023987826252</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DK5">
-        <v>0.3946153828463685</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DL5">
-        <v>0.3974129037289559</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DM5">
-        <v>0.3995742005980983</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DN5">
-        <v>0.3996265010055613</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DO5">
-        <v>0.399787154267978</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DP5">
-        <v>0.4011298913549051</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DQ5">
-        <v>0.4033558380728824</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DR5">
-        <v>0.4085679041915711</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DS5">
-        <v>0.4188388111013232</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DT5">
-        <v>0.4198016936389568</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DU5">
-        <v>0.4275470617942257</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DV5">
-        <v>0.4282020759455208</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DW5">
-        <v>0.4539945346943334</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DX5">
-        <v>0.4550302597783735</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DY5">
-        <v>0.4757178923641871</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="DZ5">
-        <v>0.4827857301678629</v>
+        <v>0.6553211284409847</v>
       </c>
       <c r="EA5">
-        <v>0.5318821985958253</v>
+        <v>0.7483395480535247</v>
       </c>
       <c r="EB5">
-        <v>0.6005803489641974</v>
+        <v>0.937212477496103</v>
       </c>
       <c r="EC5">
-        <v>0.6009911872051659</v>
+        <v>0.937212477496103</v>
       </c>
       <c r="ED5">
-        <v>0.6027510335677965</v>
+        <v>0.937212477496103</v>
       </c>
       <c r="EE5">
-        <v>0.6033821449551843</v>
+        <v>0.937212477496103</v>
       </c>
       <c r="EF5">
-        <v>0.6033821449551843</v>
+        <v>0.937212477496103</v>
       </c>
       <c r="EG5">
-        <v>0.6077389732318123</v>
+        <v>0.937212477496103</v>
       </c>
       <c r="EH5">
-        <v>0.6121373559064969</v>
+        <v>0.937212477496103</v>
       </c>
       <c r="EI5">
-        <v>0.6367197055980897</v>
+        <v>0.937212477496103</v>
       </c>
       <c r="EJ5">
-        <v>0.6760345328727111</v>
+        <v>0.9823975315363808</v>
       </c>
       <c r="EK5">
-        <v>0.7097088840703439</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL5">
-        <v>0.7300575101410404</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM5">
-        <v>0.730677342736893</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN5">
-        <v>0.737820265355959</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO5">
-        <v>0.7404821460172687</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP5">
-        <v>0.7425243125416137</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ5">
-        <v>0.7583315234066905</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER5">
-        <v>0.7755659413888224</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES5">
-        <v>0.7831113071552638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET5">
-        <v>0.7947694035918831</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU5">
-        <v>0.8074085960253845</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV5">
-        <v>0.8105077298714006</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW5">
-        <v>0.8117667846051754</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX5">
-        <v>0.8178739525856638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY5">
-        <v>0.8210743576667457</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ5">
-        <v>0.8249997422555239</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA5">
-        <v>0.8317945451419734</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB5">
-        <v>0.833931372350573</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.8355126746600035</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.8474786452405992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.8598778630339767</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.8611528601056297</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.8611528601056297</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.8695843732024917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.8918608310074742</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.903141867856908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.9045115828882737</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.9052542200946972</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.9062820858022641</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.9065439256404006</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.9128360252418124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.9195227844464315</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.9196061328024143</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.9220327005042278</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.9244552715626939</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.9325282553381264</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9370674797685086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.9379564738256132</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9397600589779824</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9417186695363505</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.9448973189710211</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.9463072336502917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.946675659775665</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9475603976242685</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.9478923920244198</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.9502259012501953</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9583298313267604</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9658190335413531</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9714166618943004</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.974595311328971</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9754782280988682</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9793782612257866</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9815263649790382</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9816960338800302</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9822094510821625</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9861896185933586</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9925396698242295</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9953296862175077</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9980452096083601</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.9991273676354283</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>6.424977883688728E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002852474459740606</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0004285338546320224</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0005117193727495526</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0007287038226015062</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008708153782478123</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0008785250375987196</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0008785250375987196</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0009029328811000048</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0009029328811000048</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0009686166442792523</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0009949719617873033</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0009974244591783457</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0009974244591783457</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0009974244591783457</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.001001970050594377</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001001970050594377</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.001001970050594377</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001031519790333308</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001032937696262321</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.001032937696262321</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.001050361298763215</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.00108506713844102</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.001113954433113783</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.001195411803504627</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001549519023611779</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001716878660710771</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001716878660710771</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001716878660710771</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001761156249130666</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001761156249130666</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001761156249130666</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001780923333009125</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001780923333009125</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001905942215951826</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001926515687698966</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001967190943599008</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.002191656076265718</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.002230004090607236</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.002230004090607236</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.002265153525268058</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.002367709938437155</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.002439772951963202</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.002463031831525426</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.002475198133718715</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.002518960921178241</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.002538229855951031</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.002587229453214957</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.002671341550303409</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.002671341550303409</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.002709636773954691</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.002709636773954691</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.002725308084040842</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.002837075850091323</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.002880357301705576</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.002899048565493195</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.002997511846509787</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.002997511846509787</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.002997511846509787</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.003047497869169571</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.003160319995370993</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.003247541915047783</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.003418458592824867</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.003530226358875348</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.003552086185896848</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.003552086185896848</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.003552086185896848</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.003582255024751213</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.003625591748292331</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.003640295094385652</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.003662198545055884</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.003773207804588217</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.003873747608979204</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.004012361122240563</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.004206264246815803</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.004232665879738382</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.00426966878111716</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.004345068124561308</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.004411656250871612</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.004659888141661353</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.004829629675696025</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.004830117902862742</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.004830117902862742</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.004830117902862742</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.004898331204075909</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.004898331204075909</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.00493922950861223</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.005082895180554465</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.005290168491304452</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01149734451256176</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.0919968539908281</v>
+        <v>0.2084678372470799</v>
       </c>
       <c r="CO6">
-        <v>0.1743277426697261</v>
+        <v>0.4245051250404452</v>
       </c>
       <c r="CP6">
-        <v>0.2408812987732672</v>
+        <v>0.5753315932284156</v>
       </c>
       <c r="CQ6">
-        <v>0.2414006454453545</v>
+        <v>0.5753315932284156</v>
       </c>
       <c r="CR6">
-        <v>0.2425348771406881</v>
+        <v>0.5753315932284156</v>
       </c>
       <c r="CS6">
-        <v>0.2485615836489657</v>
+        <v>0.5753315932284156</v>
       </c>
       <c r="CT6">
-        <v>0.3208231068181462</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="CU6">
-        <v>0.3304504429660606</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="CV6">
-        <v>0.3357846497653498</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="CW6">
-        <v>0.3394250783262055</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="CX6">
-        <v>0.3395145772692165</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="CY6">
-        <v>0.3408196925832326</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="CZ6">
-        <v>0.3485043076709877</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="DA6">
-        <v>0.3485412584734149</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="DB6">
-        <v>0.3523367094856579</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="DC6">
-        <v>0.3612725064388517</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="DD6">
-        <v>0.363573529282219</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="DE6">
-        <v>0.3642958181527369</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="DF6">
-        <v>0.3750106146494645</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="DG6">
-        <v>0.4076946591991882</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DH6">
-        <v>0.4076946591991882</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DI6">
-        <v>0.4102583424436344</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DJ6">
-        <v>0.4107580797973894</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DK6">
-        <v>0.4108190491407999</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DL6">
-        <v>0.4117158375185935</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DM6">
-        <v>0.4132209379984921</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DN6">
-        <v>0.4138786164296471</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DO6">
-        <v>0.4138786164296471</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DP6">
-        <v>0.4174343126143331</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DQ6">
-        <v>0.4224090814606336</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DR6">
-        <v>0.4329215704542473</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DS6">
-        <v>0.4429234981439359</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DT6">
-        <v>0.4429234981439359</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DU6">
-        <v>0.4446167984671218</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DV6">
-        <v>0.4599255990659336</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DW6">
-        <v>0.4768552116012231</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DX6">
-        <v>0.4863599876924937</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DY6">
-        <v>0.4945644233575041</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="DZ6">
-        <v>0.5126191388569167</v>
+        <v>0.7605873256627804</v>
       </c>
       <c r="EA6">
-        <v>0.5914280550020595</v>
+        <v>0.9620676080525459</v>
       </c>
       <c r="EB6">
-        <v>0.6240713170443046</v>
+        <v>0.9727361592900299</v>
       </c>
       <c r="EC6">
-        <v>0.6267988137364466</v>
+        <v>0.9727361592900299</v>
       </c>
       <c r="ED6">
-        <v>0.627324253252995</v>
+        <v>0.9727361592900299</v>
       </c>
       <c r="EE6">
-        <v>0.6273364195551883</v>
+        <v>0.9727361592900299</v>
       </c>
       <c r="EF6">
-        <v>0.6279540973841962</v>
+        <v>0.9727361592900299</v>
       </c>
       <c r="EG6">
-        <v>0.6317890991077787</v>
+        <v>0.9727361592900299</v>
       </c>
       <c r="EH6">
-        <v>0.6367598859452369</v>
+        <v>0.9727361592900299</v>
       </c>
       <c r="EI6">
-        <v>0.6648125855360412</v>
+        <v>0.9727361592900299</v>
       </c>
       <c r="EJ6">
-        <v>0.7014709696512201</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK6">
-        <v>0.7262371324798106</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL6">
-        <v>0.7308304511450384</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM6">
-        <v>0.7338140463448363</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN6">
-        <v>0.7447657483072045</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO6">
-        <v>0.7463997683284124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP6">
-        <v>0.7510653203533341</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ6">
-        <v>0.7714122132770128</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER6">
-        <v>0.7856768754172688</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES6">
-        <v>0.7954215780677466</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET6">
-        <v>0.8094535733962858</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU6">
-        <v>0.8183254617141122</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV6">
-        <v>0.8183833801189403</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW6">
-        <v>0.822440760394536</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX6">
-        <v>0.8276329462218623</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY6">
-        <v>0.831043027801933</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ6">
-        <v>0.8406353238760669</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA6">
-        <v>0.8493196788258019</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB6">
-        <v>0.8511015613016317</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC6">
-        <v>0.860354205655787</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD6">
-        <v>0.8794562255714401</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE6">
-        <v>0.8872278620889373</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF6">
-        <v>0.8881933990674279</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG6">
-        <v>0.8886037133849648</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH6">
-        <v>0.8985425083896496</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI6">
-        <v>0.9192342069878533</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ6">
-        <v>0.9237025589472865</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK6">
-        <v>0.924214721862888</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL6">
-        <v>0.926105251525142</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM6">
-        <v>0.9267488798812107</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN6">
-        <v>0.9281154523688061</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO6">
-        <v>0.9401147113824171</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP6">
-        <v>0.9434171821810839</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ6">
-        <v>0.9435176437187502</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR6">
-        <v>0.9441490929323514</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS6">
-        <v>0.9453489519830823</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT6">
-        <v>0.949546659974615</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU6">
-        <v>0.9503722936038208</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV6">
-        <v>0.9504222796264806</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW6">
-        <v>0.9518315062258618</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX6">
-        <v>0.9532153195485694</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY6">
-        <v>0.9544984159176185</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ6">
-        <v>0.9554481350376712</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA6">
-        <v>0.9563112091240593</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB6">
-        <v>0.9576345526549874</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC6">
-        <v>0.9577509926046455</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD6">
-        <v>0.9603958445679524</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE6">
-        <v>0.9658397509990038</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF6">
-        <v>0.9710718774176391</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG6">
-        <v>0.9745921590873808</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH6">
-        <v>0.9755102788820286</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI6">
-        <v>0.9761319256871207</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ6">
-        <v>0.9781145999563038</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK6">
-        <v>0.9784316249897473</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL6">
-        <v>0.9787550414180631</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM6">
-        <v>0.9814208816356796</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN6">
-        <v>0.9875526679637489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO6">
-        <v>0.9930503281056038</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP6">
-        <v>0.9956321763079594</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ6">
-        <v>0.9979328469661036</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR6">
-        <v>0.9990700165458563</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5172009439717737</v>
+        <v>0.6508027887293928</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5568276484886766</v>
+        <v>0.6874669903724346</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.004297646273515672</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5505536758239862</v>
+        <v>0.7552878713422924</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.004884656897810141</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5318821985958253</v>
+        <v>0.5885779808734325</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.005290168491304452</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5126191388569167</v>
+        <v>0.5753315932284156</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7256653610266763</v>
+        <v>0.722285069237196</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7204409706683977</v>
+        <v>0.7462619534177575</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.004297646273515672</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7035478670978342</v>
+        <v>0.7552878713422924</v>
       </c>
       <c r="G4">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E5">
-        <v>0.004884656897810141</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7097088840703439</v>
+        <v>0.7483395480535247</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="E6">
-        <v>0.005290168491304452</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7014709696512201</v>
+        <v>0.749750212298236</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8132060772561738</v>
+        <v>0.9466074180486054</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8079716165443258</v>
+        <v>0.8790573638390515</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>0.004297646273515672</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8115541183331227</v>
+        <v>0.832499102560778</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E5">
-        <v>0.004884656897810141</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8074085960253845</v>
+        <v>0.937212477496103</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E6">
-        <v>0.005290168491304452</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8094535733962858</v>
+        <v>0.9620676080525459</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="E2">
-        <v>0.001282649778627135</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9055302769894662</v>
+        <v>0.9466074180486054</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="E3">
-        <v>0.003447900032478041</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9053613162896333</v>
+        <v>0.9473837408608927</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="E4">
-        <v>0.004297646273515672</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9003780163010658</v>
+        <v>0.9531814159682729</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="E5">
-        <v>0.004884656897810141</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.903141867856908</v>
+        <v>0.937212477496103</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="E6">
-        <v>0.005290168491304452</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9192342069878533</v>
+        <v>0.9620676080525459</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>10</v>

--- a/on_trucks/Processed_Stand_Alone/10_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/10_245-70R19.xlsx
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2377663101126416</v>
+        <v>0.1883562720413256</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.02510516389178956</v>
       </c>
       <c r="G2">
-        <v>0.3723824370219362</v>
+        <v>0.2806140951908258</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -692,22 +692,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01799627644658349</v>
       </c>
       <c r="K2">
-        <v>0.09700642977460434</v>
+        <v>0.09188788860966107</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01772962084126473</v>
       </c>
       <c r="N2">
-        <v>0.08916778570127046</v>
+        <v>0.08651575188835429</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.007515628400145689</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.06203645274374392</v>
+        <v>0.0679215628021367</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.009354707817189264</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.009409078027060314</v>
       </c>
       <c r="U2">
-        <v>0.05412130604056362</v>
+        <v>0.06249699576466432</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0009130098233818617</v>
       </c>
       <c r="X2">
-        <v>0.0875192786052397</v>
+        <v>0.08538596395270243</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.01451133998321967</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.02045269134469629</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.0138339531749992</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -787,13 +787,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3457160286146471</v>
+        <v>0.2810718858277978</v>
       </c>
       <c r="F3">
-        <v>0.09556791649791392</v>
+        <v>0.09570109906500639</v>
       </c>
       <c r="G3">
-        <v>0.3823040290291285</v>
+        <v>0.3081852082731207</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -802,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0043345091647187</v>
       </c>
       <c r="K3">
-        <v>0.1212261277871134</v>
+        <v>0.1147149655833565</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00793617876372193</v>
       </c>
       <c r="M3">
-        <v>0.002260934458020116</v>
+        <v>0.02655650898660795</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.01184477026260017</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.002125668525927968</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.007929201533682935</v>
       </c>
       <c r="S3">
-        <v>0.0008071050288407967</v>
+        <v>0.02547915724157416</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.01472853565955751</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -844,13 +844,13 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.05211785858433611</v>
+        <v>0.06350268928220477</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.005367150936926981</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.008915787724415331</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.02160668316878013</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3366986924867602</v>
+        <v>0.2847639121176406</v>
       </c>
       <c r="F4">
-        <v>0.1503091983582091</v>
+        <v>0.1407597575663971</v>
       </c>
       <c r="G4">
-        <v>0.3187772531855677</v>
+        <v>0.2709178435558056</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1283580054213029</v>
+        <v>0.1238003093150366</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.01895901933885585</v>
       </c>
       <c r="M4">
-        <v>0.009248231602647625</v>
+        <v>0.03177633361973534</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.004106824489686503</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -933,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.003039826768261577</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.01598442663664308</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.004849594737302712</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.05660861894551232</v>
+        <v>0.06836687521874248</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.000849403767639064</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.01497005020782152</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.01685582266043188</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1007,34 +1007,34 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2659020674170398</v>
+        <v>0.2016516135182773</v>
       </c>
       <c r="F5">
-        <v>0.0227304343382684</v>
+        <v>0.04034648798539808</v>
       </c>
       <c r="G5">
-        <v>0.4494081650546196</v>
+        <v>0.3233782875579669</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.007408307741336323</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.009735064150875309</v>
+        <v>0.03172615759207197</v>
       </c>
       <c r="K5">
-        <v>0.1240314029742299</v>
+        <v>0.1075433285689083</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.01045456113914201</v>
       </c>
       <c r="M5">
-        <v>0.01200690470975754</v>
+        <v>0.03323315708005286</v>
       </c>
       <c r="N5">
-        <v>0.0003081130030836854</v>
+        <v>0.02547289721365328</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.02467773573741563</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.01150139106056939</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.01493207102936305</v>
+        <v>0.03517353274975801</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1064,13 +1064,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.1009457773227627</v>
+        <v>0.09222974245457435</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.01130436783930669</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.02186882985574325</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.003305170023756752</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.01872443188206918</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005630125271338065</v>
       </c>
       <c r="E6">
-        <v>0.2504593990864346</v>
+        <v>0.2212141198256587</v>
       </c>
       <c r="F6">
-        <v>0.2572375251510468</v>
+        <v>0.2265284776502698</v>
       </c>
       <c r="G6">
-        <v>0.1988439662844848</v>
+        <v>0.1807452827802943</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.005106432762393669</v>
       </c>
       <c r="K6">
-        <v>0.2199697496996367</v>
+        <v>0.1973088537913883</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.01555486107933129</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.003096913791262934</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.009917407698003351</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.01354812936084224</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.01871049013293005</v>
       </c>
       <c r="X6">
-        <v>0.07348935977839705</v>
+        <v>0.0824615938098706</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.002053884637459715</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.01812342740895694</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1350,97 +1350,97 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2377663101126416</v>
+        <v>0.1883562720413256</v>
       </c>
       <c r="F2">
-        <v>0.2377663101126416</v>
+        <v>0.2134614359331152</v>
       </c>
       <c r="G2">
-        <v>0.6101487471345779</v>
+        <v>0.4940755311239409</v>
       </c>
       <c r="H2">
-        <v>0.6101487471345779</v>
+        <v>0.4940755311239409</v>
       </c>
       <c r="I2">
-        <v>0.6101487471345779</v>
+        <v>0.4940755311239409</v>
       </c>
       <c r="J2">
-        <v>0.6101487471345779</v>
+        <v>0.5120718075705244</v>
       </c>
       <c r="K2">
-        <v>0.7071551769091823</v>
+        <v>0.6039596961801854</v>
       </c>
       <c r="L2">
-        <v>0.7071551769091823</v>
+        <v>0.6039596961801854</v>
       </c>
       <c r="M2">
-        <v>0.7071551769091823</v>
+        <v>0.6216893170214501</v>
       </c>
       <c r="N2">
-        <v>0.7963229626104528</v>
+        <v>0.7082050689098044</v>
       </c>
       <c r="O2">
-        <v>0.7963229626104528</v>
+        <v>0.71572069730995</v>
       </c>
       <c r="P2">
-        <v>0.7963229626104528</v>
+        <v>0.71572069730995</v>
       </c>
       <c r="Q2">
-        <v>0.7963229626104528</v>
+        <v>0.71572069730995</v>
       </c>
       <c r="R2">
-        <v>0.8583594153541967</v>
+        <v>0.7836422601120867</v>
       </c>
       <c r="S2">
-        <v>0.8583594153541967</v>
+        <v>0.792996967929276</v>
       </c>
       <c r="T2">
-        <v>0.8583594153541967</v>
+        <v>0.8024060459563362</v>
       </c>
       <c r="U2">
-        <v>0.9124807213947603</v>
+        <v>0.8649030417210005</v>
       </c>
       <c r="V2">
-        <v>0.9124807213947603</v>
+        <v>0.8649030417210005</v>
       </c>
       <c r="W2">
-        <v>0.9124807213947603</v>
+        <v>0.8658160515443823</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9512020154970848</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9657133554803045</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9861660468250008</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9861660468250008</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9861660468250008</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9861660468250008</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9861660468250008</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9861660468250008</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9861660468250008</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9861660468250008</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9861660468250008</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9861660468250008</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -1460,97 +1460,97 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3457160286146471</v>
+        <v>0.2810718858277978</v>
       </c>
       <c r="F3">
-        <v>0.441283945112561</v>
+        <v>0.3767729848928042</v>
       </c>
       <c r="G3">
-        <v>0.8235879741416895</v>
+        <v>0.6849581931659249</v>
       </c>
       <c r="H3">
-        <v>0.8235879741416895</v>
+        <v>0.6849581931659249</v>
       </c>
       <c r="I3">
-        <v>0.8235879741416895</v>
+        <v>0.6849581931659249</v>
       </c>
       <c r="J3">
-        <v>0.8235879741416895</v>
+        <v>0.6892927023306435</v>
       </c>
       <c r="K3">
-        <v>0.944814101928803</v>
+        <v>0.8040076679140001</v>
       </c>
       <c r="L3">
-        <v>0.944814101928803</v>
+        <v>0.811943846677722</v>
       </c>
       <c r="M3">
-        <v>0.9470750363868231</v>
+        <v>0.83850035566433</v>
       </c>
       <c r="N3">
-        <v>0.9470750363868231</v>
+        <v>0.8503451259269302</v>
       </c>
       <c r="O3">
-        <v>0.9470750363868231</v>
+        <v>0.8503451259269302</v>
       </c>
       <c r="P3">
-        <v>0.9470750363868231</v>
+        <v>0.8503451259269302</v>
       </c>
       <c r="Q3">
-        <v>0.9470750363868231</v>
+        <v>0.8524707944528582</v>
       </c>
       <c r="R3">
-        <v>0.9470750363868231</v>
+        <v>0.8603999959865412</v>
       </c>
       <c r="S3">
-        <v>0.947882141415664</v>
+        <v>0.8858791532281153</v>
       </c>
       <c r="T3">
-        <v>0.947882141415664</v>
+        <v>0.8858791532281153</v>
       </c>
       <c r="U3">
-        <v>0.947882141415664</v>
+        <v>0.9006076888876728</v>
       </c>
       <c r="V3">
-        <v>0.947882141415664</v>
+        <v>0.9006076888876728</v>
       </c>
       <c r="W3">
-        <v>0.947882141415664</v>
+        <v>0.9006076888876728</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.9641103781698777</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.9641103781698777</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9694775291068046</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9694775291068046</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9694775291068046</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9694775291068046</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9694775291068046</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9694775291068046</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9694775291068046</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9694775291068046</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9694775291068046</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.97839331683122</v>
       </c>
       <c r="AJ3">
         <v>1</v>
@@ -1570,97 +1570,97 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3366986924867602</v>
+        <v>0.2847639121176406</v>
       </c>
       <c r="F4">
-        <v>0.4870078908449693</v>
+        <v>0.4255236696840377</v>
       </c>
       <c r="G4">
-        <v>0.805785144030537</v>
+        <v>0.6964415132398433</v>
       </c>
       <c r="H4">
-        <v>0.805785144030537</v>
+        <v>0.6964415132398433</v>
       </c>
       <c r="I4">
-        <v>0.805785144030537</v>
+        <v>0.6964415132398433</v>
       </c>
       <c r="J4">
-        <v>0.805785144030537</v>
+        <v>0.6964415132398433</v>
       </c>
       <c r="K4">
-        <v>0.93414314945184</v>
+        <v>0.8202418225548799</v>
       </c>
       <c r="L4">
-        <v>0.93414314945184</v>
+        <v>0.8392008418937358</v>
       </c>
       <c r="M4">
-        <v>0.9433913810544876</v>
+        <v>0.8709771755134711</v>
       </c>
       <c r="N4">
-        <v>0.9433913810544876</v>
+        <v>0.8750840000031576</v>
       </c>
       <c r="O4">
-        <v>0.9433913810544876</v>
+        <v>0.8750840000031576</v>
       </c>
       <c r="P4">
-        <v>0.9433913810544876</v>
+        <v>0.8750840000031576</v>
       </c>
       <c r="Q4">
-        <v>0.9433913810544876</v>
+        <v>0.8781238267714191</v>
       </c>
       <c r="R4">
-        <v>0.9433913810544876</v>
+        <v>0.8781238267714191</v>
       </c>
       <c r="S4">
-        <v>0.9433913810544876</v>
+        <v>0.8941082534080622</v>
       </c>
       <c r="T4">
-        <v>0.9433913810544876</v>
+        <v>0.8941082534080622</v>
       </c>
       <c r="U4">
-        <v>0.9433913810544876</v>
+        <v>0.8989578481453649</v>
       </c>
       <c r="V4">
-        <v>0.9433913810544876</v>
+        <v>0.8989578481453649</v>
       </c>
       <c r="W4">
-        <v>0.9433913810544876</v>
+        <v>0.8989578481453649</v>
       </c>
       <c r="X4">
-        <v>0.9999999999999999</v>
+        <v>0.9673247233641075</v>
       </c>
       <c r="Y4">
-        <v>0.9999999999999999</v>
+        <v>0.9673247233641075</v>
       </c>
       <c r="Z4">
-        <v>0.9999999999999999</v>
+        <v>0.9673247233641075</v>
       </c>
       <c r="AA4">
-        <v>0.9999999999999999</v>
+        <v>0.9673247233641075</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999999</v>
+        <v>0.9673247233641075</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999999</v>
+        <v>0.9673247233641075</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999999</v>
+        <v>0.9673247233641075</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999999</v>
+        <v>0.9673247233641075</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>0.9673247233641075</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.9673247233641075</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.9681741271317466</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>0.983144177339568</v>
       </c>
       <c r="AJ4">
         <v>0.9999999999999999</v>
@@ -1680,100 +1680,100 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2659020674170398</v>
+        <v>0.2016516135182773</v>
       </c>
       <c r="F5">
-        <v>0.2886325017553081</v>
+        <v>0.2419981015036753</v>
       </c>
       <c r="G5">
-        <v>0.7380406668099277</v>
+        <v>0.5653763890616422</v>
       </c>
       <c r="H5">
-        <v>0.7380406668099277</v>
+        <v>0.5727846968029785</v>
       </c>
       <c r="I5">
-        <v>0.7380406668099277</v>
+        <v>0.5727846968029785</v>
       </c>
       <c r="J5">
-        <v>0.7477757309608031</v>
+        <v>0.6045108543950505</v>
       </c>
       <c r="K5">
-        <v>0.8718071339350331</v>
+        <v>0.7120541829639587</v>
       </c>
       <c r="L5">
-        <v>0.8718071339350331</v>
+        <v>0.7225087441031007</v>
       </c>
       <c r="M5">
-        <v>0.8838140386447906</v>
+        <v>0.7557419011831535</v>
       </c>
       <c r="N5">
-        <v>0.8841221516478742</v>
+        <v>0.7812147983968069</v>
       </c>
       <c r="O5">
-        <v>0.8841221516478742</v>
+        <v>0.7812147983968069</v>
       </c>
       <c r="P5">
-        <v>0.8841221516478742</v>
+        <v>0.7812147983968069</v>
       </c>
       <c r="Q5">
-        <v>0.8841221516478742</v>
+        <v>0.7812147983968069</v>
       </c>
       <c r="R5">
-        <v>0.8841221516478742</v>
+        <v>0.8058925341342225</v>
       </c>
       <c r="S5">
-        <v>0.8841221516478742</v>
+        <v>0.8173939251947918</v>
       </c>
       <c r="T5">
-        <v>0.8841221516478742</v>
+        <v>0.8173939251947918</v>
       </c>
       <c r="U5">
-        <v>0.8990542226772372</v>
+        <v>0.8525674579445498</v>
       </c>
       <c r="V5">
-        <v>0.8990542226772372</v>
+        <v>0.8525674579445498</v>
       </c>
       <c r="W5">
-        <v>0.8990542226772372</v>
+        <v>0.8525674579445498</v>
       </c>
       <c r="X5">
-        <v>0.9999999999999999</v>
+        <v>0.9447972003991242</v>
       </c>
       <c r="Y5">
-        <v>0.9999999999999999</v>
+        <v>0.9561015682384308</v>
       </c>
       <c r="Z5">
-        <v>0.9999999999999999</v>
+        <v>0.9779703980941741</v>
       </c>
       <c r="AA5">
-        <v>0.9999999999999999</v>
+        <v>0.9779703980941741</v>
       </c>
       <c r="AB5">
-        <v>0.9999999999999999</v>
+        <v>0.9779703980941741</v>
       </c>
       <c r="AC5">
-        <v>0.9999999999999999</v>
+        <v>0.9779703980941741</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999999</v>
+        <v>0.9779703980941741</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999999</v>
+        <v>0.9779703980941741</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>0.9779703980941741</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>0.9779703980941741</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>0.9779703980941741</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>0.9812755681179308</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005630125271338065</v>
       </c>
       <c r="E6">
-        <v>0.2504593990864346</v>
+        <v>0.2268442450969968</v>
       </c>
       <c r="F6">
-        <v>0.5076969242374814</v>
+        <v>0.4533727227472666</v>
       </c>
       <c r="G6">
-        <v>0.7065408905219661</v>
+        <v>0.6341180055275609</v>
       </c>
       <c r="H6">
-        <v>0.7065408905219661</v>
+        <v>0.6341180055275609</v>
       </c>
       <c r="I6">
-        <v>0.7065408905219661</v>
+        <v>0.6341180055275609</v>
       </c>
       <c r="J6">
-        <v>0.7065408905219661</v>
+        <v>0.6392244382899546</v>
       </c>
       <c r="K6">
-        <v>0.9265106402216028</v>
+        <v>0.8365332920813429</v>
       </c>
       <c r="L6">
-        <v>0.9265106402216028</v>
+        <v>0.8520881531606741</v>
       </c>
       <c r="M6">
-        <v>0.9265106402216028</v>
+        <v>0.8551850669519371</v>
       </c>
       <c r="N6">
-        <v>0.9265106402216028</v>
+        <v>0.8551850669519371</v>
       </c>
       <c r="O6">
-        <v>0.9265106402216028</v>
+        <v>0.8551850669519371</v>
       </c>
       <c r="P6">
-        <v>0.9265106402216028</v>
+        <v>0.8551850669519371</v>
       </c>
       <c r="Q6">
-        <v>0.9265106402216028</v>
+        <v>0.8651024746499404</v>
       </c>
       <c r="R6">
-        <v>0.9265106402216028</v>
+        <v>0.8651024746499404</v>
       </c>
       <c r="S6">
-        <v>0.9265106402216028</v>
+        <v>0.8651024746499404</v>
       </c>
       <c r="T6">
-        <v>0.9265106402216028</v>
+        <v>0.8786506040107827</v>
       </c>
       <c r="U6">
-        <v>0.9265106402216028</v>
+        <v>0.8786506040107827</v>
       </c>
       <c r="V6">
-        <v>0.9265106402216028</v>
+        <v>0.8786506040107827</v>
       </c>
       <c r="W6">
-        <v>0.9265106402216028</v>
+        <v>0.8973610941437127</v>
       </c>
       <c r="X6">
-        <v>0.9999999999999998</v>
+        <v>0.9798226879535833</v>
       </c>
       <c r="Y6">
-        <v>0.9999999999999998</v>
+        <v>0.9798226879535833</v>
       </c>
       <c r="Z6">
-        <v>0.9999999999999998</v>
+        <v>0.9798226879535833</v>
       </c>
       <c r="AA6">
-        <v>0.9999999999999998</v>
+        <v>0.9798226879535833</v>
       </c>
       <c r="AB6">
-        <v>0.9999999999999998</v>
+        <v>0.9798226879535833</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999998</v>
+        <v>0.9798226879535833</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999998</v>
+        <v>0.9798226879535833</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999998</v>
+        <v>0.9798226879535833</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999998</v>
+        <v>0.9798226879535833</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999998</v>
+        <v>0.9798226879535833</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>0.981876572591043</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1951,16 +1951,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6101487471345779</v>
+        <v>0.5120718075705244</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8235879741416895</v>
+        <v>0.6849581931659249</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.805785144030537</v>
+        <v>0.6964415132398433</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7380406668099277</v>
+        <v>0.5653763890616422</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2115,16 +2115,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5076969242374814</v>
+        <v>0.6341180055275609</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -2210,16 +2210,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7071551769091823</v>
+        <v>0.7082050689098044</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -2251,16 +2251,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8235879741416895</v>
+        <v>0.8040076679140001</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -2292,16 +2292,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.805785144030537</v>
+        <v>0.8202418225548799</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -2333,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7380406668099277</v>
+        <v>0.7120541829639587</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7065408905219661</v>
+        <v>0.8365332920813429</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -2469,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8024060459563362</v>
+      </c>
+      <c r="G2">
         <v>17</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8583594153541967</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8235879741416895</v>
+        <v>0.8040076679140001</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -2551,16 +2551,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.805785144030537</v>
+        <v>0.8202418225548799</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -2592,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8718071339350331</v>
+        <v>0.8058925341342225</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9265106402216028</v>
+        <v>0.8365332920813429</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -2728,16 +2728,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9124807213947603</v>
+        <v>0.9512020154970848</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -2769,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.944814101928803</v>
+        <v>0.9006076888876728</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -2810,16 +2810,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.93414314945184</v>
+        <v>0.9673247233641075</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999999999</v>
+        <v>0.9447972003991242</v>
       </c>
       <c r="G5">
         <v>21</v>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9265106402216028</v>
+        <v>0.9798226879535833</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>10</v>
